--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,30 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Italy Serie B</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Bari 1908</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +776,197 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6845984</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45156.64583333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>3.1</v>
+      </c>
+      <c r="U2">
+        <v>2.05</v>
+      </c>
+      <c r="V2">
+        <v>3.75</v>
+      </c>
+      <c r="W2">
+        <v>1.44</v>
+      </c>
+      <c r="X2">
+        <v>2.63</v>
+      </c>
+      <c r="Y2">
+        <v>3.25</v>
+      </c>
+      <c r="Z2">
+        <v>1.33</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>1.06</v>
+      </c>
+      <c r="AC2">
+        <v>2.38</v>
+      </c>
+      <c r="AD2">
+        <v>3.2</v>
+      </c>
+      <c r="AE2">
+        <v>2.95</v>
+      </c>
+      <c r="AF2">
+        <v>1.07</v>
+      </c>
+      <c r="AG2">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>1.37</v>
+      </c>
+      <c r="AI2">
+        <v>3.1</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>1.7</v>
+      </c>
+      <c r="AL2">
+        <v>1.91</v>
+      </c>
+      <c r="AM2">
+        <v>1.91</v>
+      </c>
+      <c r="AN2">
+        <v>1.36</v>
+      </c>
+      <c r="AO2">
+        <v>1.33</v>
+      </c>
+      <c r="AP2">
+        <v>1.57</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>2.1</v>
+      </c>
+      <c r="AY2">
+        <v>8</v>
+      </c>
+      <c r="AZ2">
+        <v>1.91</v>
+      </c>
+      <c r="BA2">
+        <v>1.25</v>
+      </c>
+      <c r="BB2">
+        <v>1.47</v>
+      </c>
+      <c r="BC2">
+        <v>1.8</v>
+      </c>
+      <c r="BD2">
+        <v>2.38</v>
+      </c>
+      <c r="BE2">
+        <v>3.25</v>
+      </c>
+      <c r="BF2">
+        <v>4</v>
+      </c>
+      <c r="BG2">
+        <v>4</v>
+      </c>
+      <c r="BH2">
+        <v>4</v>
+      </c>
+      <c r="BI2">
+        <v>8</v>
+      </c>
+      <c r="BJ2">
+        <v>8</v>
+      </c>
+      <c r="BK2">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -214,10 +214,76 @@
     <t>Bari 1908</t>
   </si>
   <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Südtirol</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
     <t>Palermo</t>
   </si>
   <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>FeralpiSalò</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['20', '54', '61']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['32', '50', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['37', '66']</t>
+  </si>
+  <si>
+    <t>['19', '32', '54']</t>
+  </si>
+  <si>
+    <t>['5', '77']</t>
+  </si>
+  <si>
+    <t>['8', '36', '62']</t>
   </si>
 </sst>
 </file>
@@ -579,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,7 +865,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -820,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -965,6 +1031,1343 @@
       </c>
       <c r="BK2">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6845986</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45157.64583333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>3.5</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>3.5</v>
+      </c>
+      <c r="W3">
+        <v>1.53</v>
+      </c>
+      <c r="X3">
+        <v>2.38</v>
+      </c>
+      <c r="Y3">
+        <v>3.5</v>
+      </c>
+      <c r="Z3">
+        <v>1.29</v>
+      </c>
+      <c r="AA3">
+        <v>11</v>
+      </c>
+      <c r="AB3">
+        <v>1.05</v>
+      </c>
+      <c r="AC3">
+        <v>2.66</v>
+      </c>
+      <c r="AD3">
+        <v>2.9</v>
+      </c>
+      <c r="AE3">
+        <v>2.75</v>
+      </c>
+      <c r="AF3">
+        <v>1.1</v>
+      </c>
+      <c r="AG3">
+        <v>6.5</v>
+      </c>
+      <c r="AH3">
+        <v>1.45</v>
+      </c>
+      <c r="AI3">
+        <v>2.65</v>
+      </c>
+      <c r="AJ3">
+        <v>2.29</v>
+      </c>
+      <c r="AK3">
+        <v>1.55</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>1.75</v>
+      </c>
+      <c r="AN3">
+        <v>1.44</v>
+      </c>
+      <c r="AO3">
+        <v>1.3</v>
+      </c>
+      <c r="AP3">
+        <v>1.45</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.85</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>2.28</v>
+      </c>
+      <c r="BA3">
+        <v>1.27</v>
+      </c>
+      <c r="BB3">
+        <v>1.49</v>
+      </c>
+      <c r="BC3">
+        <v>1.85</v>
+      </c>
+      <c r="BD3">
+        <v>2.37</v>
+      </c>
+      <c r="BE3">
+        <v>3.3</v>
+      </c>
+      <c r="BF3">
+        <v>7</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>9</v>
+      </c>
+      <c r="BI3">
+        <v>3</v>
+      </c>
+      <c r="BJ3">
+        <v>16</v>
+      </c>
+      <c r="BK3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6845987</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45157.64583333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>2.2</v>
+      </c>
+      <c r="V4">
+        <v>4.5</v>
+      </c>
+      <c r="W4">
+        <v>1.4</v>
+      </c>
+      <c r="X4">
+        <v>2.75</v>
+      </c>
+      <c r="Y4">
+        <v>2.75</v>
+      </c>
+      <c r="Z4">
+        <v>1.4</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>1.08</v>
+      </c>
+      <c r="AC4">
+        <v>1.85</v>
+      </c>
+      <c r="AD4">
+        <v>3.4</v>
+      </c>
+      <c r="AE4">
+        <v>3.99</v>
+      </c>
+      <c r="AF4">
+        <v>1.06</v>
+      </c>
+      <c r="AG4">
+        <v>8</v>
+      </c>
+      <c r="AH4">
+        <v>1.3</v>
+      </c>
+      <c r="AI4">
+        <v>3.3</v>
+      </c>
+      <c r="AJ4">
+        <v>1.8</v>
+      </c>
+      <c r="AK4">
+        <v>1.9</v>
+      </c>
+      <c r="AL4">
+        <v>1.8</v>
+      </c>
+      <c r="AM4">
+        <v>1.95</v>
+      </c>
+      <c r="AN4">
+        <v>1.18</v>
+      </c>
+      <c r="AO4">
+        <v>1.22</v>
+      </c>
+      <c r="AP4">
+        <v>1.9</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.85</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>2.28</v>
+      </c>
+      <c r="BA4">
+        <v>1.29</v>
+      </c>
+      <c r="BB4">
+        <v>1.52</v>
+      </c>
+      <c r="BC4">
+        <v>1.9</v>
+      </c>
+      <c r="BD4">
+        <v>2.47</v>
+      </c>
+      <c r="BE4">
+        <v>3.5</v>
+      </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>7</v>
+      </c>
+      <c r="BI4">
+        <v>2</v>
+      </c>
+      <c r="BJ4">
+        <v>11</v>
+      </c>
+      <c r="BK4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6845991</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45157.64583333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>3.75</v>
+      </c>
+      <c r="U5">
+        <v>2.2</v>
+      </c>
+      <c r="V5">
+        <v>2.88</v>
+      </c>
+      <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>2.75</v>
+      </c>
+      <c r="Y5">
+        <v>2.75</v>
+      </c>
+      <c r="Z5">
+        <v>1.4</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
+        <v>1.08</v>
+      </c>
+      <c r="AC5">
+        <v>2.97</v>
+      </c>
+      <c r="AD5">
+        <v>3.4</v>
+      </c>
+      <c r="AE5">
+        <v>2.2</v>
+      </c>
+      <c r="AF5">
+        <v>1.06</v>
+      </c>
+      <c r="AG5">
+        <v>8</v>
+      </c>
+      <c r="AH5">
+        <v>1.3</v>
+      </c>
+      <c r="AI5">
+        <v>3.3</v>
+      </c>
+      <c r="AJ5">
+        <v>1.86</v>
+      </c>
+      <c r="AK5">
+        <v>1.84</v>
+      </c>
+      <c r="AL5">
+        <v>1.75</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>1.68</v>
+      </c>
+      <c r="AO5">
+        <v>1.25</v>
+      </c>
+      <c r="AP5">
+        <v>1.33</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.83</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>2.2</v>
+      </c>
+      <c r="BA5">
+        <v>1.22</v>
+      </c>
+      <c r="BB5">
+        <v>1.42</v>
+      </c>
+      <c r="BC5">
+        <v>1.73</v>
+      </c>
+      <c r="BD5">
+        <v>2.22</v>
+      </c>
+      <c r="BE5">
+        <v>2.95</v>
+      </c>
+      <c r="BF5">
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <v>7</v>
+      </c>
+      <c r="BH5">
+        <v>3</v>
+      </c>
+      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <v>7</v>
+      </c>
+      <c r="BK5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6845990</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45158.54166666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1.53</v>
+      </c>
+      <c r="X6">
+        <v>2.38</v>
+      </c>
+      <c r="Y6">
+        <v>3.5</v>
+      </c>
+      <c r="Z6">
+        <v>1.29</v>
+      </c>
+      <c r="AA6">
+        <v>11</v>
+      </c>
+      <c r="AB6">
+        <v>1.05</v>
+      </c>
+      <c r="AC6">
+        <v>3.31</v>
+      </c>
+      <c r="AD6">
+        <v>2.88</v>
+      </c>
+      <c r="AE6">
+        <v>2.08</v>
+      </c>
+      <c r="AF6">
+        <v>1.09</v>
+      </c>
+      <c r="AG6">
+        <v>6</v>
+      </c>
+      <c r="AH6">
+        <v>1.44</v>
+      </c>
+      <c r="AI6">
+        <v>2.6</v>
+      </c>
+      <c r="AJ6">
+        <v>2.25</v>
+      </c>
+      <c r="AK6">
+        <v>1.53</v>
+      </c>
+      <c r="AL6">
+        <v>2.05</v>
+      </c>
+      <c r="AM6">
+        <v>1.7</v>
+      </c>
+      <c r="AN6">
+        <v>1.62</v>
+      </c>
+      <c r="AO6">
+        <v>1.38</v>
+      </c>
+      <c r="AP6">
+        <v>1.33</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>2.9</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>1.59</v>
+      </c>
+      <c r="BA6">
+        <v>1.27</v>
+      </c>
+      <c r="BB6">
+        <v>1.48</v>
+      </c>
+      <c r="BC6">
+        <v>1.85</v>
+      </c>
+      <c r="BD6">
+        <v>2.37</v>
+      </c>
+      <c r="BE6">
+        <v>3.3</v>
+      </c>
+      <c r="BF6">
+        <v>2</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>2</v>
+      </c>
+      <c r="BI6">
+        <v>6</v>
+      </c>
+      <c r="BJ6">
+        <v>4</v>
+      </c>
+      <c r="BK6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6845985</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45158.64583333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>2.88</v>
+      </c>
+      <c r="U7">
+        <v>2.05</v>
+      </c>
+      <c r="V7">
+        <v>4.33</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>3.4</v>
+      </c>
+      <c r="Z7">
+        <v>1.3</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>1.06</v>
+      </c>
+      <c r="AC7">
+        <v>2.12</v>
+      </c>
+      <c r="AD7">
+        <v>3.2</v>
+      </c>
+      <c r="AE7">
+        <v>3.35</v>
+      </c>
+      <c r="AF7">
+        <v>1.08</v>
+      </c>
+      <c r="AG7">
+        <v>7</v>
+      </c>
+      <c r="AH7">
+        <v>1.4</v>
+      </c>
+      <c r="AI7">
+        <v>2.8</v>
+      </c>
+      <c r="AJ7">
+        <v>2.3</v>
+      </c>
+      <c r="AK7">
+        <v>1.58</v>
+      </c>
+      <c r="AL7">
+        <v>1.95</v>
+      </c>
+      <c r="AM7">
+        <v>1.8</v>
+      </c>
+      <c r="AN7">
+        <v>1.22</v>
+      </c>
+      <c r="AO7">
+        <v>1.28</v>
+      </c>
+      <c r="AP7">
+        <v>1.72</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>2.05</v>
+      </c>
+      <c r="AY7">
+        <v>7.5</v>
+      </c>
+      <c r="AZ7">
+        <v>2.05</v>
+      </c>
+      <c r="BA7">
+        <v>1.31</v>
+      </c>
+      <c r="BB7">
+        <v>1.63</v>
+      </c>
+      <c r="BC7">
+        <v>2.07</v>
+      </c>
+      <c r="BD7">
+        <v>2.77</v>
+      </c>
+      <c r="BE7">
+        <v>4.1</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>2</v>
+      </c>
+      <c r="BH7">
+        <v>6</v>
+      </c>
+      <c r="BI7">
+        <v>3</v>
+      </c>
+      <c r="BJ7">
+        <v>10</v>
+      </c>
+      <c r="BK7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6845988</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45158.64583333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>2.1</v>
+      </c>
+      <c r="U8">
+        <v>2.1</v>
+      </c>
+      <c r="V8">
+        <v>6.5</v>
+      </c>
+      <c r="W8">
+        <v>1.44</v>
+      </c>
+      <c r="X8">
+        <v>2.63</v>
+      </c>
+      <c r="Y8">
+        <v>3.25</v>
+      </c>
+      <c r="Z8">
+        <v>1.33</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>1.07</v>
+      </c>
+      <c r="AC8">
+        <v>1.67</v>
+      </c>
+      <c r="AD8">
+        <v>3.25</v>
+      </c>
+      <c r="AE8">
+        <v>4.8</v>
+      </c>
+      <c r="AF8">
+        <v>1.07</v>
+      </c>
+      <c r="AG8">
+        <v>7.75</v>
+      </c>
+      <c r="AH8">
+        <v>1.37</v>
+      </c>
+      <c r="AI8">
+        <v>2.85</v>
+      </c>
+      <c r="AJ8">
+        <v>2.3</v>
+      </c>
+      <c r="AK8">
+        <v>1.58</v>
+      </c>
+      <c r="AL8">
+        <v>2.2</v>
+      </c>
+      <c r="AM8">
+        <v>1.62</v>
+      </c>
+      <c r="AN8">
+        <v>1.12</v>
+      </c>
+      <c r="AO8">
+        <v>1.24</v>
+      </c>
+      <c r="AP8">
+        <v>2.4</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.19</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
+        <v>5.67</v>
+      </c>
+      <c r="BA8">
+        <v>1.2</v>
+      </c>
+      <c r="BB8">
+        <v>1.35</v>
+      </c>
+      <c r="BC8">
+        <v>1.65</v>
+      </c>
+      <c r="BD8">
+        <v>2.1</v>
+      </c>
+      <c r="BE8">
+        <v>2.75</v>
+      </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
+      <c r="BG8">
+        <v>3</v>
+      </c>
+      <c r="BH8">
+        <v>5</v>
+      </c>
+      <c r="BI8">
+        <v>6</v>
+      </c>
+      <c r="BJ8">
+        <v>10</v>
+      </c>
+      <c r="BK8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6845992</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45158.64583333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>2.1</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>1.44</v>
+      </c>
+      <c r="X9">
+        <v>2.63</v>
+      </c>
+      <c r="Y9">
+        <v>3.25</v>
+      </c>
+      <c r="Z9">
+        <v>1.33</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>1.07</v>
+      </c>
+      <c r="AC9">
+        <v>2.08</v>
+      </c>
+      <c r="AD9">
+        <v>3.3</v>
+      </c>
+      <c r="AE9">
+        <v>3.35</v>
+      </c>
+      <c r="AF9">
+        <v>1.05</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
+        <v>1.33</v>
+      </c>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AJ9">
+        <v>2.06</v>
+      </c>
+      <c r="AK9">
+        <v>1.72</v>
+      </c>
+      <c r="AL9">
+        <v>1.91</v>
+      </c>
+      <c r="AM9">
+        <v>1.91</v>
+      </c>
+      <c r="AN9">
+        <v>1.25</v>
+      </c>
+      <c r="AO9">
+        <v>1.28</v>
+      </c>
+      <c r="AP9">
+        <v>1.7</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.69</v>
+      </c>
+      <c r="AY9">
+        <v>8.5</v>
+      </c>
+      <c r="AZ9">
+        <v>2.53</v>
+      </c>
+      <c r="BA9">
+        <v>1.13</v>
+      </c>
+      <c r="BB9">
+        <v>1.28</v>
+      </c>
+      <c r="BC9">
+        <v>1.5</v>
+      </c>
+      <c r="BD9">
+        <v>1.9</v>
+      </c>
+      <c r="BE9">
+        <v>2.45</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>4</v>
+      </c>
+      <c r="BH9">
+        <v>8</v>
+      </c>
+      <c r="BI9">
+        <v>5</v>
+      </c>
+      <c r="BJ9">
+        <v>15</v>
+      </c>
+      <c r="BK9">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -1779,22 +1779,22 @@
         <v>3.3</v>
       </c>
       <c r="BF6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG6">
+        <v>6</v>
+      </c>
+      <c r="BH6">
         <v>4</v>
       </c>
-      <c r="BH6">
-        <v>2</v>
-      </c>
       <c r="BI6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,6 +235,18 @@
     <t>Venezia</t>
   </si>
   <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Modena</t>
+  </si>
+  <si>
+    <t>FeralpiSalò</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>Palermo</t>
   </si>
   <si>
@@ -244,19 +256,13 @@
     <t>Catanzaro</t>
   </si>
   <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
     <t>Spezia</t>
   </si>
   <si>
     <t>Reggiana</t>
   </si>
   <si>
-    <t>FeralpiSalò</t>
-  </si>
-  <si>
-    <t>Como</t>
+    <t>Pisa</t>
   </si>
   <si>
     <t>[]</t>
@@ -280,10 +286,37 @@
     <t>['19', '32', '54']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['2', '47']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['4', '47']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
     <t>['8', '36', '62']</t>
+  </si>
+  <si>
+    <t>['14', '59']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['23', '82']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['54', '90']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +898,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -886,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1056,7 +1089,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1077,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1247,7 +1280,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1268,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1358,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1438,7 +1471,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1459,10 +1492,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1629,7 +1662,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1650,10 +1683,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1820,7 +1853,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1841,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1934,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2011,7 +2044,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2032,10 +2065,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2202,7 +2235,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2223,10 +2256,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2313,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2368,6 +2401,1343 @@
       </c>
       <c r="BK9">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6846000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45163.64583333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>2.4</v>
+      </c>
+      <c r="U10">
+        <v>2.05</v>
+      </c>
+      <c r="V10">
+        <v>4.75</v>
+      </c>
+      <c r="W10">
+        <v>1.45</v>
+      </c>
+      <c r="X10">
+        <v>2.6</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>1.35</v>
+      </c>
+      <c r="AA10">
+        <v>8.75</v>
+      </c>
+      <c r="AB10">
+        <v>1.07</v>
+      </c>
+      <c r="AC10">
+        <v>1.69</v>
+      </c>
+      <c r="AD10">
+        <v>3.4</v>
+      </c>
+      <c r="AE10">
+        <v>4.45</v>
+      </c>
+      <c r="AF10">
+        <v>1.07</v>
+      </c>
+      <c r="AG10">
+        <v>9.6</v>
+      </c>
+      <c r="AH10">
+        <v>1.37</v>
+      </c>
+      <c r="AI10">
+        <v>3.15</v>
+      </c>
+      <c r="AJ10">
+        <v>2.06</v>
+      </c>
+      <c r="AK10">
+        <v>1.6</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>1.77</v>
+      </c>
+      <c r="AN10">
+        <v>1.15</v>
+      </c>
+      <c r="AO10">
+        <v>1.25</v>
+      </c>
+      <c r="AP10">
+        <v>2.05</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.45</v>
+      </c>
+      <c r="AY10">
+        <v>8.5</v>
+      </c>
+      <c r="AZ10">
+        <v>3.33</v>
+      </c>
+      <c r="BA10">
+        <v>1.24</v>
+      </c>
+      <c r="BB10">
+        <v>1.46</v>
+      </c>
+      <c r="BC10">
+        <v>1.95</v>
+      </c>
+      <c r="BD10">
+        <v>2.4</v>
+      </c>
+      <c r="BE10">
+        <v>3.3</v>
+      </c>
+      <c r="BF10">
+        <v>3</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>8</v>
+      </c>
+      <c r="BI10">
+        <v>5</v>
+      </c>
+      <c r="BJ10">
+        <v>11</v>
+      </c>
+      <c r="BK10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6846001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>2.38</v>
+      </c>
+      <c r="U11">
+        <v>2.09</v>
+      </c>
+      <c r="V11">
+        <v>5.2</v>
+      </c>
+      <c r="W11">
+        <v>1.45</v>
+      </c>
+      <c r="X11">
+        <v>2.64</v>
+      </c>
+      <c r="Y11">
+        <v>3.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.34</v>
+      </c>
+      <c r="AA11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>1.06</v>
+      </c>
+      <c r="AC11">
+        <v>1.8</v>
+      </c>
+      <c r="AD11">
+        <v>3.45</v>
+      </c>
+      <c r="AE11">
+        <v>4.5</v>
+      </c>
+      <c r="AF11">
+        <v>1.04</v>
+      </c>
+      <c r="AG11">
+        <v>7.9</v>
+      </c>
+      <c r="AH11">
+        <v>1.35</v>
+      </c>
+      <c r="AI11">
+        <v>2.88</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2</v>
+      </c>
+      <c r="AK11">
+        <v>1.57</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>1.76</v>
+      </c>
+      <c r="AN11">
+        <v>1.19</v>
+      </c>
+      <c r="AO11">
+        <v>1.29</v>
+      </c>
+      <c r="AP11">
+        <v>2.02</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>2</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1.77</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>1.77</v>
+      </c>
+      <c r="AX11">
+        <v>1.75</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>2.44</v>
+      </c>
+      <c r="BA11">
+        <v>1.21</v>
+      </c>
+      <c r="BB11">
+        <v>1.4</v>
+      </c>
+      <c r="BC11">
+        <v>1.71</v>
+      </c>
+      <c r="BD11">
+        <v>2.2</v>
+      </c>
+      <c r="BE11">
+        <v>3</v>
+      </c>
+      <c r="BF11">
+        <v>5</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <v>3</v>
+      </c>
+      <c r="BJ11">
+        <v>12</v>
+      </c>
+      <c r="BK11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6845999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>2.55</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>4.5</v>
+      </c>
+      <c r="W12">
+        <v>1.47</v>
+      </c>
+      <c r="X12">
+        <v>2.5</v>
+      </c>
+      <c r="Y12">
+        <v>3.15</v>
+      </c>
+      <c r="Z12">
+        <v>1.32</v>
+      </c>
+      <c r="AA12">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>1.04</v>
+      </c>
+      <c r="AC12">
+        <v>1.9</v>
+      </c>
+      <c r="AD12">
+        <v>3.35</v>
+      </c>
+      <c r="AE12">
+        <v>4.2</v>
+      </c>
+      <c r="AF12">
+        <v>1.08</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>1.38</v>
+      </c>
+      <c r="AI12">
+        <v>2.9</v>
+      </c>
+      <c r="AJ12">
+        <v>2.2</v>
+      </c>
+      <c r="AK12">
+        <v>1.53</v>
+      </c>
+      <c r="AL12">
+        <v>1.95</v>
+      </c>
+      <c r="AM12">
+        <v>1.78</v>
+      </c>
+      <c r="AN12">
+        <v>1.18</v>
+      </c>
+      <c r="AO12">
+        <v>1.25</v>
+      </c>
+      <c r="AP12">
+        <v>1.87</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>1.46</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1.46</v>
+      </c>
+      <c r="AX12">
+        <v>1.51</v>
+      </c>
+      <c r="AY12">
+        <v>8.5</v>
+      </c>
+      <c r="AZ12">
+        <v>3.07</v>
+      </c>
+      <c r="BA12">
+        <v>1.23</v>
+      </c>
+      <c r="BB12">
+        <v>1.44</v>
+      </c>
+      <c r="BC12">
+        <v>1.8</v>
+      </c>
+      <c r="BD12">
+        <v>2.35</v>
+      </c>
+      <c r="BE12">
+        <v>3.25</v>
+      </c>
+      <c r="BF12">
+        <v>3</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
+        <v>2</v>
+      </c>
+      <c r="BI12">
+        <v>8</v>
+      </c>
+      <c r="BJ12">
+        <v>5</v>
+      </c>
+      <c r="BK12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6845998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>2.6</v>
+      </c>
+      <c r="U13">
+        <v>1.95</v>
+      </c>
+      <c r="V13">
+        <v>4.4</v>
+      </c>
+      <c r="W13">
+        <v>1.49</v>
+      </c>
+      <c r="X13">
+        <v>2.45</v>
+      </c>
+      <c r="Y13">
+        <v>3.2</v>
+      </c>
+      <c r="Z13">
+        <v>1.3</v>
+      </c>
+      <c r="AA13">
+        <v>8.75</v>
+      </c>
+      <c r="AB13">
+        <v>1.06</v>
+      </c>
+      <c r="AC13">
+        <v>1.95</v>
+      </c>
+      <c r="AD13">
+        <v>3.25</v>
+      </c>
+      <c r="AE13">
+        <v>4.1</v>
+      </c>
+      <c r="AF13">
+        <v>1.04</v>
+      </c>
+      <c r="AG13">
+        <v>7.5</v>
+      </c>
+      <c r="AH13">
+        <v>1.37</v>
+      </c>
+      <c r="AI13">
+        <v>2.79</v>
+      </c>
+      <c r="AJ13">
+        <v>2.25</v>
+      </c>
+      <c r="AK13">
+        <v>1.53</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1.71</v>
+      </c>
+      <c r="AN13">
+        <v>1.23</v>
+      </c>
+      <c r="AO13">
+        <v>1.33</v>
+      </c>
+      <c r="AP13">
+        <v>1.8</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0.34</v>
+      </c>
+      <c r="AW13">
+        <v>0.34</v>
+      </c>
+      <c r="AX13">
+        <v>1.59</v>
+      </c>
+      <c r="AY13">
+        <v>8.5</v>
+      </c>
+      <c r="AZ13">
+        <v>2.78</v>
+      </c>
+      <c r="BA13">
+        <v>1.21</v>
+      </c>
+      <c r="BB13">
+        <v>1.4</v>
+      </c>
+      <c r="BC13">
+        <v>1.71</v>
+      </c>
+      <c r="BD13">
+        <v>2.2</v>
+      </c>
+      <c r="BE13">
+        <v>3</v>
+      </c>
+      <c r="BF13">
+        <v>5</v>
+      </c>
+      <c r="BG13">
+        <v>6</v>
+      </c>
+      <c r="BH13">
+        <v>6</v>
+      </c>
+      <c r="BI13">
+        <v>3</v>
+      </c>
+      <c r="BJ13">
+        <v>11</v>
+      </c>
+      <c r="BK13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6845996</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>3.25</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
+        <v>3.4</v>
+      </c>
+      <c r="W14">
+        <v>1.49</v>
+      </c>
+      <c r="X14">
+        <v>2.45</v>
+      </c>
+      <c r="Y14">
+        <v>3.25</v>
+      </c>
+      <c r="Z14">
+        <v>1.3</v>
+      </c>
+      <c r="AA14">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>1.04</v>
+      </c>
+      <c r="AC14">
+        <v>2.55</v>
+      </c>
+      <c r="AD14">
+        <v>3.05</v>
+      </c>
+      <c r="AE14">
+        <v>2.85</v>
+      </c>
+      <c r="AF14">
+        <v>1.1</v>
+      </c>
+      <c r="AG14">
+        <v>6.5</v>
+      </c>
+      <c r="AH14">
+        <v>1.4</v>
+      </c>
+      <c r="AI14">
+        <v>2.8</v>
+      </c>
+      <c r="AJ14">
+        <v>2.2</v>
+      </c>
+      <c r="AK14">
+        <v>1.53</v>
+      </c>
+      <c r="AL14">
+        <v>1.9</v>
+      </c>
+      <c r="AM14">
+        <v>1.83</v>
+      </c>
+      <c r="AN14">
+        <v>1.36</v>
+      </c>
+      <c r="AO14">
+        <v>1.28</v>
+      </c>
+      <c r="AP14">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.91</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
+      <c r="AZ14">
+        <v>2.2</v>
+      </c>
+      <c r="BA14">
+        <v>1.23</v>
+      </c>
+      <c r="BB14">
+        <v>1.44</v>
+      </c>
+      <c r="BC14">
+        <v>1.83</v>
+      </c>
+      <c r="BD14">
+        <v>2.35</v>
+      </c>
+      <c r="BE14">
+        <v>3.25</v>
+      </c>
+      <c r="BF14">
+        <v>2</v>
+      </c>
+      <c r="BG14">
+        <v>2</v>
+      </c>
+      <c r="BH14">
+        <v>4</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
+      </c>
+      <c r="BJ14">
+        <v>6</v>
+      </c>
+      <c r="BK14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6845995</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>2.67</v>
+      </c>
+      <c r="U15">
+        <v>2.06</v>
+      </c>
+      <c r="V15">
+        <v>4.3</v>
+      </c>
+      <c r="W15">
+        <v>1.44</v>
+      </c>
+      <c r="X15">
+        <v>2.66</v>
+      </c>
+      <c r="Y15">
+        <v>3.1</v>
+      </c>
+      <c r="Z15">
+        <v>1.34</v>
+      </c>
+      <c r="AA15">
+        <v>8.1</v>
+      </c>
+      <c r="AB15">
+        <v>1.06</v>
+      </c>
+      <c r="AC15">
+        <v>2.1</v>
+      </c>
+      <c r="AD15">
+        <v>3.25</v>
+      </c>
+      <c r="AE15">
+        <v>3.6</v>
+      </c>
+      <c r="AF15">
+        <v>1.03</v>
+      </c>
+      <c r="AG15">
+        <v>7.9</v>
+      </c>
+      <c r="AH15">
+        <v>1.34</v>
+      </c>
+      <c r="AI15">
+        <v>2.93</v>
+      </c>
+      <c r="AJ15">
+        <v>2.15</v>
+      </c>
+      <c r="AK15">
+        <v>1.57</v>
+      </c>
+      <c r="AL15">
+        <v>1.89</v>
+      </c>
+      <c r="AM15">
+        <v>1.85</v>
+      </c>
+      <c r="AN15">
+        <v>1.29</v>
+      </c>
+      <c r="AO15">
+        <v>1.32</v>
+      </c>
+      <c r="AP15">
+        <v>1.75</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0.5</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+      <c r="AU15">
+        <v>1.5</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>1.5</v>
+      </c>
+      <c r="AX15">
+        <v>1.64</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <v>2.67</v>
+      </c>
+      <c r="BA15">
+        <v>1.24</v>
+      </c>
+      <c r="BB15">
+        <v>1.46</v>
+      </c>
+      <c r="BC15">
+        <v>1.9</v>
+      </c>
+      <c r="BD15">
+        <v>2.4</v>
+      </c>
+      <c r="BE15">
+        <v>3.3</v>
+      </c>
+      <c r="BF15">
+        <v>6</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>12</v>
+      </c>
+      <c r="BI15">
+        <v>5</v>
+      </c>
+      <c r="BJ15">
+        <v>18</v>
+      </c>
+      <c r="BK15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6845994</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>1.47</v>
+      </c>
+      <c r="X16">
+        <v>2.5</v>
+      </c>
+      <c r="Y16">
+        <v>3.05</v>
+      </c>
+      <c r="Z16">
+        <v>1.33</v>
+      </c>
+      <c r="AA16">
+        <v>7.9</v>
+      </c>
+      <c r="AB16">
+        <v>1.05</v>
+      </c>
+      <c r="AC16">
+        <v>2.1</v>
+      </c>
+      <c r="AD16">
+        <v>3.2</v>
+      </c>
+      <c r="AE16">
+        <v>3.65</v>
+      </c>
+      <c r="AF16">
+        <v>1.1</v>
+      </c>
+      <c r="AG16">
+        <v>6.5</v>
+      </c>
+      <c r="AH16">
+        <v>1.36</v>
+      </c>
+      <c r="AI16">
+        <v>2.95</v>
+      </c>
+      <c r="AJ16">
+        <v>2.2</v>
+      </c>
+      <c r="AK16">
+        <v>1.53</v>
+      </c>
+      <c r="AL16">
+        <v>1.87</v>
+      </c>
+      <c r="AM16">
+        <v>1.87</v>
+      </c>
+      <c r="AN16">
+        <v>1.22</v>
+      </c>
+      <c r="AO16">
+        <v>1.28</v>
+      </c>
+      <c r="AP16">
+        <v>1.7</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>0.5</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0.86</v>
+      </c>
+      <c r="AW16">
+        <v>0.86</v>
+      </c>
+      <c r="AX16">
+        <v>2.39</v>
+      </c>
+      <c r="AY16">
+        <v>8</v>
+      </c>
+      <c r="AZ16">
+        <v>1.82</v>
+      </c>
+      <c r="BA16">
+        <v>1.23</v>
+      </c>
+      <c r="BB16">
+        <v>1.44</v>
+      </c>
+      <c r="BC16">
+        <v>1.83</v>
+      </c>
+      <c r="BD16">
+        <v>2.35</v>
+      </c>
+      <c r="BE16">
+        <v>3.25</v>
+      </c>
+      <c r="BF16">
+        <v>5</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>2</v>
+      </c>
+      <c r="BJ16">
+        <v>6</v>
+      </c>
+      <c r="BK16">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,15 +247,15 @@
     <t>Como</t>
   </si>
   <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
     <t>Palermo</t>
   </si>
   <si>
     <t>Ascoli</t>
   </si>
   <si>
-    <t>Catanzaro</t>
-  </si>
-  <si>
     <t>Spezia</t>
   </si>
   <si>
@@ -298,6 +298,9 @@
     <t>['4', '47']</t>
   </si>
   <si>
+    <t>['10', '89']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -317,6 +320,9 @@
   </si>
   <si>
     <t>['54', '90']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1089,7 +1095,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1495,7 +1501,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1686,7 +1692,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2450,7 +2456,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2641,7 +2647,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2770,19 +2776,19 @@
         <v>5</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -2958,22 +2964,22 @@
         <v>3.25</v>
       </c>
       <c r="BF12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH12">
         <v>2</v>
       </c>
       <c r="BI12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK12">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -2999,7 +3005,7 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3149,19 +3155,19 @@
         <v>3</v>
       </c>
       <c r="BF13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG13">
         <v>6</v>
       </c>
       <c r="BH13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI13">
         <v>3</v>
       </c>
       <c r="BJ13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK13">
         <v>9</v>
@@ -3214,7 +3220,7 @@
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3343,19 +3349,19 @@
         <v>2</v>
       </c>
       <c r="BG14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH14">
         <v>4</v>
       </c>
       <c r="BI14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ14">
         <v>6</v>
       </c>
       <c r="BK14">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3405,7 +3411,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3531,22 +3537,22 @@
         <v>3.3</v>
       </c>
       <c r="BF15">
+        <v>7</v>
+      </c>
+      <c r="BG15">
+        <v>2</v>
+      </c>
+      <c r="BH15">
+        <v>13</v>
+      </c>
+      <c r="BI15">
         <v>6</v>
       </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>12</v>
-      </c>
-      <c r="BI15">
-        <v>5</v>
-      </c>
       <c r="BJ15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BK15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3596,7 +3602,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3725,19 +3731,210 @@
         <v>5</v>
       </c>
       <c r="BG16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI16">
         <v>2</v>
       </c>
       <c r="BJ16">
+        <v>8</v>
+      </c>
+      <c r="BK16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6845993</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45165.64583333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>11</v>
+      </c>
+      <c r="T17">
+        <v>2.87</v>
+      </c>
+      <c r="U17">
+        <v>1.98</v>
+      </c>
+      <c r="V17">
+        <v>3.75</v>
+      </c>
+      <c r="W17">
+        <v>1.46</v>
+      </c>
+      <c r="X17">
+        <v>2.5</v>
+      </c>
+      <c r="Y17">
+        <v>3.1</v>
+      </c>
+      <c r="Z17">
+        <v>1.32</v>
+      </c>
+      <c r="AA17">
+        <v>8.5</v>
+      </c>
+      <c r="AB17">
+        <v>1.06</v>
+      </c>
+      <c r="AC17">
+        <v>2.3</v>
+      </c>
+      <c r="AD17">
+        <v>3.1</v>
+      </c>
+      <c r="AE17">
+        <v>3.1</v>
+      </c>
+      <c r="AF17">
+        <v>1.08</v>
+      </c>
+      <c r="AG17">
+        <v>7</v>
+      </c>
+      <c r="AH17">
+        <v>1.36</v>
+      </c>
+      <c r="AI17">
+        <v>2.95</v>
+      </c>
+      <c r="AJ17">
+        <v>2.2</v>
+      </c>
+      <c r="AK17">
+        <v>1.6</v>
+      </c>
+      <c r="AL17">
+        <v>1.9</v>
+      </c>
+      <c r="AM17">
+        <v>1.8</v>
+      </c>
+      <c r="AN17">
+        <v>1.33</v>
+      </c>
+      <c r="AO17">
+        <v>1.33</v>
+      </c>
+      <c r="AP17">
+        <v>1.61</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1.83</v>
+      </c>
+      <c r="AY17">
+        <v>8</v>
+      </c>
+      <c r="AZ17">
+        <v>2.2</v>
+      </c>
+      <c r="BA17">
+        <v>1.21</v>
+      </c>
+      <c r="BB17">
+        <v>1.37</v>
+      </c>
+      <c r="BC17">
+        <v>1.7</v>
+      </c>
+      <c r="BD17">
+        <v>2.13</v>
+      </c>
+      <c r="BE17">
+        <v>2.85</v>
+      </c>
+      <c r="BF17">
         <v>6</v>
       </c>
-      <c r="BK16">
-        <v>7</v>
+      <c r="BG17">
+        <v>8</v>
+      </c>
+      <c r="BH17">
+        <v>6</v>
+      </c>
+      <c r="BI17">
+        <v>14</v>
+      </c>
+      <c r="BJ17">
+        <v>12</v>
+      </c>
+      <c r="BK17">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -214,93 +214,114 @@
     <t>Bari 1908</t>
   </si>
   <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
     <t>Cosenza</t>
   </si>
   <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
     <t>Südtirol</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
     <t>Cittadella</t>
   </si>
   <si>
-    <t>Parma</t>
-  </si>
-  <si>
     <t>Venezia</t>
   </si>
   <si>
     <t>Sampdoria</t>
   </si>
   <si>
+    <t>FeralpiSalò</t>
+  </si>
+  <si>
     <t>Modena</t>
   </si>
   <si>
-    <t>FeralpiSalò</t>
-  </si>
-  <si>
     <t>Como</t>
   </si>
   <si>
     <t>Catanzaro</t>
   </si>
   <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
     <t>Palermo</t>
   </si>
   <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
     <t>Spezia</t>
   </si>
   <si>
-    <t>Reggiana</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['20', '54', '61']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['32', '50', '90+3']</t>
   </si>
   <si>
+    <t>['37', '66']</t>
+  </si>
+  <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['37', '66']</t>
-  </si>
-  <si>
     <t>['19', '32', '54']</t>
   </si>
   <si>
     <t>['49']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['2', '47']</t>
   </si>
   <si>
-    <t>['59']</t>
-  </si>
-  <si>
     <t>['4', '47']</t>
   </si>
   <si>
     <t>['10', '89']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['29', '31', '77']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['52', '59', '73']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -313,16 +334,34 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['23', '82']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['54', '90']</t>
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['40', '87']</t>
+  </si>
+  <si>
+    <t>['14', '90+4']</t>
+  </si>
+  <si>
+    <t>['7', '71', '90+5']</t>
+  </si>
+  <si>
+    <t>['76', '89']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +943,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1018,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1077,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6845986</v>
+        <v>6845987</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -1095,109 +1134,109 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
         <v>83</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
+        <v>2.2</v>
+      </c>
+      <c r="V3">
+        <v>4.5</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>2.75</v>
+      </c>
+      <c r="Y3">
+        <v>2.75</v>
+      </c>
+      <c r="Z3">
+        <v>1.4</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>1.08</v>
+      </c>
+      <c r="AC3">
+        <v>1.85</v>
+      </c>
+      <c r="AD3">
+        <v>3.4</v>
+      </c>
+      <c r="AE3">
+        <v>3.99</v>
+      </c>
+      <c r="AF3">
+        <v>1.06</v>
+      </c>
+      <c r="AG3">
+        <v>8</v>
+      </c>
+      <c r="AH3">
+        <v>1.3</v>
+      </c>
+      <c r="AI3">
+        <v>3.3</v>
+      </c>
+      <c r="AJ3">
+        <v>1.8</v>
+      </c>
+      <c r="AK3">
+        <v>1.9</v>
+      </c>
+      <c r="AL3">
+        <v>1.8</v>
+      </c>
+      <c r="AM3">
         <v>1.95</v>
       </c>
-      <c r="V3">
-        <v>3.5</v>
-      </c>
-      <c r="W3">
-        <v>1.53</v>
-      </c>
-      <c r="X3">
-        <v>2.38</v>
-      </c>
-      <c r="Y3">
-        <v>3.5</v>
-      </c>
-      <c r="Z3">
-        <v>1.29</v>
-      </c>
-      <c r="AA3">
-        <v>11</v>
-      </c>
-      <c r="AB3">
-        <v>1.05</v>
-      </c>
-      <c r="AC3">
-        <v>2.66</v>
-      </c>
-      <c r="AD3">
-        <v>2.9</v>
-      </c>
-      <c r="AE3">
-        <v>2.75</v>
-      </c>
-      <c r="AF3">
-        <v>1.1</v>
-      </c>
-      <c r="AG3">
-        <v>6.5</v>
-      </c>
-      <c r="AH3">
-        <v>1.45</v>
-      </c>
-      <c r="AI3">
-        <v>2.65</v>
-      </c>
-      <c r="AJ3">
-        <v>2.29</v>
-      </c>
-      <c r="AK3">
-        <v>1.55</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>1.75</v>
-      </c>
       <c r="AN3">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="AO3">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP3">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1206,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1230,37 +1269,37 @@
         <v>2.28</v>
       </c>
       <c r="BA3">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BB3">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BC3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BD3">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="BE3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BF3">
+        <v>4</v>
+      </c>
+      <c r="BG3">
+        <v>4</v>
+      </c>
+      <c r="BH3">
         <v>7</v>
       </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>9</v>
-      </c>
       <c r="BI3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:63">
@@ -1268,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6845987</v>
+        <v>6845991</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1286,49 +1325,49 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U4">
         <v>2.2</v>
       </c>
       <c r="V4">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="W4">
         <v>1.4</v>
@@ -1349,13 +1388,13 @@
         <v>1.08</v>
       </c>
       <c r="AC4">
-        <v>1.85</v>
+        <v>2.97</v>
       </c>
       <c r="AD4">
         <v>3.4</v>
       </c>
       <c r="AE4">
-        <v>3.99</v>
+        <v>2.2</v>
       </c>
       <c r="AF4">
         <v>1.06</v>
@@ -1370,25 +1409,25 @@
         <v>3.3</v>
       </c>
       <c r="AJ4">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AK4">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AL4">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AM4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN4">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="AO4">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP4">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1397,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1412,46 +1451,46 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AY4">
         <v>8</v>
       </c>
       <c r="AZ4">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="BA4">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BB4">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="BC4">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BD4">
-        <v>2.47</v>
+        <v>2.22</v>
       </c>
       <c r="BE4">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BF4">
         <v>4</v>
       </c>
       <c r="BG4">
+        <v>7</v>
+      </c>
+      <c r="BH4">
+        <v>3</v>
+      </c>
+      <c r="BI4">
         <v>4</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>7</v>
       </c>
-      <c r="BI4">
-        <v>2</v>
-      </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>11</v>
-      </c>
-      <c r="BK4">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:63">
@@ -1459,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6845991</v>
+        <v>6845986</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -1477,22 +1516,22 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1501,85 +1540,85 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X5">
+        <v>2.38</v>
+      </c>
+      <c r="Y5">
+        <v>3.5</v>
+      </c>
+      <c r="Z5">
+        <v>1.29</v>
+      </c>
+      <c r="AA5">
+        <v>11</v>
+      </c>
+      <c r="AB5">
+        <v>1.05</v>
+      </c>
+      <c r="AC5">
+        <v>2.66</v>
+      </c>
+      <c r="AD5">
+        <v>2.9</v>
+      </c>
+      <c r="AE5">
         <v>2.75</v>
       </c>
-      <c r="Y5">
-        <v>2.75</v>
-      </c>
-      <c r="Z5">
-        <v>1.4</v>
-      </c>
-      <c r="AA5">
-        <v>8</v>
-      </c>
-      <c r="AB5">
-        <v>1.08</v>
-      </c>
-      <c r="AC5">
-        <v>2.97</v>
-      </c>
-      <c r="AD5">
-        <v>3.4</v>
-      </c>
-      <c r="AE5">
-        <v>2.2</v>
-      </c>
       <c r="AF5">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AG5">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AH5">
+        <v>1.45</v>
+      </c>
+      <c r="AI5">
+        <v>2.65</v>
+      </c>
+      <c r="AJ5">
+        <v>2.29</v>
+      </c>
+      <c r="AK5">
+        <v>1.55</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>1.75</v>
+      </c>
+      <c r="AN5">
+        <v>1.44</v>
+      </c>
+      <c r="AO5">
         <v>1.3</v>
       </c>
-      <c r="AI5">
-        <v>3.3</v>
-      </c>
-      <c r="AJ5">
-        <v>1.86</v>
-      </c>
-      <c r="AK5">
-        <v>1.84</v>
-      </c>
-      <c r="AL5">
-        <v>1.75</v>
-      </c>
-      <c r="AM5">
-        <v>2</v>
-      </c>
-      <c r="AN5">
-        <v>1.68</v>
-      </c>
-      <c r="AO5">
-        <v>1.25</v>
-      </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1588,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1603,46 +1642,46 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AY5">
         <v>8</v>
       </c>
       <c r="AZ5">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="BA5">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BB5">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BC5">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BD5">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="BE5">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BK5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -1668,7 +1707,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1692,7 +1731,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1782,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1841,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6845985</v>
+        <v>6845988</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1859,7 +1898,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1871,13 +1910,13 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="s">
         <v>87</v>
@@ -1886,61 +1925,61 @@
         <v>83</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T7">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="U7">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V7">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="W7">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z7">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC7">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="AD7">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE7">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="AF7">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG7">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="AH7">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AI7">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AJ7">
         <v>2.3</v>
@@ -1949,19 +1988,19 @@
         <v>1.58</v>
       </c>
       <c r="AL7">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AM7">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AN7">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AO7">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AP7">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1973,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -1985,46 +2024,46 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>2.05</v>
+        <v>1.19</v>
       </c>
       <c r="AY7">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AZ7">
-        <v>2.05</v>
+        <v>5.67</v>
       </c>
       <c r="BA7">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="BB7">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="BC7">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="BD7">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="BE7">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="BF7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH7">
+        <v>5</v>
+      </c>
+      <c r="BI7">
         <v>6</v>
-      </c>
-      <c r="BI7">
-        <v>3</v>
       </c>
       <c r="BJ7">
         <v>10</v>
       </c>
       <c r="BK7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:63">
@@ -2032,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6845988</v>
+        <v>6845985</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -2050,7 +2089,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2062,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>88</v>
@@ -2077,61 +2116,61 @@
         <v>83</v>
       </c>
       <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>2.88</v>
+      </c>
+      <c r="U8">
+        <v>2.05</v>
+      </c>
+      <c r="V8">
+        <v>4.33</v>
+      </c>
+      <c r="W8">
+        <v>1.5</v>
+      </c>
+      <c r="X8">
+        <v>2.5</v>
+      </c>
+      <c r="Y8">
+        <v>3.4</v>
+      </c>
+      <c r="Z8">
+        <v>1.3</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <v>1.06</v>
+      </c>
+      <c r="AC8">
+        <v>2.12</v>
+      </c>
+      <c r="AD8">
+        <v>3.2</v>
+      </c>
+      <c r="AE8">
+        <v>3.35</v>
+      </c>
+      <c r="AF8">
+        <v>1.08</v>
+      </c>
+      <c r="AG8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
-        <v>14</v>
-      </c>
-      <c r="T8">
-        <v>2.1</v>
-      </c>
-      <c r="U8">
-        <v>2.1</v>
-      </c>
-      <c r="V8">
-        <v>6.5</v>
-      </c>
-      <c r="W8">
-        <v>1.44</v>
-      </c>
-      <c r="X8">
-        <v>2.63</v>
-      </c>
-      <c r="Y8">
-        <v>3.25</v>
-      </c>
-      <c r="Z8">
-        <v>1.33</v>
-      </c>
-      <c r="AA8">
-        <v>9</v>
-      </c>
-      <c r="AB8">
-        <v>1.07</v>
-      </c>
-      <c r="AC8">
-        <v>1.67</v>
-      </c>
-      <c r="AD8">
-        <v>3.25</v>
-      </c>
-      <c r="AE8">
-        <v>4.8</v>
-      </c>
-      <c r="AF8">
-        <v>1.07</v>
-      </c>
-      <c r="AG8">
-        <v>7.75</v>
-      </c>
       <c r="AH8">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AI8">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AJ8">
         <v>2.3</v>
@@ -2140,19 +2179,19 @@
         <v>1.58</v>
       </c>
       <c r="AL8">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AM8">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AO8">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2164,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2176,46 +2215,46 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>1.19</v>
+        <v>2.05</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AZ8">
-        <v>5.67</v>
+        <v>2.05</v>
       </c>
       <c r="BA8">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="BB8">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="BC8">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="BD8">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="BE8">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="BF8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ8">
         <v>10</v>
       </c>
       <c r="BK8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -2432,7 +2471,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2456,7 +2495,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2623,7 +2662,7 @@
         <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2647,7 +2686,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2796,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6845999</v>
+        <v>6845995</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2811,175 +2850,175 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>2.67</v>
+      </c>
+      <c r="U12">
+        <v>2.06</v>
+      </c>
+      <c r="V12">
+        <v>4.3</v>
+      </c>
+      <c r="W12">
+        <v>1.44</v>
+      </c>
+      <c r="X12">
+        <v>2.66</v>
+      </c>
+      <c r="Y12">
+        <v>3.1</v>
+      </c>
+      <c r="Z12">
+        <v>1.34</v>
+      </c>
+      <c r="AA12">
+        <v>8.1</v>
+      </c>
+      <c r="AB12">
+        <v>1.06</v>
+      </c>
+      <c r="AC12">
+        <v>2.1</v>
+      </c>
+      <c r="AD12">
+        <v>3.25</v>
+      </c>
+      <c r="AE12">
+        <v>3.6</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>7.9</v>
+      </c>
+      <c r="AH12">
+        <v>1.34</v>
+      </c>
+      <c r="AI12">
+        <v>2.93</v>
+      </c>
+      <c r="AJ12">
+        <v>2.15</v>
+      </c>
+      <c r="AK12">
+        <v>1.57</v>
+      </c>
+      <c r="AL12">
+        <v>1.89</v>
+      </c>
+      <c r="AM12">
+        <v>1.85</v>
+      </c>
+      <c r="AN12">
+        <v>1.29</v>
+      </c>
+      <c r="AO12">
+        <v>1.32</v>
+      </c>
+      <c r="AP12">
+        <v>1.75</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0.5</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <v>1.5</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1.5</v>
+      </c>
+      <c r="AX12">
+        <v>1.64</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>2.67</v>
+      </c>
+      <c r="BA12">
+        <v>1.24</v>
+      </c>
+      <c r="BB12">
+        <v>1.46</v>
+      </c>
+      <c r="BC12">
+        <v>1.9</v>
+      </c>
+      <c r="BD12">
+        <v>2.4</v>
+      </c>
+      <c r="BE12">
+        <v>3.3</v>
+      </c>
+      <c r="BF12">
+        <v>7</v>
+      </c>
+      <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
         <v>13</v>
       </c>
-      <c r="T12">
-        <v>2.55</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>4.5</v>
-      </c>
-      <c r="W12">
-        <v>1.47</v>
-      </c>
-      <c r="X12">
-        <v>2.5</v>
-      </c>
-      <c r="Y12">
-        <v>3.15</v>
-      </c>
-      <c r="Z12">
-        <v>1.32</v>
-      </c>
-      <c r="AA12">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB12">
-        <v>1.04</v>
-      </c>
-      <c r="AC12">
-        <v>1.9</v>
-      </c>
-      <c r="AD12">
-        <v>3.35</v>
-      </c>
-      <c r="AE12">
-        <v>4.2</v>
-      </c>
-      <c r="AF12">
-        <v>1.08</v>
-      </c>
-      <c r="AG12">
-        <v>7</v>
-      </c>
-      <c r="AH12">
-        <v>1.38</v>
-      </c>
-      <c r="AI12">
-        <v>2.9</v>
-      </c>
-      <c r="AJ12">
-        <v>2.2</v>
-      </c>
-      <c r="AK12">
-        <v>1.53</v>
-      </c>
-      <c r="AL12">
-        <v>1.95</v>
-      </c>
-      <c r="AM12">
-        <v>1.78</v>
-      </c>
-      <c r="AN12">
-        <v>1.18</v>
-      </c>
-      <c r="AO12">
-        <v>1.25</v>
-      </c>
-      <c r="AP12">
-        <v>1.87</v>
-      </c>
-      <c r="AQ12">
-        <v>3</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>3</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>1.46</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>1.46</v>
-      </c>
-      <c r="AX12">
-        <v>1.51</v>
-      </c>
-      <c r="AY12">
-        <v>8.5</v>
-      </c>
-      <c r="AZ12">
-        <v>3.07</v>
-      </c>
-      <c r="BA12">
-        <v>1.23</v>
-      </c>
-      <c r="BB12">
-        <v>1.44</v>
-      </c>
-      <c r="BC12">
-        <v>1.8</v>
-      </c>
-      <c r="BD12">
-        <v>2.35</v>
-      </c>
-      <c r="BE12">
-        <v>3.25</v>
-      </c>
-      <c r="BF12">
-        <v>4</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>2</v>
-      </c>
       <c r="BI12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ12">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BK12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -2987,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6845998</v>
+        <v>6845996</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3005,49 +3044,49 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T13">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
         <v>1.95</v>
       </c>
       <c r="V13">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="W13">
         <v>1.49</v>
@@ -3056,121 +3095,121 @@
         <v>2.45</v>
       </c>
       <c r="Y13">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Z13">
         <v>1.3</v>
       </c>
       <c r="AA13">
-        <v>8.75</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AB13">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC13">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AD13">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AE13">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="AF13">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AG13">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH13">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AI13">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AJ13">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK13">
         <v>1.53</v>
       </c>
       <c r="AL13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AM13">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AN13">
+        <v>1.36</v>
+      </c>
+      <c r="AO13">
+        <v>1.28</v>
+      </c>
+      <c r="AP13">
+        <v>1.5</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.91</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>2.2</v>
+      </c>
+      <c r="BA13">
         <v>1.23</v>
       </c>
-      <c r="AO13">
-        <v>1.33</v>
-      </c>
-      <c r="AP13">
-        <v>1.8</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>3</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0.34</v>
-      </c>
-      <c r="AW13">
-        <v>0.34</v>
-      </c>
-      <c r="AX13">
-        <v>1.59</v>
-      </c>
-      <c r="AY13">
-        <v>8.5</v>
-      </c>
-      <c r="AZ13">
-        <v>2.78</v>
-      </c>
-      <c r="BA13">
-        <v>1.21</v>
-      </c>
       <c r="BB13">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BC13">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="BD13">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BE13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF13">
+        <v>2</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+      <c r="BH13">
         <v>4</v>
       </c>
-      <c r="BG13">
+      <c r="BI13">
+        <v>3</v>
+      </c>
+      <c r="BJ13">
         <v>6</v>
       </c>
-      <c r="BH13">
+      <c r="BK13">
         <v>8</v>
-      </c>
-      <c r="BI13">
-        <v>3</v>
-      </c>
-      <c r="BJ13">
-        <v>12</v>
-      </c>
-      <c r="BK13">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3178,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6845996</v>
+        <v>6845998</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3196,49 +3235,49 @@
         <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" t="s">
-        <v>99</v>
-      </c>
       <c r="Q14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="U14">
         <v>1.95</v>
       </c>
       <c r="V14">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="W14">
         <v>1.49</v>
@@ -3247,58 +3286,58 @@
         <v>2.45</v>
       </c>
       <c r="Y14">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Z14">
         <v>1.3</v>
       </c>
       <c r="AA14">
-        <v>8.449999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="AB14">
+        <v>1.06</v>
+      </c>
+      <c r="AC14">
+        <v>1.95</v>
+      </c>
+      <c r="AD14">
+        <v>3.25</v>
+      </c>
+      <c r="AE14">
+        <v>4.1</v>
+      </c>
+      <c r="AF14">
         <v>1.04</v>
       </c>
-      <c r="AC14">
-        <v>2.55</v>
-      </c>
-      <c r="AD14">
-        <v>3.05</v>
-      </c>
-      <c r="AE14">
-        <v>2.85</v>
-      </c>
-      <c r="AF14">
-        <v>1.1</v>
-      </c>
       <c r="AG14">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH14">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AI14">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AJ14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK14">
         <v>1.53</v>
       </c>
       <c r="AL14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AM14">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AN14">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AO14">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3307,61 +3346,61 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AX14">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AY14">
+        <v>8.5</v>
+      </c>
+      <c r="AZ14">
+        <v>2.78</v>
+      </c>
+      <c r="BA14">
+        <v>1.21</v>
+      </c>
+      <c r="BB14">
+        <v>1.4</v>
+      </c>
+      <c r="BC14">
+        <v>1.71</v>
+      </c>
+      <c r="BD14">
+        <v>2.2</v>
+      </c>
+      <c r="BE14">
+        <v>3</v>
+      </c>
+      <c r="BF14">
+        <v>4</v>
+      </c>
+      <c r="BG14">
+        <v>6</v>
+      </c>
+      <c r="BH14">
         <v>8</v>
       </c>
-      <c r="AZ14">
-        <v>2.2</v>
-      </c>
-      <c r="BA14">
-        <v>1.23</v>
-      </c>
-      <c r="BB14">
-        <v>1.44</v>
-      </c>
-      <c r="BC14">
-        <v>1.83</v>
-      </c>
-      <c r="BD14">
-        <v>2.35</v>
-      </c>
-      <c r="BE14">
-        <v>3.25</v>
-      </c>
-      <c r="BF14">
-        <v>2</v>
-      </c>
-      <c r="BG14">
-        <v>5</v>
-      </c>
-      <c r="BH14">
-        <v>4</v>
-      </c>
       <c r="BI14">
         <v>3</v>
       </c>
       <c r="BJ14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3369,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6845995</v>
+        <v>6845999</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3384,175 +3423,175 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
         <v>83</v>
       </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
       <c r="Q15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>2.55</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>4.5</v>
+      </c>
+      <c r="W15">
+        <v>1.47</v>
+      </c>
+      <c r="X15">
+        <v>2.5</v>
+      </c>
+      <c r="Y15">
+        <v>3.15</v>
+      </c>
+      <c r="Z15">
+        <v>1.32</v>
+      </c>
+      <c r="AA15">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>1.04</v>
+      </c>
+      <c r="AC15">
+        <v>1.9</v>
+      </c>
+      <c r="AD15">
+        <v>3.35</v>
+      </c>
+      <c r="AE15">
+        <v>4.2</v>
+      </c>
+      <c r="AF15">
+        <v>1.08</v>
+      </c>
+      <c r="AG15">
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <v>1.38</v>
+      </c>
+      <c r="AI15">
+        <v>2.9</v>
+      </c>
+      <c r="AJ15">
+        <v>2.2</v>
+      </c>
+      <c r="AK15">
+        <v>1.53</v>
+      </c>
+      <c r="AL15">
+        <v>1.95</v>
+      </c>
+      <c r="AM15">
+        <v>1.78</v>
+      </c>
+      <c r="AN15">
+        <v>1.18</v>
+      </c>
+      <c r="AO15">
+        <v>1.25</v>
+      </c>
+      <c r="AP15">
+        <v>1.87</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>0.5</v>
+      </c>
+      <c r="AU15">
+        <v>1.46</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>1.46</v>
+      </c>
+      <c r="AX15">
+        <v>1.51</v>
+      </c>
+      <c r="AY15">
+        <v>8.5</v>
+      </c>
+      <c r="AZ15">
+        <v>3.07</v>
+      </c>
+      <c r="BA15">
+        <v>1.23</v>
+      </c>
+      <c r="BB15">
+        <v>1.44</v>
+      </c>
+      <c r="BC15">
+        <v>1.8</v>
+      </c>
+      <c r="BD15">
+        <v>2.35</v>
+      </c>
+      <c r="BE15">
+        <v>3.25</v>
+      </c>
+      <c r="BF15">
         <v>4</v>
       </c>
-      <c r="S15">
-        <v>9</v>
-      </c>
-      <c r="T15">
-        <v>2.67</v>
-      </c>
-      <c r="U15">
-        <v>2.06</v>
-      </c>
-      <c r="V15">
-        <v>4.3</v>
-      </c>
-      <c r="W15">
-        <v>1.44</v>
-      </c>
-      <c r="X15">
-        <v>2.66</v>
-      </c>
-      <c r="Y15">
-        <v>3.1</v>
-      </c>
-      <c r="Z15">
-        <v>1.34</v>
-      </c>
-      <c r="AA15">
-        <v>8.1</v>
-      </c>
-      <c r="AB15">
-        <v>1.06</v>
-      </c>
-      <c r="AC15">
-        <v>2.1</v>
-      </c>
-      <c r="AD15">
-        <v>3.25</v>
-      </c>
-      <c r="AE15">
-        <v>3.6</v>
-      </c>
-      <c r="AF15">
-        <v>1.03</v>
-      </c>
-      <c r="AG15">
-        <v>7.9</v>
-      </c>
-      <c r="AH15">
-        <v>1.34</v>
-      </c>
-      <c r="AI15">
-        <v>2.93</v>
-      </c>
-      <c r="AJ15">
-        <v>2.15</v>
-      </c>
-      <c r="AK15">
-        <v>1.57</v>
-      </c>
-      <c r="AL15">
-        <v>1.89</v>
-      </c>
-      <c r="AM15">
-        <v>1.85</v>
-      </c>
-      <c r="AN15">
-        <v>1.29</v>
-      </c>
-      <c r="AO15">
-        <v>1.32</v>
-      </c>
-      <c r="AP15">
-        <v>1.75</v>
-      </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0.5</v>
-      </c>
-      <c r="AT15">
-        <v>3</v>
-      </c>
-      <c r="AU15">
-        <v>1.5</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>1.5</v>
-      </c>
-      <c r="AX15">
-        <v>1.64</v>
-      </c>
-      <c r="AY15">
-        <v>8</v>
-      </c>
-      <c r="AZ15">
-        <v>2.67</v>
-      </c>
-      <c r="BA15">
-        <v>1.24</v>
-      </c>
-      <c r="BB15">
-        <v>1.46</v>
-      </c>
-      <c r="BC15">
-        <v>1.9</v>
-      </c>
-      <c r="BD15">
-        <v>2.4</v>
-      </c>
-      <c r="BE15">
-        <v>3.3</v>
-      </c>
-      <c r="BF15">
-        <v>7</v>
-      </c>
       <c r="BG15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BI15">
+        <v>10</v>
+      </c>
+      <c r="BJ15">
         <v>6</v>
       </c>
-      <c r="BJ15">
-        <v>20</v>
-      </c>
       <c r="BK15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3578,7 +3617,7 @@
         <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3602,7 +3641,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3769,7 +3808,7 @@
         <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3793,7 +3832,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3935,6 +3974,1534 @@
       </c>
       <c r="BK17">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6846006</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45167.64583333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>3.6</v>
+      </c>
+      <c r="U18">
+        <v>1.95</v>
+      </c>
+      <c r="V18">
+        <v>3.32</v>
+      </c>
+      <c r="W18">
+        <v>1.5</v>
+      </c>
+      <c r="X18">
+        <v>2.5</v>
+      </c>
+      <c r="Y18">
+        <v>3.25</v>
+      </c>
+      <c r="Z18">
+        <v>1.33</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18">
+        <v>1.06</v>
+      </c>
+      <c r="AC18">
+        <v>2.5</v>
+      </c>
+      <c r="AD18">
+        <v>3.1</v>
+      </c>
+      <c r="AE18">
+        <v>2.88</v>
+      </c>
+      <c r="AF18">
+        <v>1.1</v>
+      </c>
+      <c r="AG18">
+        <v>6.5</v>
+      </c>
+      <c r="AH18">
+        <v>1.44</v>
+      </c>
+      <c r="AI18">
+        <v>2.62</v>
+      </c>
+      <c r="AJ18">
+        <v>2.29</v>
+      </c>
+      <c r="AK18">
+        <v>1.53</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>1.73</v>
+      </c>
+      <c r="AN18">
+        <v>1.49</v>
+      </c>
+      <c r="AO18">
+        <v>1.36</v>
+      </c>
+      <c r="AP18">
+        <v>1.43</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1.5</v>
+      </c>
+      <c r="AT18">
+        <v>3</v>
+      </c>
+      <c r="AU18">
+        <v>2.08</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>2.08</v>
+      </c>
+      <c r="AX18">
+        <v>1.95</v>
+      </c>
+      <c r="AY18">
+        <v>7</v>
+      </c>
+      <c r="AZ18">
+        <v>2.25</v>
+      </c>
+      <c r="BA18">
+        <v>1.16</v>
+      </c>
+      <c r="BB18">
+        <v>1.4</v>
+      </c>
+      <c r="BC18">
+        <v>1.69</v>
+      </c>
+      <c r="BD18">
+        <v>2.07</v>
+      </c>
+      <c r="BE18">
+        <v>2.5</v>
+      </c>
+      <c r="BF18">
+        <v>3</v>
+      </c>
+      <c r="BG18">
+        <v>6</v>
+      </c>
+      <c r="BH18">
+        <v>7</v>
+      </c>
+      <c r="BI18">
+        <v>3</v>
+      </c>
+      <c r="BJ18">
+        <v>10</v>
+      </c>
+      <c r="BK18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6846007</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45167.64583333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>3.48</v>
+      </c>
+      <c r="U19">
+        <v>1.98</v>
+      </c>
+      <c r="V19">
+        <v>3.34</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>2.5</v>
+      </c>
+      <c r="Y19">
+        <v>3.25</v>
+      </c>
+      <c r="Z19">
+        <v>1.33</v>
+      </c>
+      <c r="AA19">
+        <v>8</v>
+      </c>
+      <c r="AB19">
+        <v>1.06</v>
+      </c>
+      <c r="AC19">
+        <v>2.5</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AF19">
+        <v>1.1</v>
+      </c>
+      <c r="AG19">
+        <v>6.5</v>
+      </c>
+      <c r="AH19">
+        <v>1.44</v>
+      </c>
+      <c r="AI19">
+        <v>2.62</v>
+      </c>
+      <c r="AJ19">
+        <v>2.22</v>
+      </c>
+      <c r="AK19">
+        <v>1.56</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>1.73</v>
+      </c>
+      <c r="AN19">
+        <v>1.47</v>
+      </c>
+      <c r="AO19">
+        <v>1.35</v>
+      </c>
+      <c r="AP19">
+        <v>1.46</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>3</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>1.95</v>
+      </c>
+      <c r="AY19">
+        <v>7</v>
+      </c>
+      <c r="AZ19">
+        <v>2.25</v>
+      </c>
+      <c r="BA19">
+        <v>1.17</v>
+      </c>
+      <c r="BB19">
+        <v>1.43</v>
+      </c>
+      <c r="BC19">
+        <v>1.7</v>
+      </c>
+      <c r="BD19">
+        <v>2.09</v>
+      </c>
+      <c r="BE19">
+        <v>2.6</v>
+      </c>
+      <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>3</v>
+      </c>
+      <c r="BH19">
+        <v>6</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
+        <v>9</v>
+      </c>
+      <c r="BK19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6846008</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45167.64583333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>3.8</v>
+      </c>
+      <c r="U20">
+        <v>1.93</v>
+      </c>
+      <c r="V20">
+        <v>2.87</v>
+      </c>
+      <c r="W20">
+        <v>1.44</v>
+      </c>
+      <c r="X20">
+        <v>2.62</v>
+      </c>
+      <c r="Y20">
+        <v>3.25</v>
+      </c>
+      <c r="Z20">
+        <v>1.33</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>1.06</v>
+      </c>
+      <c r="AC20">
+        <v>3.3</v>
+      </c>
+      <c r="AD20">
+        <v>3.2</v>
+      </c>
+      <c r="AE20">
+        <v>2.25</v>
+      </c>
+      <c r="AF20">
+        <v>1.1</v>
+      </c>
+      <c r="AG20">
+        <v>6.5</v>
+      </c>
+      <c r="AH20">
+        <v>1.44</v>
+      </c>
+      <c r="AI20">
+        <v>2.62</v>
+      </c>
+      <c r="AJ20">
+        <v>2.22</v>
+      </c>
+      <c r="AK20">
+        <v>1.56</v>
+      </c>
+      <c r="AL20">
+        <v>2</v>
+      </c>
+      <c r="AM20">
+        <v>1.73</v>
+      </c>
+      <c r="AN20">
+        <v>1.62</v>
+      </c>
+      <c r="AO20">
+        <v>1.34</v>
+      </c>
+      <c r="AP20">
+        <v>1.31</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>2</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>1.45</v>
+      </c>
+      <c r="AW20">
+        <v>1.45</v>
+      </c>
+      <c r="AX20">
+        <v>2.11</v>
+      </c>
+      <c r="AY20">
+        <v>7.3</v>
+      </c>
+      <c r="AZ20">
+        <v>2.07</v>
+      </c>
+      <c r="BA20">
+        <v>1.25</v>
+      </c>
+      <c r="BB20">
+        <v>1.53</v>
+      </c>
+      <c r="BC20">
+        <v>1.85</v>
+      </c>
+      <c r="BD20">
+        <v>2.3</v>
+      </c>
+      <c r="BE20">
+        <v>3.28</v>
+      </c>
+      <c r="BF20">
+        <v>3</v>
+      </c>
+      <c r="BG20">
+        <v>10</v>
+      </c>
+      <c r="BH20">
+        <v>8</v>
+      </c>
+      <c r="BI20">
+        <v>7</v>
+      </c>
+      <c r="BJ20">
+        <v>11</v>
+      </c>
+      <c r="BK20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6846002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45167.64583333334</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>2.62</v>
+      </c>
+      <c r="U21">
+        <v>2.02</v>
+      </c>
+      <c r="V21">
+        <v>4.81</v>
+      </c>
+      <c r="W21">
+        <v>1.44</v>
+      </c>
+      <c r="X21">
+        <v>2.62</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>1.36</v>
+      </c>
+      <c r="AA21">
+        <v>7.5</v>
+      </c>
+      <c r="AB21">
+        <v>1.07</v>
+      </c>
+      <c r="AC21">
+        <v>1.91</v>
+      </c>
+      <c r="AD21">
+        <v>3.3</v>
+      </c>
+      <c r="AE21">
+        <v>4.2</v>
+      </c>
+      <c r="AF21">
+        <v>1.08</v>
+      </c>
+      <c r="AG21">
+        <v>7</v>
+      </c>
+      <c r="AH21">
+        <v>1.4</v>
+      </c>
+      <c r="AI21">
+        <v>2.75</v>
+      </c>
+      <c r="AJ21">
+        <v>2.16</v>
+      </c>
+      <c r="AK21">
+        <v>1.59</v>
+      </c>
+      <c r="AL21">
+        <v>2</v>
+      </c>
+      <c r="AM21">
+        <v>1.73</v>
+      </c>
+      <c r="AN21">
+        <v>1.25</v>
+      </c>
+      <c r="AO21">
+        <v>1.32</v>
+      </c>
+      <c r="AP21">
+        <v>1.83</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>1.17</v>
+      </c>
+      <c r="AW21">
+        <v>1.17</v>
+      </c>
+      <c r="AX21">
+        <v>1.55</v>
+      </c>
+      <c r="AY21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ21">
+        <v>2.99</v>
+      </c>
+      <c r="BA21">
+        <v>1.21</v>
+      </c>
+      <c r="BB21">
+        <v>1.48</v>
+      </c>
+      <c r="BC21">
+        <v>1.75</v>
+      </c>
+      <c r="BD21">
+        <v>2.2</v>
+      </c>
+      <c r="BE21">
+        <v>2.7</v>
+      </c>
+      <c r="BF21">
+        <v>6</v>
+      </c>
+      <c r="BG21">
+        <v>5</v>
+      </c>
+      <c r="BH21">
+        <v>8</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>14</v>
+      </c>
+      <c r="BK21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6846009</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45168.64583333334</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2.1</v>
+      </c>
+      <c r="V22">
+        <v>4.5</v>
+      </c>
+      <c r="W22">
+        <v>1.43</v>
+      </c>
+      <c r="X22">
+        <v>2.63</v>
+      </c>
+      <c r="Y22">
+        <v>2.88</v>
+      </c>
+      <c r="Z22">
+        <v>1.36</v>
+      </c>
+      <c r="AA22">
+        <v>6.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.08</v>
+      </c>
+      <c r="AC22">
+        <v>2.15</v>
+      </c>
+      <c r="AD22">
+        <v>3.3</v>
+      </c>
+      <c r="AE22">
+        <v>3.3</v>
+      </c>
+      <c r="AF22">
+        <v>1.05</v>
+      </c>
+      <c r="AG22">
+        <v>8</v>
+      </c>
+      <c r="AH22">
+        <v>1.33</v>
+      </c>
+      <c r="AI22">
+        <v>3</v>
+      </c>
+      <c r="AJ22">
+        <v>1.93</v>
+      </c>
+      <c r="AK22">
+        <v>1.69</v>
+      </c>
+      <c r="AL22">
+        <v>1.85</v>
+      </c>
+      <c r="AM22">
+        <v>1.85</v>
+      </c>
+      <c r="AN22">
+        <v>1.25</v>
+      </c>
+      <c r="AO22">
+        <v>1.3</v>
+      </c>
+      <c r="AP22">
+        <v>1.88</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>3</v>
+      </c>
+      <c r="AU22">
+        <v>1.19</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>1.19</v>
+      </c>
+      <c r="AX22">
+        <v>1.67</v>
+      </c>
+      <c r="AY22">
+        <v>7</v>
+      </c>
+      <c r="AZ22">
+        <v>2.8</v>
+      </c>
+      <c r="BA22">
+        <v>1.25</v>
+      </c>
+      <c r="BB22">
+        <v>1.47</v>
+      </c>
+      <c r="BC22">
+        <v>1.88</v>
+      </c>
+      <c r="BD22">
+        <v>2.4</v>
+      </c>
+      <c r="BE22">
+        <v>3.3</v>
+      </c>
+      <c r="BF22">
+        <v>6</v>
+      </c>
+      <c r="BG22">
+        <v>6</v>
+      </c>
+      <c r="BH22">
+        <v>8</v>
+      </c>
+      <c r="BI22">
+        <v>3</v>
+      </c>
+      <c r="BJ22">
+        <v>14</v>
+      </c>
+      <c r="BK22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6846010</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45168.64583333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>13</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2.88</v>
+      </c>
+      <c r="W23">
+        <v>1.48</v>
+      </c>
+      <c r="X23">
+        <v>2.5</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <v>1.33</v>
+      </c>
+      <c r="AA23">
+        <v>7.5</v>
+      </c>
+      <c r="AB23">
+        <v>1.06</v>
+      </c>
+      <c r="AC23">
+        <v>3.15</v>
+      </c>
+      <c r="AD23">
+        <v>3.2</v>
+      </c>
+      <c r="AE23">
+        <v>2.3</v>
+      </c>
+      <c r="AF23">
+        <v>1.08</v>
+      </c>
+      <c r="AG23">
+        <v>6.5</v>
+      </c>
+      <c r="AH23">
+        <v>1.38</v>
+      </c>
+      <c r="AI23">
+        <v>2.8</v>
+      </c>
+      <c r="AJ23">
+        <v>2.13</v>
+      </c>
+      <c r="AK23">
+        <v>1.56</v>
+      </c>
+      <c r="AL23">
+        <v>1.91</v>
+      </c>
+      <c r="AM23">
+        <v>1.8</v>
+      </c>
+      <c r="AN23">
+        <v>1.62</v>
+      </c>
+      <c r="AO23">
+        <v>1.38</v>
+      </c>
+      <c r="AP23">
+        <v>1.33</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <v>0.99</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0.99</v>
+      </c>
+      <c r="AX23">
+        <v>2.3</v>
+      </c>
+      <c r="AY23">
+        <v>7.5</v>
+      </c>
+      <c r="AZ23">
+        <v>1.88</v>
+      </c>
+      <c r="BA23">
+        <v>1.25</v>
+      </c>
+      <c r="BB23">
+        <v>1.47</v>
+      </c>
+      <c r="BC23">
+        <v>1.85</v>
+      </c>
+      <c r="BD23">
+        <v>2.4</v>
+      </c>
+      <c r="BE23">
+        <v>3.3</v>
+      </c>
+      <c r="BF23">
+        <v>5</v>
+      </c>
+      <c r="BG23">
+        <v>5</v>
+      </c>
+      <c r="BH23">
+        <v>3</v>
+      </c>
+      <c r="BI23">
+        <v>8</v>
+      </c>
+      <c r="BJ23">
+        <v>8</v>
+      </c>
+      <c r="BK23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6846003</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45168.64583333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>2.4</v>
+      </c>
+      <c r="Y24">
+        <v>3.3</v>
+      </c>
+      <c r="Z24">
+        <v>1.29</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <v>1.05</v>
+      </c>
+      <c r="AC24">
+        <v>2.25</v>
+      </c>
+      <c r="AD24">
+        <v>3.05</v>
+      </c>
+      <c r="AE24">
+        <v>3.3</v>
+      </c>
+      <c r="AF24">
+        <v>1.09</v>
+      </c>
+      <c r="AG24">
+        <v>6</v>
+      </c>
+      <c r="AH24">
+        <v>1.43</v>
+      </c>
+      <c r="AI24">
+        <v>2.63</v>
+      </c>
+      <c r="AJ24">
+        <v>2.21</v>
+      </c>
+      <c r="AK24">
+        <v>1.52</v>
+      </c>
+      <c r="AL24">
+        <v>2</v>
+      </c>
+      <c r="AM24">
+        <v>1.73</v>
+      </c>
+      <c r="AN24">
+        <v>1.33</v>
+      </c>
+      <c r="AO24">
+        <v>1.38</v>
+      </c>
+      <c r="AP24">
+        <v>1.62</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>0.5</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>1.22</v>
+      </c>
+      <c r="AW24">
+        <v>2.22</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>7</v>
+      </c>
+      <c r="AZ24">
+        <v>2.2</v>
+      </c>
+      <c r="BA24">
+        <v>1.22</v>
+      </c>
+      <c r="BB24">
+        <v>1.51</v>
+      </c>
+      <c r="BC24">
+        <v>1.81</v>
+      </c>
+      <c r="BD24">
+        <v>2.23</v>
+      </c>
+      <c r="BE24">
+        <v>3.04</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>6</v>
+      </c>
+      <c r="BH24">
+        <v>5</v>
+      </c>
+      <c r="BI24">
+        <v>9</v>
+      </c>
+      <c r="BJ24">
+        <v>10</v>
+      </c>
+      <c r="BK24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6846004</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45168.64583333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>11</v>
+      </c>
+      <c r="T25">
+        <v>4.2</v>
+      </c>
+      <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
+        <v>2.88</v>
+      </c>
+      <c r="W25">
+        <v>1.5</v>
+      </c>
+      <c r="X25">
+        <v>2.4</v>
+      </c>
+      <c r="Y25">
+        <v>3.2</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
+      <c r="AA25">
+        <v>8</v>
+      </c>
+      <c r="AB25">
+        <v>1.05</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>3.25</v>
+      </c>
+      <c r="AE25">
+        <v>2.4</v>
+      </c>
+      <c r="AF25">
+        <v>1.08</v>
+      </c>
+      <c r="AG25">
+        <v>6.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.43</v>
+      </c>
+      <c r="AI25">
+        <v>2.63</v>
+      </c>
+      <c r="AJ25">
+        <v>2.21</v>
+      </c>
+      <c r="AK25">
+        <v>1.52</v>
+      </c>
+      <c r="AL25">
+        <v>2</v>
+      </c>
+      <c r="AM25">
+        <v>1.73</v>
+      </c>
+      <c r="AN25">
+        <v>1.7</v>
+      </c>
+      <c r="AO25">
+        <v>1.35</v>
+      </c>
+      <c r="AP25">
+        <v>1.3</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0.5</v>
+      </c>
+      <c r="AU25">
+        <v>1.53</v>
+      </c>
+      <c r="AV25">
+        <v>1.8</v>
+      </c>
+      <c r="AW25">
+        <v>3.33</v>
+      </c>
+      <c r="AX25">
+        <v>2.25</v>
+      </c>
+      <c r="AY25">
+        <v>7</v>
+      </c>
+      <c r="AZ25">
+        <v>1.95</v>
+      </c>
+      <c r="BA25">
+        <v>1.25</v>
+      </c>
+      <c r="BB25">
+        <v>1.47</v>
+      </c>
+      <c r="BC25">
+        <v>1.85</v>
+      </c>
+      <c r="BD25">
+        <v>2.4</v>
+      </c>
+      <c r="BE25">
+        <v>3.3</v>
+      </c>
+      <c r="BF25">
+        <v>6</v>
+      </c>
+      <c r="BG25">
+        <v>3</v>
+      </c>
+      <c r="BH25">
+        <v>2</v>
+      </c>
+      <c r="BI25">
+        <v>3</v>
+      </c>
+      <c r="BJ25">
+        <v>8</v>
+      </c>
+      <c r="BK25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,12 +241,12 @@
     <t>FeralpiSalò</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>Modena</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
     <t>Catanzaro</t>
   </si>
   <si>
@@ -262,6 +262,9 @@
     <t>Palermo</t>
   </si>
   <si>
+    <t>Brescia</t>
+  </si>
+  <si>
     <t>Spezia</t>
   </si>
   <si>
@@ -289,15 +292,15 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['2', '47']</t>
+  </si>
+  <si>
+    <t>['4', '47']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
-    <t>['2', '47']</t>
-  </si>
-  <si>
-    <t>['4', '47']</t>
-  </si>
-  <si>
     <t>['10', '89']</t>
   </si>
   <si>
@@ -320,6 +323,18 @@
   </si>
   <si>
     <t>['52', '59', '73']</t>
+  </si>
+  <si>
+    <t>['53', '64', '83']</t>
+  </si>
+  <si>
+    <t>['4', '90+4']</t>
+  </si>
+  <si>
+    <t>['15', '46', '85']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
   <si>
     <t>['5', '77']</t>
@@ -723,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1155,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1346,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1537,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1707,7 +1722,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1728,10 +1743,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1818,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -1919,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2009,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2110,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2203,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2280,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2301,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2492,10 +2507,10 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2585,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2683,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2776,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>1.77</v>
@@ -2835,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6845995</v>
+        <v>6845999</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2850,175 +2865,175 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>2.55</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>4.5</v>
+      </c>
+      <c r="W12">
+        <v>1.47</v>
+      </c>
+      <c r="X12">
+        <v>2.5</v>
+      </c>
+      <c r="Y12">
+        <v>3.15</v>
+      </c>
+      <c r="Z12">
+        <v>1.32</v>
+      </c>
+      <c r="AA12">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>1.04</v>
+      </c>
+      <c r="AC12">
+        <v>1.9</v>
+      </c>
+      <c r="AD12">
+        <v>3.35</v>
+      </c>
+      <c r="AE12">
+        <v>4.2</v>
+      </c>
+      <c r="AF12">
+        <v>1.08</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>1.38</v>
+      </c>
+      <c r="AI12">
+        <v>2.9</v>
+      </c>
+      <c r="AJ12">
+        <v>2.2</v>
+      </c>
+      <c r="AK12">
+        <v>1.53</v>
+      </c>
+      <c r="AL12">
+        <v>1.95</v>
+      </c>
+      <c r="AM12">
+        <v>1.78</v>
+      </c>
+      <c r="AN12">
+        <v>1.18</v>
+      </c>
+      <c r="AO12">
+        <v>1.25</v>
+      </c>
+      <c r="AP12">
+        <v>1.87</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>2.33</v>
+      </c>
+      <c r="AT12">
+        <v>0.5</v>
+      </c>
+      <c r="AU12">
+        <v>1.46</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1.46</v>
+      </c>
+      <c r="AX12">
+        <v>1.51</v>
+      </c>
+      <c r="AY12">
+        <v>8.5</v>
+      </c>
+      <c r="AZ12">
+        <v>3.07</v>
+      </c>
+      <c r="BA12">
+        <v>1.23</v>
+      </c>
+      <c r="BB12">
+        <v>1.44</v>
+      </c>
+      <c r="BC12">
+        <v>1.8</v>
+      </c>
+      <c r="BD12">
+        <v>2.35</v>
+      </c>
+      <c r="BE12">
+        <v>3.25</v>
+      </c>
+      <c r="BF12">
         <v>4</v>
       </c>
-      <c r="S12">
-        <v>9</v>
-      </c>
-      <c r="T12">
-        <v>2.67</v>
-      </c>
-      <c r="U12">
-        <v>2.06</v>
-      </c>
-      <c r="V12">
-        <v>4.3</v>
-      </c>
-      <c r="W12">
-        <v>1.44</v>
-      </c>
-      <c r="X12">
-        <v>2.66</v>
-      </c>
-      <c r="Y12">
-        <v>3.1</v>
-      </c>
-      <c r="Z12">
-        <v>1.34</v>
-      </c>
-      <c r="AA12">
-        <v>8.1</v>
-      </c>
-      <c r="AB12">
-        <v>1.06</v>
-      </c>
-      <c r="AC12">
-        <v>2.1</v>
-      </c>
-      <c r="AD12">
-        <v>3.25</v>
-      </c>
-      <c r="AE12">
-        <v>3.6</v>
-      </c>
-      <c r="AF12">
-        <v>1.03</v>
-      </c>
-      <c r="AG12">
-        <v>7.9</v>
-      </c>
-      <c r="AH12">
-        <v>1.34</v>
-      </c>
-      <c r="AI12">
-        <v>2.93</v>
-      </c>
-      <c r="AJ12">
-        <v>2.15</v>
-      </c>
-      <c r="AK12">
-        <v>1.57</v>
-      </c>
-      <c r="AL12">
-        <v>1.89</v>
-      </c>
-      <c r="AM12">
-        <v>1.85</v>
-      </c>
-      <c r="AN12">
-        <v>1.29</v>
-      </c>
-      <c r="AO12">
-        <v>1.32</v>
-      </c>
-      <c r="AP12">
-        <v>1.75</v>
-      </c>
-      <c r="AQ12">
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0.5</v>
-      </c>
-      <c r="AT12">
-        <v>3</v>
-      </c>
-      <c r="AU12">
-        <v>1.5</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>1.5</v>
-      </c>
-      <c r="AX12">
-        <v>1.64</v>
-      </c>
-      <c r="AY12">
-        <v>8</v>
-      </c>
-      <c r="AZ12">
-        <v>2.67</v>
-      </c>
-      <c r="BA12">
-        <v>1.24</v>
-      </c>
-      <c r="BB12">
-        <v>1.46</v>
-      </c>
-      <c r="BC12">
-        <v>1.9</v>
-      </c>
-      <c r="BD12">
-        <v>2.4</v>
-      </c>
-      <c r="BE12">
-        <v>3.3</v>
-      </c>
-      <c r="BF12">
-        <v>7</v>
-      </c>
       <c r="BG12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BI12">
+        <v>10</v>
+      </c>
+      <c r="BJ12">
         <v>6</v>
       </c>
-      <c r="BJ12">
-        <v>20</v>
-      </c>
       <c r="BK12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3026,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6845996</v>
+        <v>6845995</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -3041,10 +3056,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3059,154 +3074,154 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T13">
+        <v>2.67</v>
+      </c>
+      <c r="U13">
+        <v>2.06</v>
+      </c>
+      <c r="V13">
+        <v>4.3</v>
+      </c>
+      <c r="W13">
+        <v>1.44</v>
+      </c>
+      <c r="X13">
+        <v>2.66</v>
+      </c>
+      <c r="Y13">
+        <v>3.1</v>
+      </c>
+      <c r="Z13">
+        <v>1.34</v>
+      </c>
+      <c r="AA13">
+        <v>8.1</v>
+      </c>
+      <c r="AB13">
+        <v>1.06</v>
+      </c>
+      <c r="AC13">
+        <v>2.1</v>
+      </c>
+      <c r="AD13">
         <v>3.25</v>
       </c>
-      <c r="U13">
-        <v>1.95</v>
-      </c>
-      <c r="V13">
-        <v>3.4</v>
-      </c>
-      <c r="W13">
-        <v>1.49</v>
-      </c>
-      <c r="X13">
-        <v>2.45</v>
-      </c>
-      <c r="Y13">
-        <v>3.25</v>
-      </c>
-      <c r="Z13">
-        <v>1.3</v>
-      </c>
-      <c r="AA13">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB13">
-        <v>1.04</v>
-      </c>
-      <c r="AC13">
-        <v>2.55</v>
-      </c>
-      <c r="AD13">
-        <v>3.05</v>
-      </c>
       <c r="AE13">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="AF13">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AG13">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="AH13">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AI13">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="AJ13">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK13">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AL13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AM13">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AN13">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AO13">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP13">
+        <v>1.75</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0.5</v>
+      </c>
+      <c r="AT13">
+        <v>3</v>
+      </c>
+      <c r="AU13">
         <v>1.5</v>
       </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>3</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
       <c r="AV13">
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AX13">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="AY13">
         <v>8</v>
       </c>
       <c r="AZ13">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="BA13">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BB13">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BC13">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="BD13">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="BE13">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BI13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ13">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BK13">
         <v>8</v>
@@ -3217,7 +3232,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6845998</v>
+        <v>6845996</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -3232,52 +3247,52 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
         <v>1.95</v>
       </c>
       <c r="V14">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="W14">
         <v>1.49</v>
@@ -3286,121 +3301,121 @@
         <v>2.45</v>
       </c>
       <c r="Y14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Z14">
         <v>1.3</v>
       </c>
       <c r="AA14">
-        <v>8.75</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AB14">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC14">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AD14">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AE14">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="AF14">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AG14">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH14">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AI14">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AJ14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK14">
         <v>1.53</v>
       </c>
       <c r="AL14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AM14">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AN14">
+        <v>1.36</v>
+      </c>
+      <c r="AO14">
+        <v>1.28</v>
+      </c>
+      <c r="AP14">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.91</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
+      <c r="AZ14">
+        <v>2.2</v>
+      </c>
+      <c r="BA14">
         <v>1.23</v>
       </c>
-      <c r="AO14">
-        <v>1.33</v>
-      </c>
-      <c r="AP14">
-        <v>1.8</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>3</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0.34</v>
-      </c>
-      <c r="AW14">
-        <v>0.34</v>
-      </c>
-      <c r="AX14">
-        <v>1.59</v>
-      </c>
-      <c r="AY14">
-        <v>8.5</v>
-      </c>
-      <c r="AZ14">
-        <v>2.78</v>
-      </c>
-      <c r="BA14">
-        <v>1.21</v>
-      </c>
       <c r="BB14">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BC14">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="BD14">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BE14">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF14">
+        <v>2</v>
+      </c>
+      <c r="BG14">
+        <v>5</v>
+      </c>
+      <c r="BH14">
         <v>4</v>
       </c>
-      <c r="BG14">
+      <c r="BI14">
+        <v>3</v>
+      </c>
+      <c r="BJ14">
         <v>6</v>
       </c>
-      <c r="BH14">
+      <c r="BK14">
         <v>8</v>
-      </c>
-      <c r="BI14">
-        <v>3</v>
-      </c>
-      <c r="BJ14">
-        <v>12</v>
-      </c>
-      <c r="BK14">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3408,7 +3423,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6845999</v>
+        <v>6845994</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -3423,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3441,34 +3456,34 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>2</v>
       </c>
       <c r="V15">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W15">
         <v>1.47</v>
@@ -3477,37 +3492,37 @@
         <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Z15">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA15">
-        <v>8.449999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AB15">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC15">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD15">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AE15">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="AF15">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG15">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH15">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI15">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AJ15">
         <v>2.2</v>
@@ -3516,49 +3531,49 @@
         <v>1.53</v>
       </c>
       <c r="AL15">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AM15">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AN15">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AO15">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP15">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AW15">
-        <v>1.46</v>
+        <v>0.86</v>
       </c>
       <c r="AX15">
-        <v>1.51</v>
+        <v>2.39</v>
       </c>
       <c r="AY15">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ15">
-        <v>3.07</v>
+        <v>1.82</v>
       </c>
       <c r="BA15">
         <v>1.23</v>
@@ -3567,7 +3582,7 @@
         <v>1.44</v>
       </c>
       <c r="BC15">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BD15">
         <v>2.35</v>
@@ -3576,22 +3591,22 @@
         <v>3.25</v>
       </c>
       <c r="BF15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BJ15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3599,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6845994</v>
+        <v>6845998</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3617,109 +3632,109 @@
         <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="W16">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Y16">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Z16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA16">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AB16">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC16">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AD16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE16">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="AF16">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AG16">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH16">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AI16">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="AJ16">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK16">
         <v>1.53</v>
       </c>
       <c r="AL16">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AM16">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AN16">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AO16">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AP16">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -3728,61 +3743,61 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="AW16">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="AX16">
-        <v>2.39</v>
+        <v>1.59</v>
       </c>
       <c r="AY16">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ16">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="BA16">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BB16">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BC16">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="BD16">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BE16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BF16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG16">
         <v>6</v>
       </c>
       <c r="BH16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -3829,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3999,7 +4014,7 @@
         <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4020,19 +4035,19 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <v>3.6</v>
@@ -4211,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4402,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4593,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4784,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -4975,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5166,10 +5181,10 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5301,13 +5316,13 @@
         <v>6</v>
       </c>
       <c r="BH24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI24">
         <v>9</v>
       </c>
       <c r="BJ24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK24">
         <v>15</v>
@@ -5336,7 +5351,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5357,10 +5372,10 @@
         <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5502,6 +5517,961 @@
       </c>
       <c r="BK25">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6846016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45171.5625</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>2.17</v>
+      </c>
+      <c r="U26">
+        <v>2.16</v>
+      </c>
+      <c r="V26">
+        <v>5.95</v>
+      </c>
+      <c r="W26">
+        <v>1.43</v>
+      </c>
+      <c r="X26">
+        <v>2.71</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>1.36</v>
+      </c>
+      <c r="AA26">
+        <v>7.7</v>
+      </c>
+      <c r="AB26">
+        <v>1.07</v>
+      </c>
+      <c r="AC26">
+        <v>1.62</v>
+      </c>
+      <c r="AD26">
+        <v>3.5</v>
+      </c>
+      <c r="AE26">
+        <v>6</v>
+      </c>
+      <c r="AF26">
+        <v>1.03</v>
+      </c>
+      <c r="AG26">
+        <v>8.4</v>
+      </c>
+      <c r="AH26">
+        <v>1.32</v>
+      </c>
+      <c r="AI26">
+        <v>3.04</v>
+      </c>
+      <c r="AJ26">
+        <v>2.05</v>
+      </c>
+      <c r="AK26">
+        <v>1.7</v>
+      </c>
+      <c r="AL26">
+        <v>2.05</v>
+      </c>
+      <c r="AM26">
+        <v>1.72</v>
+      </c>
+      <c r="AN26">
+        <v>1.14</v>
+      </c>
+      <c r="AO26">
+        <v>1.26</v>
+      </c>
+      <c r="AP26">
+        <v>2.3</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>0.5</v>
+      </c>
+      <c r="AS26">
+        <v>2.33</v>
+      </c>
+      <c r="AT26">
+        <v>0.67</v>
+      </c>
+      <c r="AU26">
+        <v>1.18</v>
+      </c>
+      <c r="AV26">
+        <v>1.08</v>
+      </c>
+      <c r="AW26">
+        <v>2.26</v>
+      </c>
+      <c r="AX26">
+        <v>1.59</v>
+      </c>
+      <c r="AY26">
+        <v>8.5</v>
+      </c>
+      <c r="AZ26">
+        <v>2.78</v>
+      </c>
+      <c r="BA26">
+        <v>1.23</v>
+      </c>
+      <c r="BB26">
+        <v>1.44</v>
+      </c>
+      <c r="BC26">
+        <v>1.83</v>
+      </c>
+      <c r="BD26">
+        <v>2.35</v>
+      </c>
+      <c r="BE26">
+        <v>3.25</v>
+      </c>
+      <c r="BF26">
+        <v>7</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BH26">
+        <v>9</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>16</v>
+      </c>
+      <c r="BK26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6846018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45171.5625</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>2.82</v>
+      </c>
+      <c r="U27">
+        <v>1.97</v>
+      </c>
+      <c r="V27">
+        <v>4.33</v>
+      </c>
+      <c r="W27">
+        <v>1.52</v>
+      </c>
+      <c r="X27">
+        <v>2.44</v>
+      </c>
+      <c r="Y27">
+        <v>3.44</v>
+      </c>
+      <c r="Z27">
+        <v>1.29</v>
+      </c>
+      <c r="AA27">
+        <v>9.4</v>
+      </c>
+      <c r="AB27">
+        <v>1.04</v>
+      </c>
+      <c r="AC27">
+        <v>2.2</v>
+      </c>
+      <c r="AD27">
+        <v>2.8</v>
+      </c>
+      <c r="AE27">
+        <v>3.8</v>
+      </c>
+      <c r="AF27">
+        <v>1.06</v>
+      </c>
+      <c r="AG27">
+        <v>6.85</v>
+      </c>
+      <c r="AH27">
+        <v>1.55</v>
+      </c>
+      <c r="AI27">
+        <v>2.3</v>
+      </c>
+      <c r="AJ27">
+        <v>2.25</v>
+      </c>
+      <c r="AK27">
+        <v>1.53</v>
+      </c>
+      <c r="AL27">
+        <v>2.04</v>
+      </c>
+      <c r="AM27">
+        <v>1.73</v>
+      </c>
+      <c r="AN27">
+        <v>1.3</v>
+      </c>
+      <c r="AO27">
+        <v>1.34</v>
+      </c>
+      <c r="AP27">
+        <v>1.69</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1.17</v>
+      </c>
+      <c r="AV27">
+        <v>0.79</v>
+      </c>
+      <c r="AW27">
+        <v>1.96</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>7.5</v>
+      </c>
+      <c r="AZ27">
+        <v>2.1</v>
+      </c>
+      <c r="BA27">
+        <v>1.3</v>
+      </c>
+      <c r="BB27">
+        <v>1.55</v>
+      </c>
+      <c r="BC27">
+        <v>1.98</v>
+      </c>
+      <c r="BD27">
+        <v>2.65</v>
+      </c>
+      <c r="BE27">
+        <v>3.8</v>
+      </c>
+      <c r="BF27">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>3</v>
+      </c>
+      <c r="BI27">
+        <v>7</v>
+      </c>
+      <c r="BJ27">
+        <v>5</v>
+      </c>
+      <c r="BK27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6846014</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45171.5625</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1.88</v>
+      </c>
+      <c r="V28">
+        <v>3.8</v>
+      </c>
+      <c r="W28">
+        <v>1.53</v>
+      </c>
+      <c r="X28">
+        <v>2.3</v>
+      </c>
+      <c r="Y28">
+        <v>3.3</v>
+      </c>
+      <c r="Z28">
+        <v>1.28</v>
+      </c>
+      <c r="AA28">
+        <v>9.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.05</v>
+      </c>
+      <c r="AC28">
+        <v>2.38</v>
+      </c>
+      <c r="AD28">
+        <v>2.9</v>
+      </c>
+      <c r="AE28">
+        <v>3.2</v>
+      </c>
+      <c r="AF28">
+        <v>1.1</v>
+      </c>
+      <c r="AG28">
+        <v>6.5</v>
+      </c>
+      <c r="AH28">
+        <v>1.44</v>
+      </c>
+      <c r="AI28">
+        <v>2.55</v>
+      </c>
+      <c r="AJ28">
+        <v>2.3</v>
+      </c>
+      <c r="AK28">
+        <v>1.57</v>
+      </c>
+      <c r="AL28">
+        <v>1.98</v>
+      </c>
+      <c r="AM28">
+        <v>1.71</v>
+      </c>
+      <c r="AN28">
+        <v>1.33</v>
+      </c>
+      <c r="AO28">
+        <v>1.37</v>
+      </c>
+      <c r="AP28">
+        <v>1.55</v>
+      </c>
+      <c r="AQ28">
+        <v>3</v>
+      </c>
+      <c r="AR28">
+        <v>3</v>
+      </c>
+      <c r="AS28">
+        <v>3</v>
+      </c>
+      <c r="AT28">
+        <v>1.5</v>
+      </c>
+      <c r="AU28">
+        <v>1.39</v>
+      </c>
+      <c r="AV28">
+        <v>1.21</v>
+      </c>
+      <c r="AW28">
+        <v>2.6</v>
+      </c>
+      <c r="AX28">
+        <v>1.51</v>
+      </c>
+      <c r="AY28">
+        <v>8.5</v>
+      </c>
+      <c r="AZ28">
+        <v>3.07</v>
+      </c>
+      <c r="BA28">
+        <v>1.23</v>
+      </c>
+      <c r="BB28">
+        <v>1.44</v>
+      </c>
+      <c r="BC28">
+        <v>1.8</v>
+      </c>
+      <c r="BD28">
+        <v>2.35</v>
+      </c>
+      <c r="BE28">
+        <v>3.2</v>
+      </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>3</v>
+      </c>
+      <c r="BH28">
+        <v>4</v>
+      </c>
+      <c r="BI28">
+        <v>1</v>
+      </c>
+      <c r="BJ28">
+        <v>8</v>
+      </c>
+      <c r="BK28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6846015</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45171.5625</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>2.24</v>
+      </c>
+      <c r="U29">
+        <v>2.12</v>
+      </c>
+      <c r="V29">
+        <v>5.75</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>2.66</v>
+      </c>
+      <c r="Y29">
+        <v>3.1</v>
+      </c>
+      <c r="Z29">
+        <v>1.34</v>
+      </c>
+      <c r="AA29">
+        <v>8.1</v>
+      </c>
+      <c r="AB29">
+        <v>1.06</v>
+      </c>
+      <c r="AC29">
+        <v>1.5</v>
+      </c>
+      <c r="AD29">
+        <v>3.75</v>
+      </c>
+      <c r="AE29">
+        <v>7</v>
+      </c>
+      <c r="AF29">
+        <v>1.03</v>
+      </c>
+      <c r="AG29">
+        <v>8</v>
+      </c>
+      <c r="AH29">
+        <v>1.34</v>
+      </c>
+      <c r="AI29">
+        <v>2.93</v>
+      </c>
+      <c r="AJ29">
+        <v>2.05</v>
+      </c>
+      <c r="AK29">
+        <v>1.7</v>
+      </c>
+      <c r="AL29">
+        <v>2.06</v>
+      </c>
+      <c r="AM29">
+        <v>1.71</v>
+      </c>
+      <c r="AN29">
+        <v>1.15</v>
+      </c>
+      <c r="AO29">
+        <v>1.27</v>
+      </c>
+      <c r="AP29">
+        <v>2.21</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>3</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>1.04</v>
+      </c>
+      <c r="AW29">
+        <v>1.04</v>
+      </c>
+      <c r="AX29">
+        <v>1.34</v>
+      </c>
+      <c r="AY29">
+        <v>9.5</v>
+      </c>
+      <c r="AZ29">
+        <v>3.86</v>
+      </c>
+      <c r="BA29">
+        <v>1.18</v>
+      </c>
+      <c r="BB29">
+        <v>1.35</v>
+      </c>
+      <c r="BC29">
+        <v>1.63</v>
+      </c>
+      <c r="BD29">
+        <v>2.1</v>
+      </c>
+      <c r="BE29">
+        <v>2.8</v>
+      </c>
+      <c r="BF29">
+        <v>5</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>7</v>
+      </c>
+      <c r="BJ29">
+        <v>9</v>
+      </c>
+      <c r="BK29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7195350</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45172.46875</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>2.7</v>
+      </c>
+      <c r="U30">
+        <v>1.95</v>
+      </c>
+      <c r="V30">
+        <v>4.4</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>2.4</v>
+      </c>
+      <c r="Y30">
+        <v>3.2</v>
+      </c>
+      <c r="Z30">
+        <v>1.3</v>
+      </c>
+      <c r="AA30">
+        <v>8.6</v>
+      </c>
+      <c r="AB30">
+        <v>1.05</v>
+      </c>
+      <c r="AC30">
+        <v>1.91</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AE30">
+        <v>3.65</v>
+      </c>
+      <c r="AF30">
+        <v>1.09</v>
+      </c>
+      <c r="AG30">
+        <v>8.25</v>
+      </c>
+      <c r="AH30">
+        <v>1.43</v>
+      </c>
+      <c r="AI30">
+        <v>2.85</v>
+      </c>
+      <c r="AJ30">
+        <v>2.25</v>
+      </c>
+      <c r="AK30">
+        <v>1.57</v>
+      </c>
+      <c r="AL30">
+        <v>1.93</v>
+      </c>
+      <c r="AM30">
+        <v>1.75</v>
+      </c>
+      <c r="AN30">
+        <v>1.28</v>
+      </c>
+      <c r="AO30">
+        <v>1.35</v>
+      </c>
+      <c r="AP30">
+        <v>1.72</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>3</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0.52</v>
+      </c>
+      <c r="AW30">
+        <v>0.52</v>
+      </c>
+      <c r="AX30">
+        <v>1.6</v>
+      </c>
+      <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
+        <v>3</v>
+      </c>
+      <c r="BA30">
+        <v>1.26</v>
+      </c>
+      <c r="BB30">
+        <v>1.54</v>
+      </c>
+      <c r="BC30">
+        <v>1.91</v>
+      </c>
+      <c r="BD30">
+        <v>2.36</v>
+      </c>
+      <c r="BE30">
+        <v>3.2</v>
+      </c>
+      <c r="BF30">
+        <v>2</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>3</v>
+      </c>
+      <c r="BI30">
+        <v>4</v>
+      </c>
+      <c r="BJ30">
+        <v>5</v>
+      </c>
+      <c r="BK30">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,6 +268,9 @@
     <t>Spezia</t>
   </si>
   <si>
+    <t>Lecco</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -337,6 +340,12 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['64', '83', '90+2']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['31', '56', '85', '88']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1170,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1260,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1361,10 +1379,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1451,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1552,10 +1570,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1743,10 +1761,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1934,10 +1952,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2125,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2215,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0.67</v>
@@ -2316,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -2409,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2507,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2698,10 +2716,10 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2889,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3080,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3170,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>1.5</v>
@@ -3271,10 +3289,10 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3462,10 +3480,10 @@
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3653,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3844,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4035,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4226,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4417,10 +4435,10 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4608,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4799,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -4892,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU22">
         <v>1.19</v>
@@ -4990,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5080,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT23">
         <v>3</v>
@@ -5181,10 +5199,10 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5372,10 +5390,10 @@
         <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5563,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -5692,22 +5710,22 @@
         <v>3.25</v>
       </c>
       <c r="BF26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ26">
         <v>16</v>
       </c>
       <c r="BK26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -5754,10 +5772,10 @@
         <v>4</v>
       </c>
       <c r="O27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -5883,19 +5901,19 @@
         <v>3.8</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH27">
         <v>3</v>
       </c>
       <c r="BI27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK27">
         <v>11</v>
@@ -5945,10 +5963,10 @@
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6074,22 +6092,22 @@
         <v>3.2</v>
       </c>
       <c r="BF28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG28">
         <v>3</v>
       </c>
       <c r="BH28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6136,10 +6154,10 @@
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6265,22 +6283,22 @@
         <v>2.8</v>
       </c>
       <c r="BF29">
+        <v>7</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>7</v>
+      </c>
+      <c r="BI29">
         <v>5</v>
       </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>4</v>
-      </c>
-      <c r="BI29">
-        <v>7</v>
-      </c>
       <c r="BJ29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK29">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6327,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6459,19 +6477,974 @@
         <v>2</v>
       </c>
       <c r="BG30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI30">
+        <v>6</v>
+      </c>
+      <c r="BJ30">
+        <v>6</v>
+      </c>
+      <c r="BK30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6846017</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45172.5625</v>
+      </c>
+      <c r="F31">
         <v>4</v>
       </c>
-      <c r="BJ30">
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>2.1</v>
+      </c>
+      <c r="V31">
+        <v>4.8</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>2.75</v>
+      </c>
+      <c r="Y31">
+        <v>2.75</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <v>1.08</v>
+      </c>
+      <c r="AC31">
+        <v>1.7</v>
+      </c>
+      <c r="AD31">
+        <v>3.1</v>
+      </c>
+      <c r="AE31">
+        <v>4.75</v>
+      </c>
+      <c r="AF31">
+        <v>1.06</v>
+      </c>
+      <c r="AG31">
+        <v>8</v>
+      </c>
+      <c r="AH31">
+        <v>1.33</v>
+      </c>
+      <c r="AI31">
+        <v>3.25</v>
+      </c>
+      <c r="AJ31">
+        <v>1.95</v>
+      </c>
+      <c r="AK31">
+        <v>1.75</v>
+      </c>
+      <c r="AL31">
+        <v>1.91</v>
+      </c>
+      <c r="AM31">
+        <v>1.8</v>
+      </c>
+      <c r="AN31">
+        <v>1.18</v>
+      </c>
+      <c r="AO31">
+        <v>1.29</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>1.5</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>1.18</v>
+      </c>
+      <c r="AW31">
+        <v>1.18</v>
+      </c>
+      <c r="AX31">
+        <v>1.26</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>4.86</v>
+      </c>
+      <c r="BA31">
+        <v>1.18</v>
+      </c>
+      <c r="BB31">
+        <v>1.31</v>
+      </c>
+      <c r="BC31">
+        <v>1.57</v>
+      </c>
+      <c r="BD31">
+        <v>1.98</v>
+      </c>
+      <c r="BE31">
+        <v>2.6</v>
+      </c>
+      <c r="BF31">
+        <v>3</v>
+      </c>
+      <c r="BG31">
+        <v>6</v>
+      </c>
+      <c r="BH31">
+        <v>6</v>
+      </c>
+      <c r="BI31">
+        <v>2</v>
+      </c>
+      <c r="BJ31">
+        <v>9</v>
+      </c>
+      <c r="BK31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6846019</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45172.5625</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>3.48</v>
+      </c>
+      <c r="U32">
+        <v>2.02</v>
+      </c>
+      <c r="V32">
+        <v>3.24</v>
+      </c>
+      <c r="W32">
+        <v>1.47</v>
+      </c>
+      <c r="X32">
+        <v>2.58</v>
+      </c>
+      <c r="Y32">
+        <v>3.16</v>
+      </c>
+      <c r="Z32">
+        <v>1.33</v>
+      </c>
+      <c r="AA32">
+        <v>8.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.05</v>
+      </c>
+      <c r="AC32">
+        <v>2.55</v>
+      </c>
+      <c r="AD32">
+        <v>2.85</v>
+      </c>
+      <c r="AE32">
+        <v>2.65</v>
+      </c>
+      <c r="AF32">
+        <v>1.04</v>
+      </c>
+      <c r="AG32">
+        <v>7.6</v>
+      </c>
+      <c r="AH32">
+        <v>1.37</v>
+      </c>
+      <c r="AI32">
+        <v>2.79</v>
+      </c>
+      <c r="AJ32">
+        <v>2.2</v>
+      </c>
+      <c r="AK32">
+        <v>1.6</v>
+      </c>
+      <c r="AL32">
+        <v>1.89</v>
+      </c>
+      <c r="AM32">
+        <v>1.85</v>
+      </c>
+      <c r="AN32">
+        <v>1.5</v>
+      </c>
+      <c r="AO32">
+        <v>1.34</v>
+      </c>
+      <c r="AP32">
+        <v>1.44</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>0.33</v>
+      </c>
+      <c r="AT32">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>1.19</v>
+      </c>
+      <c r="AV32">
+        <v>0.91</v>
+      </c>
+      <c r="AW32">
+        <v>2.1</v>
+      </c>
+      <c r="AX32">
+        <v>1.75</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>2.44</v>
+      </c>
+      <c r="BA32">
+        <v>1.18</v>
+      </c>
+      <c r="BB32">
+        <v>1.4</v>
+      </c>
+      <c r="BC32">
+        <v>1.8</v>
+      </c>
+      <c r="BD32">
+        <v>2.25</v>
+      </c>
+      <c r="BE32">
+        <v>3</v>
+      </c>
+      <c r="BF32">
+        <v>3</v>
+      </c>
+      <c r="BG32">
+        <v>2</v>
+      </c>
+      <c r="BH32">
+        <v>7</v>
+      </c>
+      <c r="BI32">
         <v>5</v>
       </c>
-      <c r="BK30">
+      <c r="BJ32">
+        <v>10</v>
+      </c>
+      <c r="BK32">
         <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6846012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45172.5625</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>2.6</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>4.2</v>
+      </c>
+      <c r="W33">
+        <v>1.44</v>
+      </c>
+      <c r="X33">
+        <v>2.62</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>1.36</v>
+      </c>
+      <c r="AA33">
+        <v>7</v>
+      </c>
+      <c r="AB33">
+        <v>1.08</v>
+      </c>
+      <c r="AC33">
+        <v>1.95</v>
+      </c>
+      <c r="AD33">
+        <v>3.15</v>
+      </c>
+      <c r="AE33">
+        <v>3.5</v>
+      </c>
+      <c r="AF33">
+        <v>1.08</v>
+      </c>
+      <c r="AG33">
+        <v>7</v>
+      </c>
+      <c r="AH33">
+        <v>1.36</v>
+      </c>
+      <c r="AI33">
+        <v>3</v>
+      </c>
+      <c r="AJ33">
+        <v>1.95</v>
+      </c>
+      <c r="AK33">
+        <v>1.75</v>
+      </c>
+      <c r="AL33">
+        <v>1.85</v>
+      </c>
+      <c r="AM33">
+        <v>1.85</v>
+      </c>
+      <c r="AN33">
+        <v>1.29</v>
+      </c>
+      <c r="AO33">
+        <v>1.35</v>
+      </c>
+      <c r="AP33">
+        <v>1.65</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>3</v>
+      </c>
+      <c r="AS33">
+        <v>0.67</v>
+      </c>
+      <c r="AT33">
+        <v>2</v>
+      </c>
+      <c r="AU33">
+        <v>1.86</v>
+      </c>
+      <c r="AV33">
+        <v>1.4</v>
+      </c>
+      <c r="AW33">
+        <v>3.26</v>
+      </c>
+      <c r="AX33">
+        <v>1.69</v>
+      </c>
+      <c r="AY33">
+        <v>8</v>
+      </c>
+      <c r="AZ33">
+        <v>2.54</v>
+      </c>
+      <c r="BA33">
+        <v>1.25</v>
+      </c>
+      <c r="BB33">
+        <v>1.47</v>
+      </c>
+      <c r="BC33">
+        <v>1.9</v>
+      </c>
+      <c r="BD33">
+        <v>2.4</v>
+      </c>
+      <c r="BE33">
+        <v>3.3</v>
+      </c>
+      <c r="BF33">
+        <v>12</v>
+      </c>
+      <c r="BG33">
+        <v>6</v>
+      </c>
+      <c r="BH33">
+        <v>6</v>
+      </c>
+      <c r="BI33">
+        <v>4</v>
+      </c>
+      <c r="BJ33">
+        <v>18</v>
+      </c>
+      <c r="BK33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6846013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45172.5625</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>9</v>
+      </c>
+      <c r="T34">
+        <v>3.4</v>
+      </c>
+      <c r="U34">
+        <v>2.05</v>
+      </c>
+      <c r="V34">
+        <v>3.4</v>
+      </c>
+      <c r="W34">
+        <v>1.5</v>
+      </c>
+      <c r="X34">
+        <v>2.5</v>
+      </c>
+      <c r="Y34">
+        <v>3.4</v>
+      </c>
+      <c r="Z34">
+        <v>1.3</v>
+      </c>
+      <c r="AA34">
+        <v>10</v>
+      </c>
+      <c r="AB34">
+        <v>1.06</v>
+      </c>
+      <c r="AC34">
+        <v>2.5</v>
+      </c>
+      <c r="AD34">
+        <v>3.05</v>
+      </c>
+      <c r="AE34">
+        <v>2.7</v>
+      </c>
+      <c r="AF34">
+        <v>1.07</v>
+      </c>
+      <c r="AG34">
+        <v>8.5</v>
+      </c>
+      <c r="AH34">
+        <v>1.4</v>
+      </c>
+      <c r="AI34">
+        <v>3</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>1.7</v>
+      </c>
+      <c r="AL34">
+        <v>1.95</v>
+      </c>
+      <c r="AM34">
+        <v>1.8</v>
+      </c>
+      <c r="AN34">
+        <v>1.45</v>
+      </c>
+      <c r="AO34">
+        <v>1.29</v>
+      </c>
+      <c r="AP34">
+        <v>1.48</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0.82</v>
+      </c>
+      <c r="AW34">
+        <v>0.82</v>
+      </c>
+      <c r="AX34">
+        <v>2.1</v>
+      </c>
+      <c r="AY34">
+        <v>8</v>
+      </c>
+      <c r="AZ34">
+        <v>2</v>
+      </c>
+      <c r="BA34">
+        <v>1.31</v>
+      </c>
+      <c r="BB34">
+        <v>1.52</v>
+      </c>
+      <c r="BC34">
+        <v>2</v>
+      </c>
+      <c r="BD34">
+        <v>2.47</v>
+      </c>
+      <c r="BE34">
+        <v>3.35</v>
+      </c>
+      <c r="BF34">
+        <v>8</v>
+      </c>
+      <c r="BG34">
+        <v>9</v>
+      </c>
+      <c r="BH34">
+        <v>6</v>
+      </c>
+      <c r="BI34">
+        <v>9</v>
+      </c>
+      <c r="BJ34">
+        <v>14</v>
+      </c>
+      <c r="BK34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6846011</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45172.65625</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>3.24</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>3.54</v>
+      </c>
+      <c r="W35">
+        <v>1.48</v>
+      </c>
+      <c r="X35">
+        <v>2.55</v>
+      </c>
+      <c r="Y35">
+        <v>3.22</v>
+      </c>
+      <c r="Z35">
+        <v>1.32</v>
+      </c>
+      <c r="AA35">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>1.05</v>
+      </c>
+      <c r="AC35">
+        <v>2.5</v>
+      </c>
+      <c r="AD35">
+        <v>3.1</v>
+      </c>
+      <c r="AE35">
+        <v>2.85</v>
+      </c>
+      <c r="AF35">
+        <v>1.04</v>
+      </c>
+      <c r="AG35">
+        <v>7.4</v>
+      </c>
+      <c r="AH35">
+        <v>1.38</v>
+      </c>
+      <c r="AI35">
+        <v>2.75</v>
+      </c>
+      <c r="AJ35">
+        <v>2.21</v>
+      </c>
+      <c r="AK35">
+        <v>1.52</v>
+      </c>
+      <c r="AL35">
+        <v>1.92</v>
+      </c>
+      <c r="AM35">
+        <v>1.82</v>
+      </c>
+      <c r="AN35">
+        <v>1.43</v>
+      </c>
+      <c r="AO35">
+        <v>1.34</v>
+      </c>
+      <c r="AP35">
+        <v>1.5</v>
+      </c>
+      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <v>3</v>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
+        <v>2</v>
+      </c>
+      <c r="AU35">
+        <v>1.24</v>
+      </c>
+      <c r="AV35">
+        <v>1.29</v>
+      </c>
+      <c r="AW35">
+        <v>2.53</v>
+      </c>
+      <c r="AX35">
+        <v>1.75</v>
+      </c>
+      <c r="AY35">
+        <v>8</v>
+      </c>
+      <c r="AZ35">
+        <v>2.42</v>
+      </c>
+      <c r="BA35">
+        <v>1.25</v>
+      </c>
+      <c r="BB35">
+        <v>1.47</v>
+      </c>
+      <c r="BC35">
+        <v>1.9</v>
+      </c>
+      <c r="BD35">
+        <v>2.4</v>
+      </c>
+      <c r="BE35">
+        <v>3.3</v>
+      </c>
+      <c r="BF35">
+        <v>5</v>
+      </c>
+      <c r="BG35">
+        <v>4</v>
+      </c>
+      <c r="BH35">
+        <v>3</v>
+      </c>
+      <c r="BI35">
+        <v>4</v>
+      </c>
+      <c r="BJ35">
+        <v>8</v>
+      </c>
+      <c r="BK35">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>1.46</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.67</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.33</v>
@@ -7841,22 +7841,22 @@
         <v>2.87</v>
       </c>
       <c r="BF36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG36" t="n">
         <v>8</v>
       </c>
       <c r="BH36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -9059,22 +9059,631 @@
         <v>3.3</v>
       </c>
       <c r="BF42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6846021</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45186.46875</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['18', '25', '40', '47', '84']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH43" t="n">
         <v>4</v>
       </c>
-      <c r="BG42" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>14</v>
-      </c>
-      <c r="BJ42" t="n">
+      <c r="BI43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6846022</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45186.46875</v>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="BK42" t="n">
-        <v>25</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['83', '90+5']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6846027</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45187.64583333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['49', '66']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>6</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>1.77</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
         <v>1.67</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.19</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" t="n">
         <v>2</v>
@@ -5775,7 +5775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU27" t="n">
         <v>1.17</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT32" t="n">
         <v>1.67</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.24</v>
@@ -8211,7 +8211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU38" t="n">
         <v>1.7</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT41" t="n">
         <v>2</v>
@@ -9684,6 +9684,1427 @@
       </c>
       <c r="BK45" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6846034</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45191.64583333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7195352</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>8</v>
+      </c>
+      <c r="S47" t="n">
+        <v>11</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6846037</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7</v>
+      </c>
+      <c r="S48" t="n">
+        <v>12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6846032</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6846031</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['13', '60']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['25', '88']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>6</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6846033</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8</v>
+      </c>
+      <c r="S51" t="n">
+        <v>16</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6846036</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45192.46875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['50', '81']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
         <v>1.25</v>
@@ -2324,7 +2324,7 @@
         <v>2.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>0.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.86</v>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
         <v>1.67</v>
@@ -9871,13 +9871,13 @@
         <v>3</v>
       </c>
       <c r="BF46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI46" t="n">
         <v>4</v>
@@ -9886,7 +9886,7 @@
         <v>14</v>
       </c>
       <c r="BK46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -10157,10 +10157,10 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T48" t="n">
         <v>2.85</v>
@@ -10563,10 +10563,10 @@
         <v>6</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T50" t="n">
         <v>2.35</v>
@@ -10966,13 +10966,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T52" t="n">
         <v>2.5</v>
@@ -11089,22 +11089,631 @@
         <v>3.25</v>
       </c>
       <c r="BF52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG52" t="n">
         <v>5</v>
       </c>
-      <c r="BG52" t="n">
+      <c r="BH52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6846035</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.46875</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>9</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG53" t="n">
         <v>4</v>
       </c>
-      <c r="BH52" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI52" t="n">
+      <c r="BH53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6846030</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.46875</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['2', '32', '50']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>7</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V54" t="n">
         <v>4</v>
       </c>
-      <c r="BJ52" t="n">
+      <c r="W54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG54" t="n">
         <v>8</v>
       </c>
-      <c r="BK52" t="n">
+      <c r="AH54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6846029</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45193.46875</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['28', '57']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['30', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY55" t="n">
         <v>8</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ62"/>
+  <dimension ref="A1:AZ65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6845987</v>
+        <v>6845986</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -894,110 +894,110 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>['20', '54', '61']</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2.75</v>
       </c>
-      <c r="V3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3.99</v>
-      </c>
       <c r="AC3" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL3" t="n">
         <v>1.3</v>
       </c>
-      <c r="AF3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AM3" t="n">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.67</v>
+        <v>0.25</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1021,22 +1021,22 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6845991</v>
+        <v>6845987</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1064,50 +1064,50 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>['5', '77']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
         <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
         <v>1.4</v>
@@ -1128,13 +1128,13 @@
         <v>1.08</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.97</v>
+        <v>1.85</v>
       </c>
       <c r="AA4" t="n">
         <v>3.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.2</v>
+        <v>3.99</v>
       </c>
       <c r="AC4" t="n">
         <v>1.06</v>
@@ -1149,25 +1149,25 @@
         <v>3.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.67</v>
@@ -1194,19 +1194,19 @@
         <v>4</v>
       </c>
       <c r="AV4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW4" t="n">
         <v>7</v>
       </c>
-      <c r="AW4" t="n">
-        <v>3</v>
-      </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1214,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6845986</v>
+        <v>6845991</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1234,149 +1234,149 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['20', '54', '61']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['5', '77']</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1554,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6845988</v>
+        <v>6845985</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1592,17 +1592,17 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['37', '66']</t>
+          <t>['45+4']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1611,52 +1611,52 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="T7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AG7" t="n">
         <v>2.3</v>
@@ -1665,19 +1665,19 @@
         <v>1.58</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1701,22 +1701,22 @@
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY7" t="n">
         <v>10</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1724,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6845985</v>
+        <v>6845988</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1762,17 +1762,17 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['45+4']</t>
+          <t>['37', '66']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1781,52 +1781,52 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AG8" t="n">
         <v>2.3</v>
@@ -1835,19 +1835,19 @@
         <v>1.58</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1871,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
         <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>3</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -2574,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6845995</v>
+        <v>6845998</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2594,149 +2594,149 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>['44']</t>
-        </is>
-      </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="U13" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="V13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X13" t="n">
-        <v>8.1</v>
+        <v>8.75</v>
       </c>
       <c r="Y13" t="n">
         <v>1.06</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AA13" t="n">
         <v>3.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.67</v>
+        <v>0.25</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>0.34</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2744,7 +2744,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>6845996</v>
+        <v>6845994</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2764,77 +2764,77 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['4', '47']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['23', '82']</t>
+          <t>['54', '90']</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>8.449999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.85</v>
+        <v>3.65</v>
       </c>
       <c r="AC14" t="n">
         <v>1.1</v>
@@ -2843,10 +2843,10 @@
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AG14" t="n">
         <v>2.2</v>
@@ -2855,19 +2855,19 @@
         <v>1.53</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AL14" t="n">
         <v>1.28</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -2876,34 +2876,34 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
         <v>8</v>
@@ -2914,7 +2914,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6845994</v>
+        <v>6845995</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2934,146 +2934,146 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['4', '47']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['54', '90']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="V15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z15" t="n">
         <v>2.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.25</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX15" t="n">
         <v>6</v>
       </c>
-      <c r="AW15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>2</v>
-      </c>
       <c r="AY15" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AZ15" t="n">
         <v>8</v>
@@ -3084,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>6845998</v>
+        <v>6845996</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3104,50 +3104,50 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23', '82']</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
         <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
         <v>1.49</v>
@@ -3156,58 +3156,58 @@
         <v>2.45</v>
       </c>
       <c r="V16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W16" t="n">
         <v>1.3</v>
       </c>
       <c r="X16" t="n">
-        <v>8.75</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AH16" t="n">
         <v>1.53</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -3216,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW16" t="n">
         <v>4</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AX16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY16" t="n">
         <v>6</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AZ16" t="n">
         <v>8</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6846006</v>
+        <v>6846008</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3444,56 +3444,56 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['12']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['40', '87']</t>
+          <t>['7', '71', '90+5']</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="T18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="V18" t="n">
         <v>3.25</v>
@@ -3508,13 +3508,13 @@
         <v>1.06</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="AC18" t="n">
         <v>1.1</v>
@@ -3529,10 +3529,10 @@
         <v>2.62</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AI18" t="n">
         <v>2</v>
@@ -3541,52 +3541,52 @@
         <v>1.73</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX18" t="n">
         <v>7</v>
       </c>
-      <c r="AX18" t="n">
-        <v>3</v>
-      </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -3764,7 +3764,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>6846008</v>
+        <v>6846002</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3784,50 +3784,50 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['29', '31', '77']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['7', '71', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>2.87</v>
+        <v>4.81</v>
       </c>
       <c r="T20" t="n">
         <v>1.44</v>
@@ -3836,43 +3836,43 @@
         <v>2.62</v>
       </c>
       <c r="V20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA20" t="n">
         <v>3.3</v>
       </c>
-      <c r="AA20" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AB20" t="n">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AI20" t="n">
         <v>2</v>
@@ -3881,52 +3881,52 @@
         <v>1.73</v>
       </c>
       <c r="AK20" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.31</v>
+        <v>1.83</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AU20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -3934,7 +3934,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6846002</v>
+        <v>6846006</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3954,95 +3954,95 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['29', '31', '77']</t>
+          <t>['12']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40', '87']</t>
         </is>
       </c>
       <c r="Q21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF21" t="n">
         <v>2.62</v>
       </c>
-      <c r="R21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AG21" t="n">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AI21" t="n">
         <v>2</v>
@@ -4051,52 +4051,52 @@
         <v>1.73</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV21" t="n">
         <v>6</v>
       </c>
-      <c r="AV21" t="n">
-        <v>5</v>
-      </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -4104,7 +4104,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>6846009</v>
+        <v>6846010</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -4142,131 +4142,131 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['46']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['76', '89']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.5</v>
       </c>
-      <c r="R22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.63</v>
-      </c>
       <c r="V22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD22" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX22" t="n">
         <v>8</v>
       </c>
-      <c r="AE22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW22" t="n">
+      <c r="AY22" t="n">
         <v>8</v>
       </c>
-      <c r="AX22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -4274,7 +4274,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>6846010</v>
+        <v>6846009</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -4312,92 +4312,92 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['46']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['76', '89']</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V23" t="n">
         <v>2.88</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3</v>
-      </c>
       <c r="W23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
         <v>1.33</v>
       </c>
-      <c r="X23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AF23" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AK23" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -4406,37 +4406,37 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.99</v>
+        <v>1.19</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.99</v>
+        <v>1.19</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -4444,7 +4444,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6846003</v>
+        <v>6846004</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -4464,50 +4464,50 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['52', '59', '73']</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R24" t="n">
         <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T24" t="n">
         <v>1.5</v>
@@ -4516,10 +4516,10 @@
         <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X24" t="n">
         <v>8</v>
@@ -4528,19 +4528,19 @@
         <v>1.05</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE24" t="n">
         <v>1.43</v>
@@ -4561,52 +4561,52 @@
         <v>1.73</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.22</v>
+        <v>3.33</v>
       </c>
       <c r="AU24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>6</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -4614,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6846004</v>
+        <v>6846003</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -4634,50 +4634,50 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['52', '59', '73']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>1.95</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
         <v>1.5</v>
@@ -4686,10 +4686,10 @@
         <v>2.4</v>
       </c>
       <c r="V25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
         <v>8</v>
@@ -4698,19 +4698,19 @@
         <v>1.05</v>
       </c>
       <c r="Z25" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>1.43</v>
@@ -4731,52 +4731,52 @@
         <v>1.73</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.33</v>
+        <v>2.22</v>
       </c>
       <c r="AU25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV25" t="n">
         <v>6</v>
       </c>
-      <c r="AV25" t="n">
-        <v>3</v>
-      </c>
       <c r="AW25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -4784,7 +4784,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6846016</v>
+        <v>6846014</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -4804,146 +4804,146 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
+          <t>['4', '90+4']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q26" t="n">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="S26" t="n">
-        <v>5.95</v>
+        <v>3.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="U26" t="n">
-        <v>2.71</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X26" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="AU26" t="n">
         <v>5</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
         <v>5</v>
@@ -4954,7 +4954,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>6846018</v>
+        <v>6846015</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4974,19 +4974,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -4995,128 +4995,128 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['53', '64', '83']</t>
+          <t>['15', '46', '85']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>2.82</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="S27" t="n">
-        <v>4.33</v>
+        <v>5.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U27" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="V27" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X27" t="n">
-        <v>9.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
         <v>1.04</v>
       </c>
-      <c r="Z27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0.79</v>
-      </c>
       <c r="AT27" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX27" t="n">
         <v>5</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AY27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>5</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -5124,7 +5124,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>6846014</v>
+        <v>6846016</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -5144,35 +5144,35 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['4', '90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -5181,109 +5181,109 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="S28" t="n">
-        <v>3.8</v>
+        <v>5.95</v>
       </c>
       <c r="T28" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="U28" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM28" t="n">
         <v>2.3</v>
       </c>
-      <c r="V28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AN28" t="n">
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>5</v>
@@ -5294,7 +5294,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>6846015</v>
+        <v>6846018</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -5314,19 +5314,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -5335,128 +5335,128 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['15', '46', '85']</t>
+          <t>['53', '64', '83']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.82</v>
       </c>
       <c r="R29" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="S29" t="n">
-        <v>5.75</v>
+        <v>4.33</v>
       </c>
       <c r="T29" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U29" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="V29" t="n">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="W29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL29" t="n">
         <v>1.34</v>
       </c>
-      <c r="X29" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AM29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY29" t="n">
         <v>8</v>
       </c>
-      <c r="AE29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>6846017</v>
+        <v>6846012</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -5654,62 +5654,62 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['24']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U31" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X31" t="n">
         <v>7</v>
@@ -5718,25 +5718,25 @@
         <v>1.08</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AB31" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG31" t="n">
         <v>1.95</v>
@@ -5745,43 +5745,43 @@
         <v>1.75</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AM31" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU31" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV31" t="n">
         <v>6</v>
@@ -5790,13 +5790,13 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -5804,7 +5804,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>6846019</v>
+        <v>6846013</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -5824,149 +5824,149 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['64', '83', '90+2']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31', '56', '85', '88']</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U32" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="V32" t="n">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD32" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AE32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AF32" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI32" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AK32" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AL32" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AM32" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.67</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.1</v>
+        <v>0.82</v>
       </c>
       <c r="AU32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AW32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -5974,7 +5974,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>6846012</v>
+        <v>6846017</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -5994,62 +5994,62 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['24']</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
         <v>7</v>
@@ -6058,25 +6058,25 @@
         <v>1.08</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AB33" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AG33" t="n">
         <v>1.95</v>
@@ -6085,43 +6085,43 @@
         <v>1.75</v>
       </c>
       <c r="AI33" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AK33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL33" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL33" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AM33" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.26</v>
+        <v>1.18</v>
       </c>
       <c r="AU33" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AV33" t="n">
         <v>6</v>
@@ -6130,13 +6130,13 @@
         <v>6</v>
       </c>
       <c r="AX33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY33" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AZ33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -6144,7 +6144,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>6846013</v>
+        <v>6846019</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -6164,149 +6164,149 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW34" t="n">
         <v>7</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>['64', '83', '90+2']</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>['31', '56', '85', '88']</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="AX34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY34" t="n">
         <v>10</v>
       </c>
-      <c r="Y34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -6789,7 +6789,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -6824,7 +6824,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6846023</v>
+        <v>6846024</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -6844,149 +6844,149 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>['9', '90+9']</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>['66', '75']</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.2</v>
-      </c>
       <c r="R38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI38" t="n">
         <v>1.91</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="AJ38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL38" t="n">
         <v>1.25</v>
       </c>
-      <c r="X38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AM38" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.67</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AU38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW38" t="n">
         <v>6</v>
       </c>
-      <c r="AV38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>3</v>
-      </c>
       <c r="AX38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ38" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -6994,7 +6994,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>7195351</v>
+        <v>6846023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -7014,149 +7014,149 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '90+9']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['3', '63']</t>
+          <t>['66', '75']</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S39" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U39" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="V39" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AB39" t="n">
-        <v>2.83</v>
+        <v>3.15</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX39" t="n">
         <v>4</v>
       </c>
       <c r="AY39" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -7334,7 +7334,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>6846024</v>
+        <v>7195351</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -7354,50 +7354,50 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
         <v>2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['3', '63']</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R41" t="n">
         <v>2.05</v>
       </c>
       <c r="S41" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
         <v>1.44</v>
@@ -7412,91 +7412,91 @@
         <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z41" t="n">
-        <v>3.55</v>
+        <v>2.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="AB41" t="n">
-        <v>2.21</v>
+        <v>2.83</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD41" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF41" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AG41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AI41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR41" t="n">
         <v>1.66</v>
       </c>
-      <c r="AL41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.25</v>
+        <v>1.66</v>
       </c>
       <c r="AU41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW41" t="n">
         <v>7</v>
       </c>
-      <c r="AW41" t="n">
-        <v>6</v>
-      </c>
       <c r="AX41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY41" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -7806,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43" t="n">
         <v>3</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -8524,7 +8524,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>6846037</v>
+        <v>6846033</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -8544,149 +8544,149 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U48" t="n">
         <v>2.55</v>
       </c>
       <c r="V48" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X48" t="n">
-        <v>8.699999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.07</v>
+        <v>1.56</v>
       </c>
       <c r="AA48" t="n">
-        <v>3.28</v>
+        <v>3.92</v>
       </c>
       <c r="AB48" t="n">
-        <v>3.76</v>
+        <v>6.05</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF48" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="AH48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>1.62</v>
       </c>
-      <c r="AI48" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AK48" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AL48" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AM48" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AO48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="AU48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW48" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY48" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -8694,7 +8694,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>6846032</v>
+        <v>6846037</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -8714,95 +8714,95 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="T49" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U49" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="V49" t="n">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="W49" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X49" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AC49" t="n">
         <v>1.04</v>
       </c>
-      <c r="Z49" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AD49" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AF49" t="n">
         <v>2.75</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="AH49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AI49" t="n">
         <v>1.95</v>
@@ -8811,52 +8811,52 @@
         <v>1.8</v>
       </c>
       <c r="AK49" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM49" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="AN49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP49" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AQ49" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.89</v>
+        <v>1.16</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="AU49" t="n">
         <v>4</v>
       </c>
       <c r="AV49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX49" t="n">
         <v>5</v>
       </c>
-      <c r="AW49" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>6</v>
-      </c>
       <c r="AY49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ49" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -9034,7 +9034,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>6846033</v>
+        <v>6846032</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -9054,12 +9054,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -9075,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -9087,116 +9087,116 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="R51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="U51" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X51" t="n">
-        <v>8.25</v>
+        <v>8.9</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.56</v>
+        <v>3.18</v>
       </c>
       <c r="AA51" t="n">
-        <v>3.92</v>
+        <v>3.2</v>
       </c>
       <c r="AB51" t="n">
-        <v>6.05</v>
+        <v>2.3</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM51" t="n">
         <v>1.36</v>
       </c>
-      <c r="AF51" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AN51" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.3</v>
+        <v>0.89</v>
       </c>
       <c r="AS51" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.3</v>
+        <v>1.86</v>
       </c>
       <c r="AU51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV51" t="n">
         <v>5</v>
       </c>
       <c r="AW51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY51" t="n">
         <v>9</v>
       </c>
-      <c r="AX51" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -9374,7 +9374,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>6846035</v>
+        <v>6846030</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -9394,89 +9394,89 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>['2', '32', '50']</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AA53" t="n">
         <v>3.25</v>
       </c>
-      <c r="W53" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X53" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AA53" t="n">
+      <c r="AB53" t="n">
         <v>3.2</v>
       </c>
-      <c r="AB53" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AC53" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF53" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AG53" t="n">
         <v>2.1</v>
@@ -9485,58 +9485,58 @@
         <v>1.65</v>
       </c>
       <c r="AI53" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK53" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AL53" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM53" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO53" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.81</v>
+        <v>2.37</v>
       </c>
       <c r="AU53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX53" t="n">
         <v>4</v>
       </c>
-      <c r="AW53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>1</v>
-      </c>
       <c r="AY53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ53" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -9544,7 +9544,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>6846030</v>
+        <v>6846029</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -9564,146 +9564,146 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['28', '57']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>['2', '32', '50']</t>
+          <t>['30', '45+1']</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R54" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S54" t="n">
         <v>4</v>
       </c>
       <c r="T54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X54" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH54" t="n">
         <v>1.5</v>
       </c>
-      <c r="U54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V54" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W54" t="n">
+      <c r="AI54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK54" t="n">
         <v>1.3</v>
       </c>
-      <c r="X54" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AL54" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM54" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AN54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO54" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AU54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY54" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ54" t="n">
         <v>9</v>
@@ -9714,7 +9714,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>6846029</v>
+        <v>6846035</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -9734,149 +9734,149 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV55" t="n">
         <v>4</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>['28', '57']</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>['30', '45+1']</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U55" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V55" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X55" t="n">
+      <c r="AW55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY55" t="n">
         <v>11</v>
       </c>
-      <c r="Y55" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -10224,7 +10224,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>6846038</v>
+        <v>6846046</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -10244,149 +10244,149 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['42', '89']</t>
+          <t>['45+5']</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '62', '90+2']</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R58" t="n">
         <v>1.95</v>
       </c>
       <c r="S58" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T58" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U58" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W58" t="n">
         <v>1.33</v>
       </c>
       <c r="X58" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB58" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE58" t="n">
         <v>1.4</v>
       </c>
       <c r="AF58" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AG58" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AI58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>1.83</v>
       </c>
-      <c r="AJ58" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AK58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AL58" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM58" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AN58" t="n">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="AU58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV58" t="n">
         <v>5</v>
       </c>
       <c r="AW58" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY58" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ58" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -10394,7 +10394,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>7195353</v>
+        <v>6846038</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -10414,77 +10414,77 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
+          <t>['42', '89']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U59" t="n">
         <v>2.55</v>
       </c>
-      <c r="R59" t="n">
-        <v>2</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U59" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V59" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W59" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X59" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y59" t="n">
         <v>1.06</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AA59" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB59" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AC59" t="n">
         <v>1.07</v>
@@ -10493,70 +10493,70 @@
         <v>8.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG59" t="n">
         <v>2.1</v>
       </c>
       <c r="AH59" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AI59" t="n">
         <v>1.83</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AK59" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AL59" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AN59" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.49</v>
+        <v>3.22</v>
       </c>
       <c r="AU59" t="n">
         <v>6</v>
       </c>
       <c r="AV59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ59" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -10904,7 +10904,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>6846046</v>
+        <v>7195353</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -10924,149 +10924,659 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['45+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['9', '62', '90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X62" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z62" t="n">
         <v>1.95</v>
       </c>
-      <c r="S62" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V62" t="n">
+      <c r="AA62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF62" t="n">
         <v>3.1</v>
       </c>
-      <c r="W62" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X62" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>2.95</v>
-      </c>
       <c r="AG62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AI62" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AJ62" t="n">
         <v>1.83</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6846039</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45196.64583333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X63" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6846040</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45196.64583333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X64" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6846043</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45196.64583333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['15', '81']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X65" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH65" t="n">
         <v>1.65</v>
       </c>
-      <c r="AN62" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV62" t="n">
+      <c r="AI65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU65" t="n">
         <v>5</v>
       </c>
-      <c r="AW62" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>7</v>
+      <c r="AV65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -11221,10 +11221,10 @@
         <v>2.7</v>
       </c>
       <c r="AU63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW63" t="n">
         <v>3</v>
@@ -11233,10 +11233,10 @@
         <v>4</v>
       </c>
       <c r="AY63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -11391,7 +11391,7 @@
         <v>2.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV64" t="n">
         <v>6</v>
@@ -11400,13 +11400,13 @@
         <v>2</v>
       </c>
       <c r="AX64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -11561,7 +11561,7 @@
         <v>2.54</v>
       </c>
       <c r="AU65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV65" t="n">
         <v>6</v>
@@ -11570,13 +11570,13 @@
         <v>5</v>
       </c>
       <c r="AX65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ65"/>
+  <dimension ref="A1:AZ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.25</v>
@@ -1519,7 +1519,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.67</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>3</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.33</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -4579,7 +4579,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -4916,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.75</v>
@@ -5259,7 +5259,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -5429,7 +5429,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -5596,10 +5596,10 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.25</v>
@@ -6449,7 +6449,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -6619,7 +6619,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.25</v>
@@ -6956,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.67</v>
@@ -8319,7 +8319,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -8486,10 +8486,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.67</v>
@@ -8999,7 +8999,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -9166,7 +9166,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.75</v>
@@ -9339,7 +9339,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -11577,6 +11577,856 @@
       </c>
       <c r="AZ65" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6846053</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45199.375</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['6', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X66" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6846051</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45199.375</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['55', '76', '83']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X67" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7195354</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45199.375</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X68" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6846050</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45199.375</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['17', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X69" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6846055</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45199.46875</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['9', '11', '90+2']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X70" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ70"/>
+  <dimension ref="A1:AZ75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.25</v>
@@ -3219,7 +3219,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.75</v>
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.25</v>
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -8316,7 +8316,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.75</v>
@@ -8659,7 +8659,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.4</v>
@@ -9506,10 +9506,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -9679,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12241,7 +12241,7 @@
         <v>2.48</v>
       </c>
       <c r="AU69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV69" t="n">
         <v>6</v>
@@ -12253,7 +12253,7 @@
         <v>5</v>
       </c>
       <c r="AY69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ69" t="n">
         <v>11</v>
@@ -12411,22 +12411,872 @@
         <v>2.17</v>
       </c>
       <c r="AU70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6846048</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45200.46875</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['87', '89']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX71" t="n">
         <v>6</v>
       </c>
-      <c r="AV70" t="n">
+      <c r="AY71" t="n">
         <v>5</v>
       </c>
-      <c r="AW70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX70" t="n">
+      <c r="AZ71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6846052</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45200.46875</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['48', '89']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
         <v>5</v>
       </c>
-      <c r="AY70" t="n">
+      <c r="T72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X72" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6846047</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45200.46875</v>
+      </c>
+      <c r="F73" t="n">
         <v>8</v>
       </c>
-      <c r="AZ70" t="n">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X73" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY73" t="n">
         <v>10</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6846054</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45200.46875</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['36', '45']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X74" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6846049</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45200.5625</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['54', '66']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -12581,22 +12581,22 @@
         <v>2.49</v>
       </c>
       <c r="AU71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX71" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY71" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ71" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -12751,22 +12751,22 @@
         <v>2.96</v>
       </c>
       <c r="AU72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX72" t="n">
         <v>5</v>
       </c>
-      <c r="AX72" t="n">
-        <v>3</v>
-      </c>
       <c r="AY72" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ72" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -12921,22 +12921,22 @@
         <v>2.46</v>
       </c>
       <c r="AU73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW73" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX73" t="n">
         <v>2</v>
       </c>
       <c r="AY73" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -13091,22 +13091,22 @@
         <v>2.75</v>
       </c>
       <c r="AU74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ74" t="n">
         <v>5</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -13261,22 +13261,22 @@
         <v>3.11</v>
       </c>
       <c r="AU75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW75" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY75" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ75"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>12</v>
       </c>
+      <c r="BA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>3</v>
       </c>
+      <c r="BA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>6</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>11</v>
       </c>
+      <c r="BA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>15</v>
       </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>5</v>
       </c>
+      <c r="BA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>9</v>
       </c>
+      <c r="BA8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>9</v>
       </c>
+      <c r="BA9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>9</v>
       </c>
+      <c r="BA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>4</v>
       </c>
+      <c r="BA11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
+      <c r="BA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>9</v>
       </c>
+      <c r="BA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>8</v>
       </c>
+      <c r="BA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>8</v>
       </c>
+      <c r="BA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>8</v>
       </c>
+      <c r="BA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>22</v>
       </c>
+      <c r="BA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>17</v>
       </c>
+      <c r="BA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>7</v>
       </c>
+      <c r="BA19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
+      <c r="BA20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>9</v>
       </c>
+      <c r="BA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>13</v>
       </c>
+      <c r="BA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>9</v>
       </c>
+      <c r="BA23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>6</v>
       </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>15</v>
       </c>
+      <c r="BA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>5</v>
       </c>
+      <c r="BA26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>5</v>
       </c>
+      <c r="BA27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>5</v>
       </c>
+      <c r="BA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>11</v>
       </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>8</v>
       </c>
+      <c r="BA30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>10</v>
       </c>
+      <c r="BA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>18</v>
       </c>
+      <c r="BA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>8</v>
       </c>
+      <c r="BA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>7</v>
       </c>
+      <c r="BA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>8</v>
       </c>
+      <c r="BA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>12</v>
       </c>
+      <c r="BA36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>8</v>
       </c>
+      <c r="BA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>13</v>
       </c>
+      <c r="BA38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>7</v>
       </c>
+      <c r="BA39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>11</v>
       </c>
+      <c r="BA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>10</v>
       </c>
+      <c r="BA41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>27</v>
       </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>9</v>
       </c>
+      <c r="BA43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>10</v>
       </c>
+      <c r="BA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>10</v>
       </c>
+      <c r="BA45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>9</v>
       </c>
+      <c r="BA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>4</v>
       </c>
+      <c r="BA47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>12</v>
       </c>
+      <c r="BA48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>9</v>
       </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>15</v>
       </c>
+      <c r="BA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>11</v>
       </c>
+      <c r="BA51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>10</v>
       </c>
+      <c r="BA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>9</v>
       </c>
+      <c r="BA53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>9</v>
       </c>
+      <c r="BA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>5</v>
       </c>
+      <c r="BA55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>16</v>
       </c>
+      <c r="BA56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>13</v>
       </c>
+      <c r="BA57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>7</v>
       </c>
+      <c r="BA58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>13</v>
       </c>
+      <c r="BA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>13</v>
       </c>
+      <c r="BA60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>18</v>
       </c>
+      <c r="BA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>8</v>
       </c>
+      <c r="BA62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>8</v>
       </c>
+      <c r="BA63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>10</v>
       </c>
+      <c r="BA64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>12</v>
       </c>
+      <c r="BA65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>12</v>
       </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>9</v>
       </c>
+      <c r="BA67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>9</v>
       </c>
+      <c r="BA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>11</v>
       </c>
+      <c r="BA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>8</v>
       </c>
+      <c r="BA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>16</v>
       </c>
+      <c r="BA71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>8</v>
       </c>
+      <c r="BA72" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>9</v>
       </c>
+      <c r="BA73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>5</v>
       </c>
+      <c r="BA74" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13277,6 +16861,54 @@
       </c>
       <c r="AZ75" t="n">
         <v>7</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.4</v>
@@ -1355,7 +1355,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.75</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.75</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.4</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -4189,7 +4189,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.67</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.4</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.75</v>
@@ -7241,7 +7241,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.75</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
         <v>2</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.25</v>
@@ -9200,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>2</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11601,7 +11601,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.75</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12473,7 +12473,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13124,10 +13124,10 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.67</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>2</v>
@@ -14432,10 +14432,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67" t="n">
         <v>2</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.4</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -16833,7 +16833,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ75" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -16909,6 +16909,2186 @@
       </c>
       <c r="BP75" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7195355</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45205.64583333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X76" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6846059</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['4', '25', '50']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X77" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6846060</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['47', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X78" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6846061</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X79" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6846063</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X80" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6846064</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.46875</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['46', '63', '78']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['54', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6846056</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45206.46875</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X82" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6846057</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45206.46875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['10', '29']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['8', '84']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X83" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6846058</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45207.46875</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['16', '32', '63']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X84" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6846062</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45207.46875</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X85" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -18153,19 +18153,19 @@
         <v>2.56</v>
       </c>
       <c r="AU81" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY81" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AZ81" t="n">
         <v>10</v>
@@ -18371,22 +18371,22 @@
         <v>2.58</v>
       </c>
       <c r="AU82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX82" t="n">
         <v>4</v>
       </c>
-      <c r="AV82" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>3</v>
-      </c>
       <c r="AY82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ82" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA82" t="n">
         <v>6</v>
@@ -18589,22 +18589,22 @@
         <v>3.02</v>
       </c>
       <c r="AU83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY83" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ83" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA83" t="n">
         <v>3</v>
@@ -18713,7 +18713,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>['16', '32', '63']</t>
+          <t>['16', '32', '64']</t>
         </is>
       </c>
       <c r="Q84" t="n">
@@ -18807,31 +18807,31 @@
         <v>3.36</v>
       </c>
       <c r="AU84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW84" t="n">
         <v>5</v>
       </c>
-      <c r="AV84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>1</v>
-      </c>
       <c r="AX84" t="n">
         <v>2</v>
       </c>
       <c r="AY84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ84" t="n">
         <v>6</v>
       </c>
-      <c r="AZ84" t="n">
-        <v>2</v>
-      </c>
       <c r="BA84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC84" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD84" t="n">
         <v>2.2</v>
@@ -19025,7 +19025,7 @@
         <v>2.57</v>
       </c>
       <c r="AU85" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV85" t="n">
         <v>4</v>
@@ -19034,13 +19034,13 @@
         <v>6</v>
       </c>
       <c r="AX85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ85" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA85" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>2.2</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.2</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.6</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3317,7 +3317,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.2</v>
@@ -3971,7 +3971,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.25</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.6</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.25</v>
@@ -4843,7 +4843,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.5</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7023,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.2</v>
@@ -7677,7 +7677,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.2</v>
@@ -8113,7 +8113,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.2</v>
@@ -8767,7 +8767,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -8985,7 +8985,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.5</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.25</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10511,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -10729,7 +10729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11380,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -12037,7 +12037,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.2</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.6</v>
@@ -13781,7 +13781,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13999,7 +13999,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14214,10 +14214,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.2</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15089,7 +15089,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>2</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16612,7 +16612,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.2</v>
@@ -16830,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.25</v>
@@ -17051,7 +17051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -19089,6 +19089,1968 @@
       </c>
       <c r="BP85" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6846070</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45219.64583333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['8', '74']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X86" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6846065</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X87" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6846067</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>6</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6846068</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['35', '55']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6846071</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['16', '70']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X90" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7195356</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X91" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6846066</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45220.46875</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['51', '74', '78']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X92" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6846073</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45221.46875</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['61', '81']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X93" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6846072</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.25</v>
@@ -5061,7 +5061,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.67</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.4</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.2</v>
@@ -8767,7 +8767,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.4</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.6</v>
@@ -10947,7 +10947,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -13781,7 +13781,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.4</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.83</v>
@@ -15961,7 +15961,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.6</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.67</v>
@@ -17269,7 +17269,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -19449,7 +19449,7 @@
         <v>1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20769,22 +20769,22 @@
         <v>2.61</v>
       </c>
       <c r="AU93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW93" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY93" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA93" t="n">
         <v>4</v>
@@ -20987,31 +20987,31 @@
         <v>2.3</v>
       </c>
       <c r="AU94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW94" t="n">
         <v>5</v>
       </c>
-      <c r="AW94" t="n">
-        <v>3</v>
-      </c>
       <c r="AX94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA94" t="n">
         <v>5</v>
       </c>
-      <c r="AZ94" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>4</v>
-      </c>
       <c r="BB94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC94" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD94" t="n">
         <v>1.82</v>
@@ -21051,6 +21051,660 @@
       </c>
       <c r="BP94" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6846069</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45222.64583333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['73', '90+14']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['31', '70']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7195347</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45223.5625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X96" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6845989</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45223.5625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['23', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.6</v>
@@ -4625,7 +4625,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.67</v>
@@ -5279,7 +5279,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -6587,7 +6587,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.83</v>
@@ -7023,7 +7023,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.4</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.6</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.8</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.6</v>
@@ -9639,7 +9639,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.25</v>
@@ -10511,7 +10511,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.6</v>
@@ -11816,10 +11816,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.4</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12473,7 +12473,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -12691,7 +12691,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.25</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.8</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ62" t="n">
         <v>2.33</v>
@@ -14432,10 +14432,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14871,7 +14871,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16615,7 +16615,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -16833,7 +16833,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17920,10 +17920,10 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18356,10 +18356,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.25</v>
@@ -18792,10 +18792,10 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,7 +19010,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.6</v>
@@ -20757,7 +20757,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -21705,6 +21705,1314 @@
       </c>
       <c r="BP97" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6846075</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45226.64583333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>11</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['79', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X98" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6846080</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.375</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X99" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6846081</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45227.375</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['77', '90+5', '90+9']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X100" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6846077</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45227.375</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['7', '43', '55']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6846076</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45227.375</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X102" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6846074</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45227.46875</v>
+      </c>
+      <c r="F103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['7', '34', '54']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X103" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.4</v>
@@ -2663,7 +2663,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.33</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.83</v>
@@ -3753,7 +3753,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.67</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.33</v>
@@ -7895,7 +7895,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.6</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>1.4</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11601,7 +11601,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.6</v>
@@ -13345,7 +13345,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13563,7 +13563,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -14653,7 +14653,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.6</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.83</v>
@@ -15961,7 +15961,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.6</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.67</v>
@@ -17269,7 +17269,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.6</v>
@@ -17705,7 +17705,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -18138,7 +18138,7 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.4</v>
@@ -18577,7 +18577,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -19013,7 +19013,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21408,7 +21408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.8</v>
@@ -21629,7 +21629,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -22301,16 +22301,16 @@
         <v>5</v>
       </c>
       <c r="AW100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ100" t="n">
         <v>12</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>17</v>
       </c>
       <c r="BA100" t="n">
         <v>2</v>
@@ -22419,7 +22419,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>['7', '43', '55']</t>
+          <t>['8', '43', '55']</t>
         </is>
       </c>
       <c r="Q101" t="n">
@@ -22516,19 +22516,19 @@
         <v>5</v>
       </c>
       <c r="AV101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW101" t="n">
         <v>9</v>
       </c>
-      <c r="AW101" t="n">
-        <v>15</v>
-      </c>
       <c r="AX101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY101" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA101" t="n">
         <v>6</v>
@@ -22752,10 +22752,10 @@
         <v>4</v>
       </c>
       <c r="BB102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD102" t="n">
         <v>1.95</v>
@@ -22952,19 +22952,19 @@
         <v>5</v>
       </c>
       <c r="AV103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW103" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX103" t="n">
         <v>3</v>
       </c>
       <c r="AY103" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ103" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA103" t="n">
         <v>9</v>
@@ -23012,6 +23012,878 @@
         <v>3</v>
       </c>
       <c r="BP103" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7195357</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45228.51041666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>11</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['58', '76']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X104" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6846079</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45228.51041666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['8', '41']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6846082</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45228.51041666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['31', '74']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X106" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6846078</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45228.51041666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['17', '56']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP107" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -23167,31 +23167,31 @@
         <v>2.13</v>
       </c>
       <c r="AU104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW104" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX104" t="n">
         <v>4</v>
       </c>
       <c r="AY104" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ104" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA104" t="n">
         <v>2</v>
       </c>
       <c r="BB104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD104" t="n">
         <v>1.82</v>
@@ -23385,31 +23385,31 @@
         <v>3.24</v>
       </c>
       <c r="AU105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV105" t="n">
         <v>8</v>
       </c>
-      <c r="AV105" t="n">
+      <c r="AW105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA105" t="n">
         <v>6</v>
       </c>
-      <c r="AW105" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ105" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA105" t="n">
+      <c r="BB105" t="n">
         <v>5</v>
       </c>
-      <c r="BB105" t="n">
-        <v>4</v>
-      </c>
       <c r="BC105" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD105" t="n">
         <v>1.31</v>
@@ -23603,31 +23603,31 @@
         <v>2.67</v>
       </c>
       <c r="AU106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY106" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB106" t="n">
         <v>4</v>
       </c>
-      <c r="BA106" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB106" t="n">
-        <v>3</v>
-      </c>
       <c r="BC106" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD106" t="n">
         <v>1.55</v>
@@ -23821,31 +23821,31 @@
         <v>3.04</v>
       </c>
       <c r="AU107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW107" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY107" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ107" t="n">
         <v>6</v>
       </c>
-      <c r="AZ107" t="n">
-        <v>2</v>
-      </c>
       <c r="BA107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC107" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD107" t="n">
         <v>1.83</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ5" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.33</v>
@@ -2227,7 +2227,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.33</v>
@@ -3317,7 +3317,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.2</v>
@@ -4407,7 +4407,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.4</v>
@@ -4843,7 +4843,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.6</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7677,7 +7677,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.5</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.5</v>
@@ -8767,7 +8767,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.6</v>
@@ -9203,7 +9203,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.4</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.6</v>
@@ -11383,7 +11383,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -12034,10 +12034,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1.4</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.83</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.6</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13127,7 +13127,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13781,7 +13781,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13999,7 +13999,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.33</v>
@@ -15089,7 +15089,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.33</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.4</v>
@@ -16394,10 +16394,10 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16612,7 +16612,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.83</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.4</v>
@@ -17487,7 +17487,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.2</v>
@@ -19231,7 +19231,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19446,10 +19446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20318,10 +20318,10 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.33</v>
@@ -20975,7 +20975,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -21626,7 +21626,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.4</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.6</v>
@@ -23885,6 +23885,1532 @@
       </c>
       <c r="BP107" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6846088</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45234.41666666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6846085</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45234.41666666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X109" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6846091</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45234.41666666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6846084</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45234.41666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['27', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6846083</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45234.41666666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X112" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7195358</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45234.41666666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['13', '32', '81']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['4', '69']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X113" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6846090</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45234.51041666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.83</v>
@@ -1791,7 +1791,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.71</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.5</v>
@@ -3971,7 +3971,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.17</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.33</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8985,7 +8985,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.6</v>
@@ -10947,7 +10947,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11165,7 +11165,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.71</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.33</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.5</v>
@@ -15525,7 +15525,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16830,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.4</v>
@@ -17269,7 +17269,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.5</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.33</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.83</v>
@@ -21193,7 +21193,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -21629,7 +21629,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -23373,7 +23373,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR105" t="n">
         <v>1.85</v>
@@ -24039,22 +24039,22 @@
         <v>2.68</v>
       </c>
       <c r="AU108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW108" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX108" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY108" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ108" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA108" t="n">
         <v>4</v>
@@ -24263,16 +24263,16 @@
         <v>6</v>
       </c>
       <c r="AW109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ109" t="n">
         <v>14</v>
-      </c>
-      <c r="AY109" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ109" t="n">
-        <v>20</v>
       </c>
       <c r="BA109" t="n">
         <v>6</v>
@@ -24475,7 +24475,7 @@
         <v>2.3</v>
       </c>
       <c r="AU110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV110" t="n">
         <v>3</v>
@@ -24484,13 +24484,13 @@
         <v>8</v>
       </c>
       <c r="AX110" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ110" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA110" t="n">
         <v>4</v>
@@ -24699,16 +24699,16 @@
         <v>5</v>
       </c>
       <c r="AW111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY111" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ111" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA111" t="n">
         <v>2</v>
@@ -24917,13 +24917,13 @@
         <v>4</v>
       </c>
       <c r="AW112" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AX112" t="n">
         <v>4</v>
       </c>
       <c r="AY112" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ112" t="n">
         <v>8</v>
@@ -25132,19 +25132,19 @@
         <v>6</v>
       </c>
       <c r="AV113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW113" t="n">
         <v>6</v>
       </c>
-      <c r="AW113" t="n">
-        <v>11</v>
-      </c>
       <c r="AX113" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY113" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ113" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA113" t="n">
         <v>5</v>
@@ -25347,31 +25347,31 @@
         <v>2.99</v>
       </c>
       <c r="AU114" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW114" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY114" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ114" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA114" t="n">
         <v>2</v>
       </c>
       <c r="BB114" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC114" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD114" t="n">
         <v>2.1</v>
@@ -25411,6 +25411,660 @@
       </c>
       <c r="BP114" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6846089</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45235.51041666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6846087</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45235.51041666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['9', '57']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X116" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6846086</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45235.51041666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['12', '29', '52']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X117" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.71</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.83</v>
@@ -8331,7 +8331,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.71</v>
@@ -13999,7 +13999,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -15525,7 +15525,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.33</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.71</v>
@@ -20321,7 +20321,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.33</v>
@@ -25117,7 +25117,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR113" t="n">
         <v>1.3</v>
@@ -25989,7 +25989,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR117" t="n">
         <v>1.82</v>
@@ -26065,6 +26065,442 @@
       </c>
       <c r="BP117" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7195348</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45238.60416666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X118" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6845997</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45238.60416666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X119" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.33</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.33</v>
@@ -7459,7 +7459,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.86</v>
@@ -12255,7 +12255,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.17</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -17923,7 +17923,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18138,7 +18138,7 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.4</v>
@@ -22719,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR102" t="n">
         <v>1.29</v>
@@ -23588,7 +23588,7 @@
         <v>1.6</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.33</v>
@@ -26501,6 +26501,224 @@
       </c>
       <c r="BP119" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6846100</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45240.6875</v>
+      </c>
+      <c r="F120" t="n">
+        <v>13</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['25', '45+1']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.71</v>
@@ -1573,7 +1573,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.86</v>
@@ -2009,7 +2009,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.71</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.33</v>
@@ -4189,7 +4189,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.71</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -5279,7 +5279,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5933,7 +5933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.71</v>
@@ -6587,7 +6587,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.71</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.33</v>
@@ -7241,7 +7241,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.57</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8549,7 +8549,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.33</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.17</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.4</v>
@@ -9639,7 +9639,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.83</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.33</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,10 +11816,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12037,7 +12037,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12473,7 +12473,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.71</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13563,7 +13563,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
         <v>2</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.4</v>
@@ -14217,7 +14217,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.83</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.71</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.86</v>
@@ -15743,7 +15743,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.33</v>
@@ -16397,7 +16397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16833,7 +16833,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.71</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.33</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ78" t="n">
         <v>2.17</v>
@@ -17705,7 +17705,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.57</v>
@@ -18141,7 +18141,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18356,10 +18356,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18577,7 +18577,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -18795,7 +18795,7 @@
         <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,10 +19010,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19231,7 +19231,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.71</v>
@@ -20103,7 +20103,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.86</v>
@@ -21408,7 +21408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ96" t="n">
         <v>2</v>
@@ -21847,7 +21847,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,7 +22062,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.33</v>
@@ -22280,10 +22280,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR100" t="n">
         <v>1.04</v>
@@ -22498,10 +22498,10 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR101" t="n">
         <v>1.04</v>
@@ -22934,10 +22934,10 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23152,10 +23152,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR104" t="n">
         <v>1.05</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.33</v>
@@ -23591,7 +23591,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR106" t="n">
         <v>1.45</v>
@@ -23806,10 +23806,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -24027,7 +24027,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -24242,7 +24242,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.71</v>
@@ -26204,7 +26204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.4</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.86</v>
@@ -26719,6 +26719,1968 @@
       </c>
       <c r="BP120" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6846099</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45241.41666666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['45', '50']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X121" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6846094</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45241.41666666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>13</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="n">
+        <v>6</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['51', '65', '73']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['7', '49', '79']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S122" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X122" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6846093</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45241.41666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>13</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['23', '83']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X123" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6846092</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45241.41666666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6846096</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45241.51041666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['31', '63']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S125" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X125" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6846098</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45242.51041666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['36', '90+1']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['32', '67']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X126" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7195359</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45242.51041666666</v>
+      </c>
+      <c r="F127" t="n">
+        <v>13</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['17', '32', '89']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X127" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6846095</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45242.51041666666</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>5</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['23', '42', '57']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['12', '70']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U128" t="n">
+        <v>3</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X128" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6846097</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45242.51041666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S129" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X129" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
         <v>2.17</v>
@@ -1137,7 +1137,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.57</v>
@@ -1791,7 +1791,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.14</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.57</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.33</v>
@@ -3317,7 +3317,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.14</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.43</v>
@@ -3971,7 +3971,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.17</v>
@@ -4843,7 +4843,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.33</v>
@@ -6369,7 +6369,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.14</v>
@@ -6805,7 +6805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.29</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8331,7 +8331,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8767,7 +8767,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -8985,7 +8985,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.67</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.33</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11165,7 +11165,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11380,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.57</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.57</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.29</v>
@@ -12909,7 +12909,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.57</v>
@@ -13781,7 +13781,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -14432,7 +14432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.29</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.43</v>
@@ -15089,7 +15089,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15525,7 +15525,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.57</v>
@@ -16612,7 +16612,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.57</v>
@@ -16830,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
         <v>2</v>
@@ -17051,7 +17051,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17269,7 +17269,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.43</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.33</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.67</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.57</v>
@@ -19446,10 +19446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19885,7 +19885,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20539,7 +20539,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.33</v>
@@ -20972,10 +20972,10 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21193,7 +21193,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -21411,7 +21411,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -21629,7 +21629,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.67</v>
@@ -22716,7 +22716,7 @@
         <v>2.2</v>
       </c>
       <c r="AP102" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.57</v>
@@ -23373,7 +23373,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR105" t="n">
         <v>1.85</v>
@@ -24245,7 +24245,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR109" t="n">
         <v>1.65</v>
@@ -24463,7 +24463,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.13</v>
@@ -24681,7 +24681,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR111" t="n">
         <v>1.33</v>
@@ -24896,10 +24896,10 @@
         <v>0.83</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR112" t="n">
         <v>1.41</v>
@@ -25114,7 +25114,7 @@
         <v>2.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.4</v>
@@ -25332,7 +25332,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ114" t="n">
         <v>2.17</v>
@@ -25550,10 +25550,10 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR115" t="n">
         <v>1.16</v>
@@ -25768,10 +25768,10 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR117" t="n">
         <v>1.82</v>
@@ -26425,7 +26425,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR119" t="n">
         <v>1.53</v>
@@ -28681,6 +28681,1532 @@
       </c>
       <c r="BP129" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6846108</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45254.6875</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['11', '78']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X130" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6846107</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X131" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6846106</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X132" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6846105</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6846104</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['3', '90+3']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X134" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6846103</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['24', '66']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S135" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X135" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6846101</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['30', '90', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X136" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.43</v>
@@ -9421,7 +9421,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -13999,7 +13999,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.33</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.33</v>
@@ -20321,7 +20321,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -21626,7 +21626,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.14</v>
@@ -24024,7 +24024,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.57</v>
@@ -25117,7 +25117,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR113" t="n">
         <v>1.3</v>
@@ -26207,7 +26207,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -28835,22 +28835,22 @@
         <v>3.05</v>
       </c>
       <c r="AU130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY130" t="n">
         <v>5</v>
       </c>
-      <c r="AV130" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW130" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX130" t="n">
+      <c r="AZ130" t="n">
         <v>5</v>
-      </c>
-      <c r="AY130" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ130" t="n">
-        <v>8</v>
       </c>
       <c r="BA130" t="n">
         <v>2</v>
@@ -30207,6 +30207,224 @@
       </c>
       <c r="BP136" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7195360</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45255.51041666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2</v>
+      </c>
+      <c r="S137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X137" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.29</v>
@@ -2881,7 +2881,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.33</v>
@@ -4407,7 +4407,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.67</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.75</v>
@@ -7023,7 +7023,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.43</v>
@@ -9203,7 +9203,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10511,7 +10511,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.14</v>
@@ -13127,7 +13127,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -14871,7 +14871,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.14</v>
@@ -17487,7 +17487,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.33</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.63</v>
@@ -20757,7 +20757,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -22065,7 +22065,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -24460,7 +24460,7 @@
         <v>1.6</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ110" t="n">
         <v>2</v>
@@ -24678,7 +24678,7 @@
         <v>1.8</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.86</v>
@@ -25335,7 +25335,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -28835,22 +28835,22 @@
         <v>3.05</v>
       </c>
       <c r="AU130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY130" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ130" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA130" t="n">
         <v>2</v>
@@ -29053,31 +29053,31 @@
         <v>2.43</v>
       </c>
       <c r="AU131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ131" t="n">
         <v>6</v>
       </c>
-      <c r="AV131" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW131" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY131" t="n">
+      <c r="BA131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC131" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ131" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA131" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB131" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC131" t="n">
-        <v>11</v>
       </c>
       <c r="BD131" t="n">
         <v>1.64</v>
@@ -29271,22 +29271,22 @@
         <v>2.97</v>
       </c>
       <c r="AU132" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW132" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX132" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY132" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA132" t="n">
         <v>10</v>
@@ -29489,22 +29489,22 @@
         <v>3.34</v>
       </c>
       <c r="AU133" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY133" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA133" t="n">
         <v>6</v>
@@ -29707,31 +29707,31 @@
         <v>2.45</v>
       </c>
       <c r="AU134" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX134" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY134" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB134" t="n">
         <v>5</v>
       </c>
-      <c r="AZ134" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA134" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB134" t="n">
-        <v>3</v>
-      </c>
       <c r="BC134" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD134" t="n">
         <v>1.41</v>
@@ -29925,19 +29925,19 @@
         <v>2.41</v>
       </c>
       <c r="AU135" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY135" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ135" t="n">
         <v>5</v>
@@ -29946,10 +29946,10 @@
         <v>5</v>
       </c>
       <c r="BB135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD135" t="n">
         <v>1.41</v>
@@ -30143,22 +30143,22 @@
         <v>2.54</v>
       </c>
       <c r="AU136" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV136" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW136" t="n">
         <v>5</v>
       </c>
       <c r="AX136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ136" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ136" t="n">
-        <v>8</v>
       </c>
       <c r="BA136" t="n">
         <v>8</v>
@@ -30361,22 +30361,22 @@
         <v>2.69</v>
       </c>
       <c r="AU137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV137" t="n">
         <v>8</v>
       </c>
       <c r="AW137" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY137" t="n">
         <v>9</v>
       </c>
       <c r="AZ137" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA137" t="n">
         <v>3</v>
@@ -30425,6 +30425,442 @@
       </c>
       <c r="BP137" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6846102</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45256.51041666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>14</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['12', '52']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6846109</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45256.51041666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>14</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X139" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -30579,22 +30579,22 @@
         <v>2.48</v>
       </c>
       <c r="AU138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX138" t="n">
         <v>4</v>
       </c>
-      <c r="AV138" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW138" t="n">
+      <c r="AY138" t="n">
         <v>7</v>
       </c>
-      <c r="AX138" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY138" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ138" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA138" t="n">
         <v>6</v>
@@ -30797,22 +30797,22 @@
         <v>2.51</v>
       </c>
       <c r="AU139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV139" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX139" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY139" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ139" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA139" t="n">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.75</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.14</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.75</v>
@@ -9421,7 +9421,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.33</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.86</v>
@@ -13999,7 +13999,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14432,7 +14432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.29</v>
@@ -15961,7 +15961,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -17269,7 +17269,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.57</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.67</v>
@@ -20321,7 +20321,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -21629,7 +21629,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -22280,7 +22280,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.29</v>
@@ -22716,7 +22716,7 @@
         <v>2.2</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.57</v>
@@ -23373,7 +23373,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR105" t="n">
         <v>1.85</v>
@@ -25117,7 +25117,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR113" t="n">
         <v>1.3</v>
@@ -25553,7 +25553,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR115" t="n">
         <v>1.16</v>
@@ -26207,7 +26207,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -26858,7 +26858,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.57</v>
@@ -29477,7 +29477,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR133" t="n">
         <v>1.91</v>
@@ -29692,7 +29692,7 @@
         <v>0.71</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.63</v>
@@ -30349,7 +30349,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR137" t="n">
         <v>1.34</v>
@@ -30579,22 +30579,22 @@
         <v>2.48</v>
       </c>
       <c r="AU138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW138" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX138" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY138" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ138" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA138" t="n">
         <v>6</v>
@@ -30797,22 +30797,22 @@
         <v>2.51</v>
       </c>
       <c r="AU139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV139" t="n">
         <v>6</v>
       </c>
-      <c r="AV139" t="n">
-        <v>8</v>
-      </c>
       <c r="AW139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX139" t="n">
         <v>7</v>
       </c>
-      <c r="AX139" t="n">
-        <v>3</v>
-      </c>
       <c r="AY139" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ139" t="n">
         <v>13</v>
-      </c>
-      <c r="AZ139" t="n">
-        <v>11</v>
       </c>
       <c r="BA139" t="n">
         <v>7</v>
@@ -30861,6 +30861,442 @@
       </c>
       <c r="BP139" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7195349</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45258.60416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S140" t="n">
+        <v>5</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X140" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6846005</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45258.60416666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S141" t="n">
+        <v>7</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -31015,19 +31015,19 @@
         <v>2.49</v>
       </c>
       <c r="AU140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV140" t="n">
         <v>4</v>
       </c>
-      <c r="AV140" t="n">
-        <v>3</v>
-      </c>
       <c r="AW140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY140" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ140" t="n">
         <v>7</v>
@@ -31233,22 +31233,22 @@
         <v>2.74</v>
       </c>
       <c r="AU141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX141" t="n">
         <v>5</v>
       </c>
       <c r="AY141" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA141" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.75</v>
@@ -2009,7 +2009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.14</v>
@@ -3099,7 +3099,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.14</v>
@@ -4189,7 +4189,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.86</v>
@@ -5279,7 +5279,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5933,7 +5933,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.57</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.63</v>
@@ -6587,7 +6587,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.14</v>
@@ -7241,7 +7241,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.75</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.86</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.14</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.29</v>
@@ -9639,7 +9639,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10293,7 +10293,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.14</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47" t="n">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.13</v>
@@ -11383,7 +11383,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.57</v>
@@ -11816,10 +11816,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12037,7 +12037,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12255,7 +12255,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12473,7 +12473,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.63</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ58" t="n">
         <v>2</v>
@@ -13345,7 +13345,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.86</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.29</v>
@@ -14217,7 +14217,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.14</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67" t="n">
         <v>2</v>
@@ -15304,10 +15304,10 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.75</v>
@@ -15743,7 +15743,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.14</v>
@@ -16397,7 +16397,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16615,7 +16615,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -16833,7 +16833,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.63</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.13</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78" t="n">
         <v>2</v>
@@ -17705,7 +17705,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17920,10 +17920,10 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18138,10 +18138,10 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18577,7 +18577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -18795,7 +18795,7 @@
         <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,7 +19010,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.57</v>
@@ -19231,7 +19231,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19882,10 +19882,10 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ89" t="n">
         <v>0.67</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>0.75</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20100,10 +20100,10 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.75</v>
@@ -21408,7 +21408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.86</v>
@@ -21626,7 +21626,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.13</v>
@@ -21847,7 +21847,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,7 +22062,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.14</v>
@@ -22280,10 +22280,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR100" t="n">
         <v>1.04</v>
@@ -22498,10 +22498,10 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.04</v>
@@ -22719,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR102" t="n">
         <v>1.29</v>
@@ -22937,7 +22937,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23152,10 +23152,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR104" t="n">
         <v>1.05</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.13</v>
@@ -23588,7 +23588,7 @@
         <v>1.6</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.57</v>
@@ -23806,10 +23806,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -24024,10 +24024,10 @@
         <v>1.4</v>
       </c>
       <c r="AP108" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR108" t="n">
         <v>1.34</v>
@@ -24242,7 +24242,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.63</v>
@@ -24899,7 +24899,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR112" t="n">
         <v>1.41</v>
@@ -26204,7 +26204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.29</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.75</v>
@@ -26640,10 +26640,10 @@
         <v>1.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR120" t="n">
         <v>1.42</v>
@@ -26858,7 +26858,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.57</v>
@@ -27076,10 +27076,10 @@
         <v>1.5</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR122" t="n">
         <v>1.16</v>
@@ -27294,10 +27294,10 @@
         <v>1.33</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.54</v>
@@ -27515,7 +27515,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR124" t="n">
         <v>1.41</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -27948,10 +27948,10 @@
         <v>0.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR126" t="n">
         <v>1.52</v>
@@ -28166,10 +28166,10 @@
         <v>2.6</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR127" t="n">
         <v>1.1</v>
@@ -28384,10 +28384,10 @@
         <v>2.4</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR128" t="n">
         <v>1.54</v>
@@ -28602,10 +28602,10 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR129" t="n">
         <v>1.87</v>
@@ -29041,7 +29041,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR131" t="n">
         <v>1.24</v>
@@ -30346,7 +30346,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.29</v>
@@ -31000,7 +31000,7 @@
         <v>1.33</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.29</v>
@@ -31297,6 +31297,2186 @@
       </c>
       <c r="BP141" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6846114</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45261.6875</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['44', '49']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6846115</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45262.41666666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X143" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6846113</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45262.41666666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['1', '70']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6846111</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45262.41666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S145" t="n">
+        <v>3</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X145" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6846110</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45262.41666666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>3</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['49', '60', '68']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X146" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6846118</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45262.41666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['26', '30', '89']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S147" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X147" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6846116</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45262.51041666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7195361</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45263.51041666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['10', '34', '41']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X149" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6846112</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45263.51041666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X150" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6846117</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45263.51041666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>15</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X151" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -32977,22 +32977,22 @@
         <v>2.37</v>
       </c>
       <c r="AU149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV149" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW149" t="n">
         <v>6</v>
       </c>
       <c r="AX149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ149" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>11</v>
       </c>
       <c r="BA149" t="n">
         <v>4</v>
@@ -33195,22 +33195,22 @@
         <v>2.74</v>
       </c>
       <c r="AU150" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV150" t="n">
         <v>3</v>
       </c>
       <c r="AW150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY150" t="n">
         <v>9</v>
       </c>
       <c r="AZ150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA150" t="n">
         <v>3</v>
@@ -33422,13 +33422,13 @@
         <v>4</v>
       </c>
       <c r="AX151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY151" t="n">
         <v>6</v>
       </c>
       <c r="AZ151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA151" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.75</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.13</v>
@@ -1791,7 +1791,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.25</v>
@@ -3971,7 +3971,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.71</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>2.43</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.57</v>
@@ -6151,7 +6151,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6369,7 +6369,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.13</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.25</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>2</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8331,7 +8331,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8985,7 +8985,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ40" t="n">
         <v>2</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.14</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.57</v>
@@ -10511,7 +10511,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -10729,7 +10729,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -10947,7 +10947,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.67</v>
@@ -11601,7 +11601,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.75</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.75</v>
@@ -12909,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.71</v>
@@ -13563,7 +13563,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.57</v>
@@ -14871,7 +14871,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15089,7 +15089,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15525,7 +15525,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.75</v>
@@ -16612,7 +16612,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.75</v>
@@ -16830,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.14</v>
@@ -17051,7 +17051,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17269,7 +17269,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.13</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.71</v>
@@ -19013,7 +19013,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.86</v>
@@ -19664,10 +19664,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.29</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20754,10 +20754,10 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -20975,7 +20975,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ94" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21193,7 +21193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -21629,7 +21629,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.43</v>
@@ -22065,7 +22065,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22934,7 +22934,7 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.14</v>
@@ -23155,7 +23155,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR104" t="n">
         <v>1.85</v>
@@ -23373,7 +23373,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -24024,7 +24024,7 @@
         <v>2.33</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.29</v>
@@ -24242,10 +24242,10 @@
         <v>1.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ109" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -24681,7 +24681,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR111" t="n">
         <v>1.65</v>
@@ -24896,7 +24896,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.86</v>
@@ -25114,7 +25114,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.67</v>
@@ -25332,7 +25332,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114" t="n">
         <v>2</v>
@@ -25553,7 +25553,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.16</v>
@@ -25771,7 +25771,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1.82</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>1.53</v>
@@ -26858,7 +26858,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.75</v>
@@ -27515,7 +27515,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR124" t="n">
         <v>1.05</v>
@@ -28820,10 +28820,10 @@
         <v>0.86</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.58</v>
@@ -29041,7 +29041,7 @@
         <v>2</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR131" t="n">
         <v>1.3</v>
@@ -29474,10 +29474,10 @@
         <v>1.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ133" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR133" t="n">
         <v>1.4</v>
@@ -29910,10 +29910,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR135" t="n">
         <v>1.91</v>
@@ -30128,10 +30128,10 @@
         <v>1.33</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR138" t="n">
         <v>1.32</v>
@@ -30782,7 +30782,7 @@
         <v>2.17</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ139" t="n">
         <v>2</v>
@@ -31003,7 +31003,7 @@
         <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.36</v>
@@ -33477,6 +33477,1532 @@
       </c>
       <c r="BP151" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6846122</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45269.41666666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['12', '27']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S152" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X152" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6846126</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45269.41666666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['39', '71']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X153" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6846119</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45269.41666666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['22', '89']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6846120</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45269.41666666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['25', '71']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2</v>
+      </c>
+      <c r="S155" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X155" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6846124</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45269.41666666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X156" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6846127</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45269.41666666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['42', '68']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X157" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6846121</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45269.51041666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['53', '82']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S158" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X158" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5600000000000001</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.57</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -8767,7 +8767,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.43</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.71</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.13</v>
@@ -13127,7 +13127,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.38</v>
@@ -13781,7 +13781,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13999,7 +13999,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14432,7 +14432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.13</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.25</v>
@@ -17487,7 +17487,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.25</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.43</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.75</v>
@@ -19449,7 +19449,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.75</v>
@@ -21411,7 +21411,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -22498,7 +22498,7 @@
         <v>2.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.75</v>
@@ -24027,7 +24027,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24899,7 +24899,7 @@
         <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR112" t="n">
         <v>1.33</v>
@@ -25335,7 +25335,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25768,7 +25768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ116" t="n">
         <v>1</v>
@@ -26207,7 +26207,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -29038,7 +29038,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.5600000000000001</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.67</v>
@@ -29692,10 +29692,10 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR134" t="n">
         <v>1.45</v>
@@ -30349,7 +30349,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR137" t="n">
         <v>1.34</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR139" t="n">
         <v>1.14</v>
@@ -31000,7 +31000,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR141" t="n">
         <v>1.05</v>
@@ -33637,13 +33637,13 @@
         <v>6</v>
       </c>
       <c r="AW152" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX152" t="n">
         <v>6</v>
       </c>
       <c r="AY152" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ152" t="n">
         <v>12</v>
@@ -33849,22 +33849,22 @@
         <v>2.89</v>
       </c>
       <c r="AU153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV153" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW153" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AX153" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY153" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ153" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA153" t="n">
         <v>4</v>
@@ -34067,19 +34067,19 @@
         <v>2.76</v>
       </c>
       <c r="AU154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV154" t="n">
         <v>6</v>
       </c>
       <c r="AW154" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX154" t="n">
         <v>2</v>
       </c>
       <c r="AY154" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ154" t="n">
         <v>8</v>
@@ -34285,22 +34285,22 @@
         <v>2.42</v>
       </c>
       <c r="AU155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV155" t="n">
         <v>6</v>
       </c>
-      <c r="AV155" t="n">
-        <v>4</v>
-      </c>
       <c r="AW155" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AX155" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY155" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ155" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA155" t="n">
         <v>10</v>
@@ -34503,7 +34503,7 @@
         <v>3.04</v>
       </c>
       <c r="AU156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV156" t="n">
         <v>5</v>
@@ -34512,13 +34512,13 @@
         <v>7</v>
       </c>
       <c r="AX156" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY156" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ156" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA156" t="n">
         <v>3</v>
@@ -34721,22 +34721,22 @@
         <v>2.33</v>
       </c>
       <c r="AU157" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV157" t="n">
         <v>3</v>
       </c>
       <c r="AW157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY157" t="n">
         <v>13</v>
       </c>
-      <c r="AX157" t="n">
+      <c r="AZ157" t="n">
         <v>13</v>
-      </c>
-      <c r="AY157" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ157" t="n">
-        <v>16</v>
       </c>
       <c r="BA157" t="n">
         <v>7</v>
@@ -34939,31 +34939,31 @@
         <v>2.5</v>
       </c>
       <c r="AU158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV158" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW158" t="n">
         <v>1</v>
       </c>
       <c r="AX158" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY158" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ158" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB158" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC158" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD158" t="n">
         <v>1.64</v>
@@ -35003,6 +35003,660 @@
       </c>
       <c r="BP158" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7195362</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45270.51041666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X159" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6846123</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45270.51041666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['42', '87']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2</v>
+      </c>
+      <c r="S160" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6846125</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45270.51041666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>6</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['51', '90+1', '90+5']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['3', '18', '85']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -34939,22 +34939,22 @@
         <v>2.5</v>
       </c>
       <c r="AU158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX158" t="n">
         <v>5</v>
       </c>
       <c r="AY158" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA158" t="n">
         <v>2</v>
@@ -35157,22 +35157,22 @@
         <v>2.7</v>
       </c>
       <c r="AU159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX159" t="n">
         <v>4</v>
       </c>
-      <c r="AW159" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX159" t="n">
-        <v>2</v>
-      </c>
       <c r="AY159" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ159" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA159" t="n">
         <v>0</v>
@@ -35375,31 +35375,31 @@
         <v>2.76</v>
       </c>
       <c r="AU160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV160" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW160" t="n">
         <v>2</v>
       </c>
       <c r="AX160" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY160" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ160" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB160" t="n">
         <v>7</v>
       </c>
-      <c r="BA160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB160" t="n">
-        <v>3</v>
-      </c>
       <c r="BC160" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD160" t="n">
         <v>1.87</v>
@@ -35593,22 +35593,22 @@
         <v>2.92</v>
       </c>
       <c r="AU161" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV161" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW161" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY161" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ161" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA161" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.67</v>
@@ -1355,7 +1355,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.67</v>
@@ -3753,7 +3753,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.88</v>
@@ -4625,7 +4625,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.5600000000000001</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.63</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5933,7 +5933,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.5600000000000001</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8328,7 +8328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.63</v>
@@ -8982,10 +8982,10 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.88</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10293,7 +10293,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.75</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12255,7 +12255,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12473,7 +12473,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -13124,7 +13124,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.88</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.71</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.25</v>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14435,7 +14435,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.75</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.67</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -16176,10 +16176,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16397,7 +16397,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16615,7 +16615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -16833,7 +16833,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.5600000000000001</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17484,7 +17484,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.88</v>
@@ -17702,10 +17702,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17923,7 +17923,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18138,10 +18138,10 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18356,10 +18356,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18795,7 +18795,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,10 +19010,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19231,7 +19231,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19667,7 +19667,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -20103,7 +20103,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.75</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21408,7 +21408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.63</v>
@@ -21847,7 +21847,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,7 +22062,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -22283,7 +22283,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR100" t="n">
         <v>1.04</v>
@@ -22501,7 +22501,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ102" t="n">
         <v>1</v>
@@ -22934,10 +22934,10 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23370,10 +23370,10 @@
         <v>1.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -23588,10 +23588,10 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR106" t="n">
         <v>1.05</v>
@@ -23806,7 +23806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.71</v>
@@ -24463,7 +24463,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -24678,7 +24678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.5600000000000001</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -26204,7 +26204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.25</v>
@@ -26640,10 +26640,10 @@
         <v>1.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR120" t="n">
         <v>1.42</v>
@@ -26858,10 +26858,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR121" t="n">
         <v>1.41</v>
@@ -27076,7 +27076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>1</v>
@@ -27294,10 +27294,10 @@
         <v>1.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR123" t="n">
         <v>1.16</v>
@@ -27515,7 +27515,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR124" t="n">
         <v>1.05</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -27948,10 +27948,10 @@
         <v>2.6</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR126" t="n">
         <v>1.1</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.54</v>
@@ -28384,10 +28384,10 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.87</v>
@@ -28602,7 +28602,7 @@
         <v>0.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.71</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.67</v>
@@ -30131,7 +30131,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR142" t="n">
         <v>1.7</v>
@@ -31654,7 +31654,7 @@
         <v>0.75</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.67</v>
@@ -31875,7 +31875,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR144" t="n">
         <v>1.32</v>
@@ -32090,7 +32090,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32308,10 +32308,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR146" t="n">
         <v>1.18</v>
@@ -32526,7 +32526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.71</v>
@@ -32744,10 +32744,10 @@
         <v>2</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR148" t="n">
         <v>1.63</v>
@@ -32965,7 +32965,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR149" t="n">
         <v>1.08</v>
@@ -33180,10 +33180,10 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR150" t="n">
         <v>1.07</v>
@@ -33401,7 +33401,7 @@
         <v>1</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR151" t="n">
         <v>1.57</v>
@@ -34052,7 +34052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ154" t="n">
         <v>1</v>
@@ -34273,7 +34273,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34927,7 +34927,7 @@
         <v>2</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR158" t="n">
         <v>1.3</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.25</v>
@@ -35657,6 +35657,1968 @@
       </c>
       <c r="BP161" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6846135</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45275.6875</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2</v>
+      </c>
+      <c r="S162" t="n">
+        <v>4</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X162" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6846130</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45276.41666666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X163" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6846132</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45276.41666666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S164" t="n">
+        <v>4</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X164" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6846136</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45276.41666666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>3</v>
+      </c>
+      <c r="N165" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['13', '45+5']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['9', '52', '76']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S165" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X165" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6846134</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45276.41666666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['44', '46']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X166" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7195363</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45276.41666666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['60', '72']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S167" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X167" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6846128</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45276.51041666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X168" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6846129</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45276.51041666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X169" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6846133</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45276.51041666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>5</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['29', '42', '80']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['49', '54']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X170" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.56</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.25</v>
@@ -10075,7 +10075,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.5600000000000001</v>
@@ -13345,7 +13345,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -18577,7 +18577,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.67</v>
@@ -23809,7 +23809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119" t="n">
         <v>1</v>
@@ -28166,7 +28166,7 @@
         <v>2.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ127" t="n">
         <v>2</v>
@@ -28605,7 +28605,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR129" t="n">
         <v>1.52</v>
@@ -32529,7 +32529,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>1.52</v>
@@ -33398,7 +33398,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.11</v>
@@ -37119,7 +37119,7 @@
         <v>2.64</v>
       </c>
       <c r="AU168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV168" t="n">
         <v>3</v>
@@ -37131,7 +37131,7 @@
         <v>2</v>
       </c>
       <c r="AY168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ168" t="n">
         <v>5</v>
@@ -37619,6 +37619,224 @@
       </c>
       <c r="BP170" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6846131</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45277.51041666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>5</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['21', '38']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['51', '69', '76']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X171" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -37776,19 +37776,19 @@
         <v>8</v>
       </c>
       <c r="AV171" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW171" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX171" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY171" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ171" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA171" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.56</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5600000000000001</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.56</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -3317,7 +3317,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.11</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19" t="n">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.5</v>
@@ -6584,10 +6584,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.33</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.75</v>
@@ -8328,10 +8328,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.11</v>
@@ -8767,7 +8767,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -9203,7 +9203,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>2</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -11380,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -11819,7 +11819,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.56</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.56</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.33</v>
@@ -13124,10 +13124,10 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13345,7 +13345,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13778,10 +13778,10 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13999,7 +13999,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -14432,7 +14432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.33</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.11</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15525,7 +15525,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.56</v>
@@ -16830,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>2</v>
@@ -17487,7 +17487,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.56</v>
@@ -18138,7 +18138,7 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ81" t="n">
         <v>2</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.13</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.56</v>
@@ -19446,10 +19446,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -19664,7 +19664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.22</v>
@@ -19885,7 +19885,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.5</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.5600000000000001</v>
@@ -21193,7 +21193,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -21411,7 +21411,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -21626,7 +21626,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.13</v>
@@ -22280,7 +22280,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.33</v>
@@ -22498,7 +22498,7 @@
         <v>2.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.56</v>
@@ -22719,7 +22719,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR102" t="n">
         <v>1.04</v>
@@ -23370,7 +23370,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.22</v>
@@ -23809,7 +23809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -24024,10 +24024,10 @@
         <v>2.33</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.56</v>
@@ -24896,10 +24896,10 @@
         <v>1.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR112" t="n">
         <v>1.33</v>
@@ -25114,10 +25114,10 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR113" t="n">
         <v>1.41</v>
@@ -25335,7 +25335,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -25768,7 +25768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.22</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR117" t="n">
         <v>1.82</v>
@@ -26207,7 +26207,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -26425,7 +26425,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR119" t="n">
         <v>1.53</v>
@@ -26640,7 +26640,7 @@
         <v>1.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.56</v>
@@ -27079,7 +27079,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.22</v>
@@ -28605,7 +28605,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR129" t="n">
         <v>1.52</v>
@@ -28823,7 +28823,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR130" t="n">
         <v>1.58</v>
@@ -29038,7 +29038,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.5600000000000001</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR132" t="n">
         <v>1.24</v>
@@ -29474,7 +29474,7 @@
         <v>1.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.75</v>
@@ -29692,10 +29692,10 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR134" t="n">
         <v>1.45</v>
@@ -29910,7 +29910,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135" t="n">
         <v>1</v>
@@ -30128,7 +30128,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.22</v>
@@ -30346,10 +30346,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR137" t="n">
         <v>1.34</v>
@@ -30564,7 +30564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR139" t="n">
         <v>1.14</v>
@@ -31000,7 +31000,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31218,10 +31218,10 @@
         <v>1.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR141" t="n">
         <v>1.05</v>
@@ -31654,10 +31654,10 @@
         <v>0.75</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR143" t="n">
         <v>1.36</v>
@@ -31872,7 +31872,7 @@
         <v>2.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ144" t="n">
         <v>2.13</v>
@@ -32093,7 +32093,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR145" t="n">
         <v>1.36</v>
@@ -32529,7 +32529,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR147" t="n">
         <v>1.52</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.56</v>
@@ -33616,7 +33616,7 @@
         <v>1.14</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -34055,7 +34055,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR154" t="n">
         <v>1.35</v>
@@ -34270,7 +34270,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.22</v>
@@ -34488,7 +34488,7 @@
         <v>2</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.75</v>
@@ -34924,7 +34924,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.22</v>
@@ -35145,7 +35145,7 @@
         <v>1</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -35360,10 +35360,10 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -35578,10 +35578,10 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR161" t="n">
         <v>1.52</v>
@@ -36450,7 +36450,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.22</v>
@@ -37761,7 +37761,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR171" t="n">
         <v>1.52</v>
@@ -37837,6 +37837,1968 @@
       </c>
       <c r="BP171" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6846145</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45283.41666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['57', '60']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['21', '71']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X172" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6846139</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45283.41666666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
+      <c r="N173" t="n">
+        <v>6</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['46', '58', '90+2']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['17', '63', '82']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X173" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6846138</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45283.41666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>4</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['15', '75', '81', '86']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X174" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6846140</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45283.41666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>4</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>4</v>
+      </c>
+      <c r="L175" t="n">
+        <v>4</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['16', '29', '31', '38']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X175" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6846141</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45283.41666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['10', '52', '55']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X176" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7195364</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45283.45833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>3</v>
+      </c>
+      <c r="N177" t="n">
+        <v>5</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['10', '13']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['47', '58', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X177" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6846137</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45283.51041666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S178" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X178" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6846142</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45283.51041666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X179" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6846144</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45283.51041666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3</v>
+      </c>
+      <c r="N180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['28', '81']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['2', '52', '77']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.22</v>
@@ -4843,7 +4843,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.75</v>
@@ -6369,7 +6369,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.5</v>
@@ -12909,7 +12909,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -16612,7 +16612,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.56</v>
@@ -17051,7 +17051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -20539,7 +20539,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>1</v>
@@ -24681,7 +24681,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR111" t="n">
         <v>1.65</v>
@@ -25332,7 +25332,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.78</v>
@@ -28820,7 +28820,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.9</v>
@@ -29041,7 +29041,7 @@
         <v>2</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR131" t="n">
         <v>1.3</v>
@@ -33834,7 +33834,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153" t="n">
         <v>1</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR157" t="n">
         <v>1.2</v>
@@ -37997,16 +37997,16 @@
         <v>3</v>
       </c>
       <c r="AW172" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ172" t="n">
         <v>5</v>
-      </c>
-      <c r="AY172" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ172" t="n">
-        <v>8</v>
       </c>
       <c r="BA172" t="n">
         <v>3</v>
@@ -38209,22 +38209,22 @@
         <v>2.68</v>
       </c>
       <c r="AU173" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV173" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX173" t="n">
         <v>3</v>
       </c>
       <c r="AY173" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ173" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA173" t="n">
         <v>4</v>
@@ -38427,22 +38427,22 @@
         <v>2.77</v>
       </c>
       <c r="AU174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV174" t="n">
         <v>6</v>
       </c>
-      <c r="AV174" t="n">
-        <v>5</v>
-      </c>
       <c r="AW174" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY174" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ174" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA174" t="n">
         <v>7</v>
@@ -38651,16 +38651,16 @@
         <v>5</v>
       </c>
       <c r="AW175" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY175" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ175" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA175" t="n">
         <v>1</v>
@@ -38866,19 +38866,19 @@
         <v>9</v>
       </c>
       <c r="AV176" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW176" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ176" t="n">
         <v>9</v>
-      </c>
-      <c r="AY176" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ176" t="n">
-        <v>13</v>
       </c>
       <c r="BA176" t="n">
         <v>5</v>
@@ -39081,31 +39081,31 @@
         <v>2.66</v>
       </c>
       <c r="AU177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV177" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY177" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ177" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC177" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD177" t="n">
         <v>1.82</v>
@@ -39302,28 +39302,28 @@
         <v>5</v>
       </c>
       <c r="AV178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW178" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX178" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY178" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA178" t="n">
         <v>7</v>
       </c>
-      <c r="AZ178" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA178" t="n">
-        <v>5</v>
-      </c>
       <c r="BB178" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC178" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD178" t="n">
         <v>1.82</v>
@@ -39520,28 +39520,28 @@
         <v>3</v>
       </c>
       <c r="AV179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX179" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC179" t="n">
         <v>4</v>
-      </c>
-      <c r="AZ179" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA179" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB179" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC179" t="n">
-        <v>2</v>
       </c>
       <c r="BD179" t="n">
         <v>1.75</v>
@@ -39588,7 +39588,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>6846144</v>
+        <v>6846143</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -39608,22 +39608,22 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>1</v>
       </c>
       <c r="J180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L180" t="n">
         <v>2</v>
@@ -39636,168 +39636,386 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
+          <t>['27', '54']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['13', '22', '81']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S180" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X180" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6846144</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45283.51041666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>5</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
           <t>['28', '81']</t>
         </is>
       </c>
-      <c r="P180" t="inlineStr">
+      <c r="P181" t="inlineStr">
         <is>
           <t>['2', '52', '77']</t>
         </is>
       </c>
-      <c r="Q180" t="n">
+      <c r="Q181" t="n">
         <v>3.2</v>
       </c>
-      <c r="R180" t="n">
+      <c r="R181" t="n">
         <v>1.85</v>
       </c>
-      <c r="S180" t="n">
+      <c r="S181" t="n">
         <v>3.7</v>
       </c>
-      <c r="T180" t="n">
+      <c r="T181" t="n">
         <v>1.6</v>
       </c>
-      <c r="U180" t="n">
+      <c r="U181" t="n">
         <v>2.2</v>
       </c>
-      <c r="V180" t="n">
+      <c r="V181" t="n">
         <v>3.8</v>
       </c>
-      <c r="W180" t="n">
+      <c r="W181" t="n">
         <v>1.22</v>
       </c>
-      <c r="X180" t="n">
+      <c r="X181" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y180" t="n">
+      <c r="Y181" t="n">
         <v>1.04</v>
       </c>
-      <c r="Z180" t="n">
+      <c r="Z181" t="n">
         <v>2.7</v>
       </c>
-      <c r="AA180" t="n">
+      <c r="AA181" t="n">
         <v>2.88</v>
       </c>
-      <c r="AB180" t="n">
+      <c r="AB181" t="n">
         <v>3.11</v>
       </c>
-      <c r="AC180" t="n">
+      <c r="AC181" t="n">
         <v>1.09</v>
       </c>
-      <c r="AD180" t="n">
+      <c r="AD181" t="n">
         <v>5.8</v>
       </c>
-      <c r="AE180" t="n">
+      <c r="AE181" t="n">
         <v>1.58</v>
       </c>
-      <c r="AF180" t="n">
+      <c r="AF181" t="n">
         <v>2.36</v>
       </c>
-      <c r="AG180" t="n">
+      <c r="AG181" t="n">
         <v>2.69</v>
       </c>
-      <c r="AH180" t="n">
+      <c r="AH181" t="n">
         <v>1.35</v>
       </c>
-      <c r="AI180" t="n">
+      <c r="AI181" t="n">
         <v>2.26</v>
       </c>
-      <c r="AJ180" t="n">
+      <c r="AJ181" t="n">
         <v>1.62</v>
       </c>
-      <c r="AK180" t="n">
+      <c r="AK181" t="n">
         <v>1.35</v>
       </c>
-      <c r="AL180" t="n">
+      <c r="AL181" t="n">
         <v>1.33</v>
       </c>
-      <c r="AM180" t="n">
+      <c r="AM181" t="n">
         <v>1.53</v>
       </c>
-      <c r="AN180" t="n">
+      <c r="AN181" t="n">
         <v>1.13</v>
       </c>
-      <c r="AO180" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP180" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ180" t="n">
+      <c r="AO181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ181" t="n">
         <v>1.22</v>
       </c>
-      <c r="AR180" t="n">
+      <c r="AR181" t="n">
         <v>1.06</v>
       </c>
-      <c r="AS180" t="n">
+      <c r="AS181" t="n">
         <v>1.08</v>
       </c>
-      <c r="AT180" t="n">
+      <c r="AT181" t="n">
         <v>2.14</v>
       </c>
-      <c r="AU180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV180" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW180" t="n">
+      <c r="AU181" t="n">
         <v>5</v>
       </c>
-      <c r="AX180" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY180" t="n">
+      <c r="AV181" t="n">
         <v>5</v>
       </c>
-      <c r="AZ180" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB180" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC180" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD180" t="n">
+      <c r="AW181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD181" t="n">
         <v>2.33</v>
       </c>
-      <c r="BE180" t="n">
+      <c r="BE181" t="n">
         <v>7.5</v>
       </c>
-      <c r="BF180" t="n">
+      <c r="BF181" t="n">
         <v>1.85</v>
       </c>
-      <c r="BG180" t="n">
+      <c r="BG181" t="n">
         <v>1.36</v>
       </c>
-      <c r="BH180" t="n">
+      <c r="BH181" t="n">
         <v>2.95</v>
       </c>
-      <c r="BI180" t="n">
+      <c r="BI181" t="n">
         <v>1.67</v>
       </c>
-      <c r="BJ180" t="n">
+      <c r="BJ181" t="n">
         <v>2.12</v>
       </c>
-      <c r="BK180" t="n">
+      <c r="BK181" t="n">
         <v>2.15</v>
       </c>
-      <c r="BL180" t="n">
+      <c r="BL181" t="n">
         <v>1.65</v>
       </c>
-      <c r="BM180" t="n">
+      <c r="BM181" t="n">
         <v>2.95</v>
       </c>
-      <c r="BN180" t="n">
+      <c r="BN181" t="n">
         <v>1.37</v>
       </c>
-      <c r="BO180" t="n">
+      <c r="BO181" t="n">
         <v>4.1</v>
       </c>
-      <c r="BP180" t="n">
+      <c r="BP181" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.6</v>
@@ -1355,7 +1355,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3753,7 +3753,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.78</v>
@@ -4625,7 +4625,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.8</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5933,7 +5933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.8</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8113,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8549,7 +8549,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -8982,10 +8982,10 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.78</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.44</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.22</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12255,7 +12255,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.8</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.89</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.44</v>
@@ -14217,7 +14217,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14653,7 +14653,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -15089,7 +15089,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.6</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.9</v>
@@ -16176,10 +16176,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16397,7 +16397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16612,10 +16612,10 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -16833,7 +16833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.8</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17702,10 +17702,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17923,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.33</v>
@@ -18795,7 +18795,7 @@
         <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,10 +19010,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19231,7 +19231,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19449,7 +19449,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -19667,7 +19667,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.6</v>
@@ -20103,7 +20103,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ93" t="n">
         <v>1</v>
@@ -20972,10 +20972,10 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.9</v>
@@ -21408,10 +21408,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -21847,7 +21847,7 @@
         <v>2</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,7 +22062,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
         <v>1</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.22</v>
@@ -22934,10 +22934,10 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         <v>2</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -23588,10 +23588,10 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR106" t="n">
         <v>1.05</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -24463,7 +24463,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -24678,7 +24678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.8</v>
@@ -24899,7 +24899,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR112" t="n">
         <v>1.33</v>
@@ -25332,7 +25332,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.78</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -26204,7 +26204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.44</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.9</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR120" t="n">
         <v>1.42</v>
@@ -26858,10 +26858,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR121" t="n">
         <v>1.41</v>
@@ -27076,7 +27076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.22</v>
@@ -27294,10 +27294,10 @@
         <v>1.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.16</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR124" t="n">
         <v>1.05</v>
@@ -27948,10 +27948,10 @@
         <v>2.6</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR126" t="n">
         <v>1.1</v>
@@ -28166,10 +28166,10 @@
         <v>2.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR127" t="n">
         <v>1.54</v>
@@ -28384,10 +28384,10 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ128" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>1.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.87</v>
@@ -28602,7 +28602,7 @@
         <v>0.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.89</v>
@@ -28820,7 +28820,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.9</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.6</v>
@@ -29477,7 +29477,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.4</v>
@@ -29695,7 +29695,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR134" t="n">
         <v>1.45</v>
@@ -30131,7 +30131,7 @@
         <v>2</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR142" t="n">
         <v>1.7</v>
@@ -31875,7 +31875,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR144" t="n">
         <v>1.32</v>
@@ -32308,10 +32308,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR146" t="n">
         <v>1.18</v>
@@ -32526,7 +32526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.89</v>
@@ -32744,10 +32744,10 @@
         <v>2</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR148" t="n">
         <v>1.63</v>
@@ -32965,7 +32965,7 @@
         <v>1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR149" t="n">
         <v>1.08</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.33</v>
@@ -33398,10 +33398,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.57</v>
@@ -33834,7 +33834,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ153" t="n">
         <v>1</v>
@@ -34052,7 +34052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.9</v>
@@ -34273,7 +34273,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34491,7 +34491,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR156" t="n">
         <v>1.86</v>
@@ -34927,7 +34927,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR158" t="n">
         <v>1.3</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.44</v>
@@ -35363,7 +35363,7 @@
         <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -35796,10 +35796,10 @@
         <v>1.25</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR162" t="n">
         <v>1.5</v>
@@ -36014,10 +36014,10 @@
         <v>2.43</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -36235,7 +36235,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36453,7 +36453,7 @@
         <v>2</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR165" t="n">
         <v>1.42</v>
@@ -36668,7 +36668,7 @@
         <v>1.13</v>
       </c>
       <c r="AP166" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.33</v>
@@ -36886,10 +36886,10 @@
         <v>1.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR167" t="n">
         <v>1.1</v>
@@ -37104,10 +37104,10 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR168" t="n">
         <v>1.37</v>
@@ -37322,10 +37322,10 @@
         <v>2.14</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR169" t="n">
         <v>1.56</v>
@@ -37540,10 +37540,10 @@
         <v>1.38</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR170" t="n">
         <v>1.74</v>
@@ -37758,7 +37758,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.89</v>
@@ -38633,7 +38633,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -39720,7 +39720,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.8</v>
@@ -40017,6 +40017,2186 @@
       </c>
       <c r="BP181" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6846151</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45286.35416666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2</v>
+      </c>
+      <c r="S182" t="n">
+        <v>3</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X182" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6846153</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X183" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6846149</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['63', '76']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X184" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6846146</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6846147</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['39', '50']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>7195365</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['18', '24']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2</v>
+      </c>
+      <c r="S187" t="n">
+        <v>3</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X187" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6846148</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>2</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['38', '54']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['45+2', '75']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X188" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6846154</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45286.45833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2</v>
+      </c>
+      <c r="S189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6846150</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45286.58333333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3</v>
+      </c>
+      <c r="L190" t="n">
+        <v>3</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>5</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['20', '72', '90+7']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['7', '32']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X190" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6846152</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45286.6875</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2</v>
+      </c>
+      <c r="S191" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -41915,19 +41915,19 @@
         <v>3.51</v>
       </c>
       <c r="AU190" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX190" t="n">
         <v>7</v>
       </c>
-      <c r="AW190" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX190" t="n">
-        <v>6</v>
-      </c>
       <c r="AY190" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ190" t="n">
         <v>13</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.4</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.7</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.44</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.1</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.11</v>
@@ -4843,7 +4843,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.44</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.2</v>
@@ -6369,7 +6369,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7023,7 +7023,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.67</v>
@@ -8328,10 +8328,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.1</v>
@@ -9203,7 +9203,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9854,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.11</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10511,7 +10511,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11380,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -11819,7 +11819,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.7</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.4</v>
@@ -12470,10 +12470,10 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -12909,7 +12909,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13124,10 +13124,10 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13345,7 +13345,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.4</v>
@@ -13999,7 +13999,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.44</v>
@@ -14432,10 +14432,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.1</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.67</v>
@@ -15307,7 +15307,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15525,7 +15525,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.7</v>
@@ -16830,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.11</v>
@@ -17051,7 +17051,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17269,7 +17269,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17484,10 +17484,10 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.4</v>
@@ -18138,7 +18138,7 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.11</v>
@@ -18359,7 +18359,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.89</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.7</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.4</v>
@@ -19664,7 +19664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.1</v>
@@ -19885,7 +19885,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.44</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -20536,10 +20536,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20757,7 +20757,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -21193,7 +21193,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -21626,10 +21626,10 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.89</v>
@@ -22065,7 +22065,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22280,10 +22280,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR100" t="n">
         <v>1.04</v>
@@ -22498,7 +22498,7 @@
         <v>2.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.4</v>
@@ -22719,7 +22719,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.04</v>
@@ -23155,7 +23155,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR104" t="n">
         <v>1.85</v>
@@ -23370,7 +23370,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.2</v>
@@ -23806,10 +23806,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -24024,10 +24024,10 @@
         <v>2.33</v>
       </c>
       <c r="AP108" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.7</v>
@@ -24681,7 +24681,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR111" t="n">
         <v>1.65</v>
@@ -24896,7 +24896,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.4</v>
@@ -25114,10 +25114,10 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR113" t="n">
         <v>1.41</v>
@@ -25335,7 +25335,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -25553,7 +25553,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR115" t="n">
         <v>1.16</v>
@@ -25768,7 +25768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.1</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR117" t="n">
         <v>1.82</v>
@@ -26207,7 +26207,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -26425,7 +26425,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR119" t="n">
         <v>1.53</v>
@@ -26640,7 +26640,7 @@
         <v>1.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.4</v>
@@ -27079,7 +27079,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.2</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28605,7 +28605,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR129" t="n">
         <v>1.52</v>
@@ -28823,7 +28823,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR130" t="n">
         <v>1.58</v>
@@ -29038,10 +29038,10 @@
         <v>0.71</v>
       </c>
       <c r="AP131" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR131" t="n">
         <v>1.3</v>
@@ -29259,7 +29259,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR132" t="n">
         <v>1.24</v>
@@ -29474,7 +29474,7 @@
         <v>1.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.67</v>
@@ -29692,7 +29692,7 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.4</v>
@@ -29910,10 +29910,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR135" t="n">
         <v>1.91</v>
@@ -30128,7 +30128,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.1</v>
@@ -30346,10 +30346,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR137" t="n">
         <v>1.34</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR138" t="n">
         <v>1.32</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR139" t="n">
         <v>1.14</v>
@@ -31000,10 +31000,10 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR140" t="n">
         <v>1.36</v>
@@ -31218,10 +31218,10 @@
         <v>1.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR141" t="n">
         <v>1.05</v>
@@ -31654,10 +31654,10 @@
         <v>0.75</v>
       </c>
       <c r="AP143" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR143" t="n">
         <v>1.36</v>
@@ -31872,7 +31872,7 @@
         <v>2.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.89</v>
@@ -32090,10 +32090,10 @@
         <v>1.14</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR145" t="n">
         <v>1.36</v>
@@ -32529,7 +32529,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR147" t="n">
         <v>1.52</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.7</v>
@@ -33183,7 +33183,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR150" t="n">
         <v>1.07</v>
@@ -33616,10 +33616,10 @@
         <v>1.14</v>
       </c>
       <c r="AP152" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR152" t="n">
         <v>1.39</v>
@@ -33837,7 +33837,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR153" t="n">
         <v>1.53</v>
@@ -34055,7 +34055,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR154" t="n">
         <v>1.35</v>
@@ -34270,7 +34270,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.1</v>
@@ -34488,7 +34488,7 @@
         <v>2</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.67</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR157" t="n">
         <v>1.2</v>
@@ -34924,7 +34924,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.2</v>
@@ -35145,7 +35145,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -35360,7 +35360,7 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.4</v>
@@ -35578,10 +35578,10 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR161" t="n">
         <v>1.52</v>
@@ -36232,7 +36232,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.44</v>
@@ -36450,7 +36450,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.1</v>
@@ -36671,7 +36671,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR166" t="n">
         <v>1.25</v>
@@ -37761,7 +37761,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR171" t="n">
         <v>1.52</v>
@@ -37976,10 +37976,10 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR172" t="n">
         <v>1.4</v>
@@ -38194,10 +38194,10 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR173" t="n">
         <v>1.34</v>
@@ -38412,10 +38412,10 @@
         <v>1</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR174" t="n">
         <v>1.38</v>
@@ -38630,7 +38630,7 @@
         <v>1.63</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.4</v>
@@ -38848,10 +38848,10 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR176" t="n">
         <v>1.63</v>
@@ -39066,10 +39066,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR177" t="n">
         <v>1.28</v>
@@ -39284,10 +39284,10 @@
         <v>1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -39502,10 +39502,10 @@
         <v>0.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR179" t="n">
         <v>1.32</v>
@@ -39723,7 +39723,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR180" t="n">
         <v>1.54</v>
@@ -39938,10 +39938,10 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR181" t="n">
         <v>1.06</v>
@@ -42197,6 +42197,2186 @@
       </c>
       <c r="BP191" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6846156</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45303.6875</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3</v>
+      </c>
+      <c r="L192" t="n">
+        <v>5</v>
+      </c>
+      <c r="M192" t="n">
+        <v>3</v>
+      </c>
+      <c r="N192" t="n">
+        <v>8</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['18', '48', '52', '65', '88']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['25', '29', '55']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6846155</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45304.41666666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['41', '43', '83']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S193" t="n">
+        <v>4</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X193" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>7195366</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45304.41666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['5', '30']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X194" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6846157</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45304.41666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['26', '80']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2</v>
+      </c>
+      <c r="S195" t="n">
+        <v>4</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X195" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6846158</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45304.41666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['27', '37', '59', '63']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X196" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6846162</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45304.41666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>3</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X197" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6846161</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45304.51041666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['16', '82']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['9', '34']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S198" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X198" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6846159</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45305.51041666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>6</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X199" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6846160</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45305.51041666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X200" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6846163</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45305.51041666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3</v>
+      </c>
+      <c r="L201" t="n">
+        <v>5</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3</v>
+      </c>
+      <c r="N201" t="n">
+        <v>8</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['16', '36', '58', '74', '77']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['30', '65', '71']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S201" t="n">
+        <v>4</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X201" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -43877,7 +43877,7 @@
         <v>3</v>
       </c>
       <c r="AU199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV199" t="n">
         <v>5</v>
@@ -43889,7 +43889,7 @@
         <v>0</v>
       </c>
       <c r="AY199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ199" t="n">
         <v>5</v>
@@ -44095,13 +44095,13 @@
         <v>2.85</v>
       </c>
       <c r="AU200" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW200" t="n">
         <v>6</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>7</v>
       </c>
       <c r="AX200" t="n">
         <v>4</v>
@@ -44110,7 +44110,7 @@
         <v>12</v>
       </c>
       <c r="AZ200" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA200" t="n">
         <v>3</v>
@@ -44313,22 +44313,22 @@
         <v>2.75</v>
       </c>
       <c r="AU201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV201" t="n">
         <v>4</v>
       </c>
-      <c r="AV201" t="n">
-        <v>0</v>
-      </c>
       <c r="AW201" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY201" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ201" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA201" t="n">
         <v>1</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.64</v>
@@ -1355,7 +1355,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.2</v>
@@ -2445,7 +2445,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3753,7 +3753,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.6</v>
@@ -4625,7 +4625,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.73</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5933,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.73</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.9</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8113,7 +8113,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8549,7 +8549,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -8982,10 +8982,10 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.6</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.6</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9857,7 +9857,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>1.3</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1.44</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.9</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.2</v>
@@ -12037,7 +12037,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12255,7 +12255,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.73</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.8</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13781,7 +13781,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.6</v>
@@ -14217,7 +14217,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14653,7 +14653,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -15089,7 +15089,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.64</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.82</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.2</v>
@@ -16176,10 +16176,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16397,7 +16397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16612,10 +16612,10 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -16833,7 +16833,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17048,7 +17048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.73</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.91</v>
@@ -17702,10 +17702,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -17923,7 +17923,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18141,7 +18141,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.2</v>
@@ -18795,7 +18795,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,10 +19010,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19231,7 +19231,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19449,7 +19449,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -19667,7 +19667,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.64</v>
@@ -20103,7 +20103,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.6</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.9</v>
@@ -20972,10 +20972,10 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.82</v>
@@ -21408,10 +21408,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -21847,7 +21847,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,7 +22062,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.9</v>
@@ -22501,7 +22501,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.2</v>
@@ -22934,10 +22934,10 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.91</v>
@@ -23373,7 +23373,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -23588,10 +23588,10 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR106" t="n">
         <v>1.05</v>
@@ -24242,10 +24242,10 @@
         <v>1.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -24463,7 +24463,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -24678,7 +24678,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.73</v>
@@ -24899,7 +24899,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR112" t="n">
         <v>1.33</v>
@@ -25332,7 +25332,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.6</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.91</v>
@@ -25771,7 +25771,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -26204,7 +26204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.6</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.82</v>
@@ -26643,7 +26643,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR120" t="n">
         <v>1.42</v>
@@ -26858,10 +26858,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR121" t="n">
         <v>1.41</v>
@@ -27076,7 +27076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.2</v>
@@ -27294,10 +27294,10 @@
         <v>1.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR123" t="n">
         <v>1.16</v>
@@ -27515,7 +27515,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR124" t="n">
         <v>1.05</v>
@@ -27948,10 +27948,10 @@
         <v>2.6</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR126" t="n">
         <v>1.1</v>
@@ -28166,10 +28166,10 @@
         <v>2.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.54</v>
@@ -28384,10 +28384,10 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR128" t="n">
         <v>1.87</v>
@@ -28602,7 +28602,7 @@
         <v>0.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.8</v>
@@ -28820,7 +28820,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.82</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.64</v>
@@ -29477,7 +29477,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR133" t="n">
         <v>1.4</v>
@@ -29695,7 +29695,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR134" t="n">
         <v>1.45</v>
@@ -30131,7 +30131,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30782,7 +30782,7 @@
         <v>2.17</v>
       </c>
       <c r="AP139" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.6</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR142" t="n">
         <v>1.7</v>
@@ -31875,7 +31875,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR144" t="n">
         <v>1.32</v>
@@ -32308,10 +32308,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR146" t="n">
         <v>1.18</v>
@@ -32526,7 +32526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.8</v>
@@ -32744,10 +32744,10 @@
         <v>2</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR148" t="n">
         <v>1.63</v>
@@ -32965,7 +32965,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.08</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.2</v>
@@ -33398,10 +33398,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR151" t="n">
         <v>1.57</v>
@@ -33834,7 +33834,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.91</v>
@@ -34052,7 +34052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.82</v>
@@ -34273,7 +34273,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34491,7 +34491,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR156" t="n">
         <v>1.86</v>
@@ -34706,7 +34706,7 @@
         <v>0.63</v>
       </c>
       <c r="AP157" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.73</v>
@@ -34927,7 +34927,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR158" t="n">
         <v>1.3</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.6</v>
@@ -35363,7 +35363,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -35796,10 +35796,10 @@
         <v>1.25</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR162" t="n">
         <v>1.5</v>
@@ -36014,10 +36014,10 @@
         <v>2.43</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -36235,7 +36235,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36453,7 +36453,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR165" t="n">
         <v>1.42</v>
@@ -36668,7 +36668,7 @@
         <v>1.13</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.2</v>
@@ -36886,10 +36886,10 @@
         <v>1.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR167" t="n">
         <v>1.1</v>
@@ -37104,10 +37104,10 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR168" t="n">
         <v>1.37</v>
@@ -37322,10 +37322,10 @@
         <v>2.14</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR169" t="n">
         <v>1.56</v>
@@ -37540,10 +37540,10 @@
         <v>1.38</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR170" t="n">
         <v>1.74</v>
@@ -37758,7 +37758,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.8</v>
@@ -38633,7 +38633,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -39720,7 +39720,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.73</v>
@@ -40156,10 +40156,10 @@
         <v>1.56</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR182" t="n">
         <v>1.22</v>
@@ -40374,10 +40374,10 @@
         <v>1.44</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR183" t="n">
         <v>1.49</v>
@@ -40592,10 +40592,10 @@
         <v>1.22</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR184" t="n">
         <v>1.59</v>
@@ -40810,10 +40810,10 @@
         <v>1.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41028,10 +41028,10 @@
         <v>1.56</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41246,10 +41246,10 @@
         <v>2</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ187" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR187" t="n">
         <v>1.12</v>
@@ -41464,10 +41464,10 @@
         <v>1.75</v>
       </c>
       <c r="AP188" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR188" t="n">
         <v>1.18</v>
@@ -41682,10 +41682,10 @@
         <v>1.22</v>
       </c>
       <c r="AP189" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR189" t="n">
         <v>1.24</v>
@@ -41900,10 +41900,10 @@
         <v>2.13</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR190" t="n">
         <v>1.75</v>
@@ -42118,10 +42118,10 @@
         <v>1.11</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR191" t="n">
         <v>1.53</v>
@@ -44377,6 +44377,2186 @@
       </c>
       <c r="BP201" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6846170</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45310.6875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['41', '44', '70']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X202" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6846172</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45311.41666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['22', '46', '60']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X203" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6846171</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45311.41666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S204" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U204" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X204" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6846169</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45311.41666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['15', '67']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['37', '45']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S205" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X205" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7195367</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45311.41666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>2</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X206" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6846166</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45311.41666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['5', '60', '90+8']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6846167</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45311.51041666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>3</v>
+      </c>
+      <c r="N208" t="n">
+        <v>4</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['30', '74', '85']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X208" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6846165</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45311.51041666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>3</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>4</v>
+      </c>
+      <c r="L209" t="n">
+        <v>4</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>6</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['10', '19', '21', '81']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['24', '87']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X209" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6846168</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45311.51041666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>3</v>
+      </c>
+      <c r="L210" t="n">
+        <v>4</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2</v>
+      </c>
+      <c r="N210" t="n">
+        <v>6</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['8', '35', '88', '90+6']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['31', '59']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X210" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6846164</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45312.51041666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>4</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['72', '79']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['9', '20']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S211" t="n">
+        <v>4</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V211" t="n">
+        <v>4</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X211" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.27</v>
@@ -1573,7 +1573,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.64</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.09</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.09</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.53</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.3</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7023,7 +7023,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.5</v>
@@ -8328,10 +8328,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.09</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.27</v>
@@ -9203,7 +9203,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9854,10 +9854,10 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10511,7 +10511,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11380,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.36</v>
@@ -11819,7 +11819,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.64</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.27</v>
@@ -12473,7 +12473,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -13124,10 +13124,10 @@
         <v>2.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13345,7 +13345,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.27</v>
@@ -13999,7 +13999,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.3</v>
@@ -14432,10 +14432,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15086,7 +15086,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.5</v>
@@ -15307,7 +15307,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15522,10 +15522,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.64</v>
@@ -16830,10 +16830,10 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17269,7 +17269,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17484,10 +17484,10 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.27</v>
@@ -18138,10 +18138,10 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18359,7 +18359,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18574,10 +18574,10 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ84" t="n">
         <v>2</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.27</v>
@@ -19664,7 +19664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.09</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.3</v>
@@ -20321,7 +20321,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.73</v>
@@ -20757,7 +20757,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -21193,7 +21193,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.91</v>
@@ -21626,10 +21626,10 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ98" t="n">
         <v>2</v>
@@ -22065,7 +22065,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22280,10 +22280,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR100" t="n">
         <v>1.04</v>
@@ -22498,7 +22498,7 @@
         <v>2.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.27</v>
@@ -22716,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR102" t="n">
         <v>1.04</v>
@@ -22937,7 +22937,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23155,7 +23155,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR104" t="n">
         <v>1.85</v>
@@ -23370,7 +23370,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.36</v>
@@ -23806,10 +23806,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -24024,10 +24024,10 @@
         <v>2.33</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.64</v>
@@ -24896,7 +24896,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.27</v>
@@ -25114,10 +25114,10 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR113" t="n">
         <v>1.41</v>
@@ -25335,7 +25335,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -25553,7 +25553,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR115" t="n">
         <v>1.16</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1.82</v>
@@ -26207,7 +26207,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>1.53</v>
@@ -26640,7 +26640,7 @@
         <v>1.83</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.27</v>
@@ -27079,7 +27079,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27294,7 +27294,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.09</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.36</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.54</v>
@@ -28605,7 +28605,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR129" t="n">
         <v>1.52</v>
@@ -28823,7 +28823,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.58</v>
@@ -29038,7 +29038,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.73</v>
@@ -29259,7 +29259,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR132" t="n">
         <v>1.24</v>
@@ -29474,7 +29474,7 @@
         <v>1.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.5</v>
@@ -29910,10 +29910,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR135" t="n">
         <v>1.91</v>
@@ -30128,7 +30128,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.09</v>
@@ -30346,10 +30346,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR137" t="n">
         <v>1.34</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR138" t="n">
         <v>1.32</v>
@@ -30785,7 +30785,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR139" t="n">
         <v>1.14</v>
@@ -31000,10 +31000,10 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR140" t="n">
         <v>1.36</v>
@@ -31218,10 +31218,10 @@
         <v>1.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR141" t="n">
         <v>1.05</v>
@@ -31654,10 +31654,10 @@
         <v>0.75</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR143" t="n">
         <v>1.36</v>
@@ -31872,7 +31872,7 @@
         <v>2.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>2</v>
@@ -32090,10 +32090,10 @@
         <v>1.14</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR145" t="n">
         <v>1.36</v>
@@ -32308,7 +32308,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.3</v>
@@ -32529,7 +32529,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR147" t="n">
         <v>1.52</v>
@@ -32747,7 +32747,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR148" t="n">
         <v>1.63</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.64</v>
@@ -33183,7 +33183,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR150" t="n">
         <v>1.07</v>
@@ -33616,10 +33616,10 @@
         <v>1.14</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR152" t="n">
         <v>1.39</v>
@@ -33837,7 +33837,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR153" t="n">
         <v>1.53</v>
@@ -34055,7 +34055,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.35</v>
@@ -34270,7 +34270,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.09</v>
@@ -34488,7 +34488,7 @@
         <v>2</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.5</v>
@@ -34924,7 +34924,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.36</v>
@@ -35145,7 +35145,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -35360,7 +35360,7 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.27</v>
@@ -35581,7 +35581,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR161" t="n">
         <v>1.52</v>
@@ -36014,7 +36014,7 @@
         <v>2.43</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ163" t="n">
         <v>2</v>
@@ -36232,7 +36232,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.3</v>
@@ -36450,7 +36450,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.09</v>
@@ -36671,7 +36671,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR166" t="n">
         <v>1.25</v>
@@ -37325,7 +37325,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR169" t="n">
         <v>1.56</v>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR171" t="n">
         <v>1.52</v>
@@ -37976,10 +37976,10 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR172" t="n">
         <v>1.4</v>
@@ -38194,10 +38194,10 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR173" t="n">
         <v>1.34</v>
@@ -38412,10 +38412,10 @@
         <v>1</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR174" t="n">
         <v>1.38</v>
@@ -38630,7 +38630,7 @@
         <v>1.63</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.27</v>
@@ -38851,7 +38851,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR176" t="n">
         <v>1.63</v>
@@ -39066,10 +39066,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR177" t="n">
         <v>1.28</v>
@@ -39284,10 +39284,10 @@
         <v>1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -39502,10 +39502,10 @@
         <v>0.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR179" t="n">
         <v>1.32</v>
@@ -39938,10 +39938,10 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR181" t="n">
         <v>1.06</v>
@@ -41249,7 +41249,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ187" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR187" t="n">
         <v>1.12</v>
@@ -41464,7 +41464,7 @@
         <v>1.75</v>
       </c>
       <c r="AP188" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.5</v>
@@ -42336,10 +42336,10 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR192" t="n">
         <v>1.27</v>
@@ -42554,10 +42554,10 @@
         <v>0.89</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR193" t="n">
         <v>1.44</v>
@@ -42772,10 +42772,10 @@
         <v>1.44</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR194" t="n">
         <v>1.33</v>
@@ -42990,10 +42990,10 @@
         <v>1.78</v>
       </c>
       <c r="AP195" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR195" t="n">
         <v>1.46</v>
@@ -43208,10 +43208,10 @@
         <v>0.9</v>
       </c>
       <c r="AP196" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.37</v>
@@ -43426,7 +43426,7 @@
         <v>0.8</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.73</v>
@@ -43644,10 +43644,10 @@
         <v>1.22</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR198" t="n">
         <v>1.25</v>
@@ -43862,10 +43862,10 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR199" t="n">
         <v>1.76</v>
@@ -44083,7 +44083,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR200" t="n">
         <v>1.68</v>
@@ -44298,10 +44298,10 @@
         <v>1.33</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR201" t="n">
         <v>1.42</v>
@@ -44519,7 +44519,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR202" t="n">
         <v>1.56</v>
@@ -45606,7 +45606,7 @@
         <v>1.4</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.27</v>
@@ -46557,6 +46557,2186 @@
       </c>
       <c r="BP211" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6846174</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45317.6875</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S212" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X212" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6846181</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45318.41666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U213" t="n">
+        <v>3</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6846180</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45318.41666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7195368</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45318.41666666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S215" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6846178</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45318.41666666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>2</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2</v>
+      </c>
+      <c r="L216" t="n">
+        <v>3</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['16', '23', '47']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2</v>
+      </c>
+      <c r="S216" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X216" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6846176</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45318.41666666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['82', '89']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S217" t="n">
+        <v>5</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X217" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6846173</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45318.51041666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['23', '83']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S218" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X218" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6846177</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45318.51041666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>5</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>6</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['10', '66', '70', '86', '90+4']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S219" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X219" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6846179</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45318.51041666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>3</v>
+      </c>
+      <c r="K220" t="n">
+        <v>4</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['33', '76']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['20', '36', '45']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X220" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6846175</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45319.51041666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['60', '69']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X221" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -48673,22 +48673,22 @@
         <v>2.77</v>
       </c>
       <c r="AU221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW221" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX221" t="n">
         <v>5</v>
       </c>
       <c r="AY221" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ221" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA221" t="n">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3753,7 +3753,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>1.5</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.73</v>
@@ -7895,7 +7895,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.19</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.14</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.09</v>
@@ -14653,7 +14653,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.55</v>
@@ -16176,7 +16176,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.09</v>
@@ -17705,7 +17705,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.15</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.83</v>
@@ -23591,7 +23591,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR106" t="n">
         <v>1.05</v>
@@ -26204,7 +26204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.45</v>
@@ -27297,7 +27297,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR123" t="n">
         <v>1.16</v>
@@ -28384,7 +28384,7 @@
         <v>1</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.3</v>
@@ -31436,7 +31436,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.27</v>
@@ -33401,7 +33401,7 @@
         <v>1</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.57</v>
@@ -35799,7 +35799,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR162" t="n">
         <v>1.5</v>
@@ -37540,7 +37540,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.36</v>
@@ -41900,7 +41900,7 @@
         <v>2.13</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ190" t="n">
         <v>2</v>
@@ -42121,7 +42121,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.53</v>
@@ -46260,7 +46260,7 @@
         <v>1.4</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.27</v>
@@ -46481,7 +46481,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR211" t="n">
         <v>1.39</v>
@@ -48737,6 +48737,224 @@
       </c>
       <c r="BP221" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6846185</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45324.6875</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['44', '71', '80']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP222"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.83</v>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.36</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -3971,7 +3971,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.55</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR21" t="n">
         <v>2.08</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5933,7 +5933,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6369,7 +6369,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.36</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.09</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8767,7 +8767,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR38" t="n">
         <v>0.92</v>
@@ -8982,10 +8982,10 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR39" t="n">
         <v>1.7</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.55</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.45</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -10290,10 +10290,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1.3</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -11162,10 +11162,10 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR49" t="n">
         <v>1.16</v>
@@ -11601,7 +11601,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.36</v>
@@ -12037,7 +12037,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.21</v>
@@ -12255,7 +12255,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR54" t="n">
         <v>1.2</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.36</v>
@@ -12688,10 +12688,10 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12906,10 +12906,10 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.73</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13781,7 +13781,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR61" t="n">
         <v>1.12</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.45</v>
@@ -14217,7 +14217,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15304,7 +15304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.83</v>
@@ -15740,7 +15740,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.36</v>
@@ -16179,7 +16179,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR72" t="n">
         <v>1.86</v>
@@ -16397,7 +16397,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR73" t="n">
         <v>1.3</v>
@@ -16612,10 +16612,10 @@
         <v>1.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR74" t="n">
         <v>1.39</v>
@@ -17048,10 +17048,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17266,7 +17266,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.83</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17923,7 +17923,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR80" t="n">
         <v>0.97</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.36</v>
@@ -18795,7 +18795,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,10 +19010,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19228,10 +19228,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR86" t="n">
         <v>1.52</v>
@@ -19449,7 +19449,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR87" t="n">
         <v>1.43</v>
@@ -19667,7 +19667,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR88" t="n">
         <v>1.83</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.83</v>
@@ -20103,7 +20103,7 @@
         <v>1</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.45</v>
@@ -20539,7 +20539,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20754,7 +20754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.09</v>
@@ -20972,10 +20972,10 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21408,10 +21408,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR96" t="n">
         <v>1.14</v>
@@ -21847,7 +21847,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,7 +22062,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.09</v>
@@ -22501,7 +22501,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR101" t="n">
         <v>1.29</v>
@@ -22934,7 +22934,7 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ103" t="n">
         <v>2</v>
@@ -23373,7 +23373,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -23588,7 +23588,7 @@
         <v>1.2</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -24242,10 +24242,10 @@
         <v>1.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR110" t="n">
         <v>1.34</v>
@@ -24678,10 +24678,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR111" t="n">
         <v>1.65</v>
@@ -24899,7 +24899,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR112" t="n">
         <v>1.33</v>
@@ -25332,7 +25332,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.55</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.83</v>
@@ -25768,10 +25768,10 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR116" t="n">
         <v>1.49</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ119" t="n">
         <v>1</v>
@@ -26643,7 +26643,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR120" t="n">
         <v>1.42</v>
@@ -26858,10 +26858,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR121" t="n">
         <v>1.41</v>
@@ -27076,7 +27076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.36</v>
@@ -27515,7 +27515,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR124" t="n">
         <v>1.05</v>
@@ -27948,10 +27948,10 @@
         <v>2.6</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR126" t="n">
         <v>1.1</v>
@@ -28166,7 +28166,7 @@
         <v>2.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ127" t="n">
         <v>2</v>
@@ -28387,7 +28387,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR128" t="n">
         <v>1.87</v>
@@ -28602,7 +28602,7 @@
         <v>0.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.73</v>
@@ -28820,7 +28820,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130" t="n">
         <v>1</v>
@@ -29041,7 +29041,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR131" t="n">
         <v>1.3</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.83</v>
@@ -29477,7 +29477,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR133" t="n">
         <v>1.4</v>
@@ -29692,10 +29692,10 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR134" t="n">
         <v>1.45</v>
@@ -30131,7 +30131,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR136" t="n">
         <v>1.34</v>
@@ -30782,7 +30782,7 @@
         <v>2.17</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.55</v>
@@ -31439,7 +31439,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR142" t="n">
         <v>1.7</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR144" t="n">
         <v>1.32</v>
@@ -32311,7 +32311,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR146" t="n">
         <v>1.18</v>
@@ -32526,7 +32526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.73</v>
@@ -32744,7 +32744,7 @@
         <v>2</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ148" t="n">
         <v>2</v>
@@ -32965,7 +32965,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR149" t="n">
         <v>1.08</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.36</v>
@@ -33398,7 +33398,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -33834,7 +33834,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.83</v>
@@ -34052,7 +34052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ154" t="n">
         <v>1</v>
@@ -34273,7 +34273,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR155" t="n">
         <v>1.4</v>
@@ -34491,7 +34491,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR156" t="n">
         <v>1.86</v>
@@ -34706,10 +34706,10 @@
         <v>0.63</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR157" t="n">
         <v>1.2</v>
@@ -34927,7 +34927,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR158" t="n">
         <v>1.3</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.45</v>
@@ -35363,7 +35363,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR160" t="n">
         <v>1.39</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.55</v>
@@ -35796,7 +35796,7 @@
         <v>1.25</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ162" t="n">
         <v>1</v>
@@ -36017,7 +36017,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -36235,7 +36235,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36453,7 +36453,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR165" t="n">
         <v>1.42</v>
@@ -36668,7 +36668,7 @@
         <v>1.13</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.36</v>
@@ -36886,10 +36886,10 @@
         <v>1.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR167" t="n">
         <v>1.1</v>
@@ -37104,10 +37104,10 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR168" t="n">
         <v>1.37</v>
@@ -37322,7 +37322,7 @@
         <v>2.14</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ169" t="n">
         <v>2</v>
@@ -37543,7 +37543,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR170" t="n">
         <v>1.74</v>
@@ -37758,7 +37758,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ171" t="n">
         <v>0.73</v>
@@ -38633,7 +38633,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR175" t="n">
         <v>1.78</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.73</v>
@@ -39720,10 +39720,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR180" t="n">
         <v>1.54</v>
@@ -40156,10 +40156,10 @@
         <v>1.56</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR182" t="n">
         <v>1.22</v>
@@ -40374,10 +40374,10 @@
         <v>1.44</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR183" t="n">
         <v>1.49</v>
@@ -40592,10 +40592,10 @@
         <v>1.22</v>
       </c>
       <c r="AP184" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR184" t="n">
         <v>1.59</v>
@@ -40810,10 +40810,10 @@
         <v>1.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41028,10 +41028,10 @@
         <v>1.56</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41246,7 +41246,7 @@
         <v>2</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ187" t="n">
         <v>2</v>
@@ -41467,7 +41467,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR188" t="n">
         <v>1.18</v>
@@ -41682,10 +41682,10 @@
         <v>1.22</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR189" t="n">
         <v>1.24</v>
@@ -41903,7 +41903,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ190" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR190" t="n">
         <v>1.75</v>
@@ -42118,7 +42118,7 @@
         <v>1.11</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ191" t="n">
         <v>1</v>
@@ -43429,7 +43429,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR197" t="n">
         <v>1.11</v>
@@ -44080,7 +44080,7 @@
         <v>0.6</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.83</v>
@@ -44516,7 +44516,7 @@
         <v>2.11</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ202" t="n">
         <v>2</v>
@@ -44734,10 +44734,10 @@
         <v>1.44</v>
       </c>
       <c r="AP203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ203" t="n">
         <v>1.18</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>1.3</v>
       </c>
       <c r="AR203" t="n">
         <v>1.26</v>
@@ -44952,10 +44952,10 @@
         <v>1.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ204" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR204" t="n">
         <v>1.48</v>
@@ -45170,10 +45170,10 @@
         <v>1.7</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR205" t="n">
         <v>1.18</v>
@@ -45388,10 +45388,10 @@
         <v>1.1</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR206" t="n">
         <v>1.09</v>
@@ -45609,7 +45609,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR207" t="n">
         <v>1.16</v>
@@ -45824,10 +45824,10 @@
         <v>1.2</v>
       </c>
       <c r="AP208" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR208" t="n">
         <v>1.56</v>
@@ -46042,10 +46042,10 @@
         <v>1.67</v>
       </c>
       <c r="AP209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ209" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AQ209" t="n">
-        <v>1.5</v>
       </c>
       <c r="AR209" t="n">
         <v>1.43</v>
@@ -46263,7 +46263,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR210" t="n">
         <v>1.71</v>
@@ -46478,7 +46478,7 @@
         <v>1.1</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ211" t="n">
         <v>1</v>
@@ -48891,31 +48891,31 @@
         <v>2.91</v>
       </c>
       <c r="AU222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA222" t="n">
         <v>4</v>
       </c>
-      <c r="AV222" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW222" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX222" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY222" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ222" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA222" t="n">
-        <v>3</v>
-      </c>
       <c r="BB222" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC222" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD222" t="n">
         <v>1.51</v>
@@ -48955,6 +48955,1968 @@
       </c>
       <c r="BP222" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>6846187</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S223" t="n">
+        <v>4</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X223" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7195369</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['52', '74']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X224" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6846183</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R225" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S225" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6846189</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X226" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6846186</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45325.41666666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['21', '90+10']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X227" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6846190</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45325.51041666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2</v>
+      </c>
+      <c r="S228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X228" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6846188</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45325.51041666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>4</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['21', '33']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['59', '82']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X229" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6846184</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45325.51041666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>23</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S230" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6846182</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45326.51041666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>23</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['45+5', '78']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X231" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50208,13 +50208,13 @@
         <v>4</v>
       </c>
       <c r="AX228" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY228" t="n">
         <v>6</v>
       </c>
       <c r="AZ228" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA228" t="n">
         <v>1</v>
@@ -50417,22 +50417,22 @@
         <v>2.96</v>
       </c>
       <c r="AU229" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV229" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW229" t="n">
         <v>2</v>
       </c>
       <c r="AX229" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY229" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ229" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA229" t="n">
         <v>3</v>
@@ -50635,19 +50635,19 @@
         <v>3.25</v>
       </c>
       <c r="AU230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV230" t="n">
         <v>4</v>
       </c>
       <c r="AW230" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX230" t="n">
         <v>2</v>
       </c>
       <c r="AY230" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ230" t="n">
         <v>6</v>
@@ -50856,28 +50856,28 @@
         <v>4</v>
       </c>
       <c r="AV231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW231" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX231" t="n">
         <v>0</v>
       </c>
       <c r="AY231" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD231" t="n">
         <v>1.41</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.25</v>
@@ -1573,7 +1573,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.25</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.73</v>
@@ -4407,7 +4407,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.19</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.18</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.18</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR29" t="n">
         <v>1.17</v>
@@ -7023,7 +7023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,10 +7238,10 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.86</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.24</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.25</v>
@@ -9203,7 +9203,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR40" t="n">
         <v>1.71</v>
@@ -9421,7 +9421,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR41" t="n">
         <v>1.66</v>
@@ -9854,10 +9854,10 @@
         <v>3</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR43" t="n">
         <v>1.3</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.73</v>
@@ -10511,7 +10511,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -10729,7 +10729,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR47" t="n">
         <v>0.77</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR48" t="n">
         <v>1.3</v>
@@ -11380,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR50" t="n">
         <v>2.04</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.33</v>
@@ -11819,7 +11819,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.14</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.75</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.25</v>
@@ -12473,7 +12473,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR55" t="n">
         <v>1.44</v>
@@ -13127,7 +13127,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR58" t="n">
         <v>1.42</v>
@@ -13778,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.25</v>
@@ -13999,7 +13999,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.24</v>
@@ -14214,7 +14214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.18</v>
@@ -14432,10 +14432,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14868,10 +14868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -15086,10 +15086,10 @@
         <v>1.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR68" t="n">
         <v>0.98</v>
@@ -15522,7 +15522,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>1.14</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.75</v>
@@ -16830,10 +16830,10 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR75" t="n">
         <v>1.9</v>
@@ -17269,7 +17269,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR77" t="n">
         <v>1.46</v>
@@ -17484,10 +17484,10 @@
         <v>2.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.42</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.25</v>
@@ -18141,7 +18141,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18359,7 +18359,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.37</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.73</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.09</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.25</v>
@@ -19664,7 +19664,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.25</v>
@@ -19885,7 +19885,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR89" t="n">
         <v>1.56</v>
@@ -20100,7 +20100,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.18</v>
@@ -20321,7 +20321,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR91" t="n">
         <v>1.23</v>
@@ -20536,7 +20536,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.75</v>
@@ -20757,7 +20757,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -20975,7 +20975,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR94" t="n">
         <v>1.21</v>
@@ -21626,10 +21626,10 @@
         <v>0.33</v>
       </c>
       <c r="AP97" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR97" t="n">
         <v>1.17</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.09</v>
@@ -22065,7 +22065,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22280,10 +22280,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR100" t="n">
         <v>1.04</v>
@@ -22498,7 +22498,7 @@
         <v>2.2</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.25</v>
@@ -22716,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR102" t="n">
         <v>1.04</v>
@@ -22937,7 +22937,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR103" t="n">
         <v>1.4</v>
@@ -23155,7 +23155,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR104" t="n">
         <v>1.85</v>
@@ -23806,7 +23806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.73</v>
@@ -24024,10 +24024,10 @@
         <v>2.33</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR108" t="n">
         <v>1.3</v>
@@ -24245,7 +24245,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR109" t="n">
         <v>1.13</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.75</v>
@@ -24896,7 +24896,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.25</v>
@@ -25114,10 +25114,10 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR113" t="n">
         <v>1.41</v>
@@ -25335,7 +25335,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR114" t="n">
         <v>1.54</v>
@@ -25553,7 +25553,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR115" t="n">
         <v>1.16</v>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -26207,7 +26207,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR118" t="n">
         <v>2.02</v>
@@ -27079,7 +27079,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.54</v>
@@ -27294,7 +27294,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.33</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR125" t="n">
         <v>1.42</v>
@@ -28169,7 +28169,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR127" t="n">
         <v>1.54</v>
@@ -29038,7 +29038,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.75</v>
@@ -29259,7 +29259,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR132" t="n">
         <v>1.24</v>
@@ -29474,10 +29474,10 @@
         <v>1.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR133" t="n">
         <v>1.4</v>
@@ -29910,10 +29910,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR135" t="n">
         <v>1.91</v>
@@ -30128,7 +30128,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.25</v>
@@ -30346,10 +30346,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR137" t="n">
         <v>1.34</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR138" t="n">
         <v>1.32</v>
@@ -30785,7 +30785,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR139" t="n">
         <v>1.14</v>
@@ -31000,10 +31000,10 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR140" t="n">
         <v>1.36</v>
@@ -31218,10 +31218,10 @@
         <v>1.33</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR141" t="n">
         <v>1.05</v>
@@ -31657,7 +31657,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR143" t="n">
         <v>1.36</v>
@@ -31872,7 +31872,7 @@
         <v>2.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ144" t="n">
         <v>2.09</v>
@@ -32090,10 +32090,10 @@
         <v>1.14</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR145" t="n">
         <v>1.36</v>
@@ -32308,7 +32308,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.18</v>
@@ -32747,7 +32747,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR148" t="n">
         <v>1.63</v>
@@ -32962,7 +32962,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.75</v>
@@ -33183,7 +33183,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR150" t="n">
         <v>1.07</v>
@@ -33616,10 +33616,10 @@
         <v>1.14</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR152" t="n">
         <v>1.39</v>
@@ -33837,7 +33837,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR153" t="n">
         <v>1.53</v>
@@ -34270,7 +34270,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.25</v>
@@ -34488,10 +34488,10 @@
         <v>2</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR156" t="n">
         <v>1.86</v>
@@ -34924,7 +34924,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.33</v>
@@ -35145,7 +35145,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR159" t="n">
         <v>1.31</v>
@@ -35360,7 +35360,7 @@
         <v>1.86</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.25</v>
@@ -35581,7 +35581,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR161" t="n">
         <v>1.52</v>
@@ -36014,7 +36014,7 @@
         <v>2.43</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ163" t="n">
         <v>2.09</v>
@@ -36232,7 +36232,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.18</v>
@@ -36671,7 +36671,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR166" t="n">
         <v>1.25</v>
@@ -37325,7 +37325,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ169" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR169" t="n">
         <v>1.56</v>
@@ -37979,7 +37979,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR172" t="n">
         <v>1.4</v>
@@ -38194,10 +38194,10 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR173" t="n">
         <v>1.34</v>
@@ -38412,7 +38412,7 @@
         <v>1</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -38630,7 +38630,7 @@
         <v>1.63</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.25</v>
@@ -39066,10 +39066,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR177" t="n">
         <v>1.28</v>
@@ -39284,10 +39284,10 @@
         <v>1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -39502,10 +39502,10 @@
         <v>0.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR179" t="n">
         <v>1.32</v>
@@ -39938,10 +39938,10 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR181" t="n">
         <v>1.06</v>
@@ -41249,7 +41249,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ187" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR187" t="n">
         <v>1.12</v>
@@ -41464,10 +41464,10 @@
         <v>1.75</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR188" t="n">
         <v>1.18</v>
@@ -42336,10 +42336,10 @@
         <v>1</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR192" t="n">
         <v>1.27</v>
@@ -42554,7 +42554,7 @@
         <v>0.89</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.73</v>
@@ -42772,10 +42772,10 @@
         <v>1.44</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR194" t="n">
         <v>1.33</v>
@@ -42990,10 +42990,10 @@
         <v>1.78</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR195" t="n">
         <v>1.46</v>
@@ -43208,7 +43208,7 @@
         <v>0.9</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ196" t="n">
         <v>1</v>
@@ -43426,7 +43426,7 @@
         <v>0.8</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.75</v>
@@ -43644,10 +43644,10 @@
         <v>1.22</v>
       </c>
       <c r="AP198" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR198" t="n">
         <v>1.25</v>
@@ -43862,10 +43862,10 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR199" t="n">
         <v>1.76</v>
@@ -44083,7 +44083,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR200" t="n">
         <v>1.68</v>
@@ -44301,7 +44301,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR201" t="n">
         <v>1.42</v>
@@ -44519,7 +44519,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ202" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR202" t="n">
         <v>1.56</v>
@@ -45606,7 +45606,7 @@
         <v>1.4</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.25</v>
@@ -46045,7 +46045,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR209" t="n">
         <v>1.43</v>
@@ -46696,10 +46696,10 @@
         <v>1.6</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR212" t="n">
         <v>1.34</v>
@@ -47132,10 +47132,10 @@
         <v>0.9</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR214" t="n">
         <v>1.11</v>
@@ -47350,10 +47350,10 @@
         <v>1.6</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR215" t="n">
         <v>1.75</v>
@@ -47568,10 +47568,10 @@
         <v>2.2</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR216" t="n">
         <v>1.32</v>
@@ -47786,10 +47786,10 @@
         <v>0.64</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR217" t="n">
         <v>1.5</v>
@@ -48004,10 +48004,10 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR218" t="n">
         <v>1.45</v>
@@ -48222,10 +48222,10 @@
         <v>0.91</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ219" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR219" t="n">
         <v>1.21</v>
@@ -48440,7 +48440,7 @@
         <v>0.82</v>
       </c>
       <c r="AP220" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ220" t="n">
         <v>1</v>
@@ -48658,10 +48658,10 @@
         <v>1.2</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR221" t="n">
         <v>1.48</v>
@@ -49969,7 +49969,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR227" t="n">
         <v>1.68</v>
@@ -50917,6 +50917,2186 @@
       </c>
       <c r="BP231" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>7195370</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45331.6875</v>
+      </c>
+      <c r="F232" t="n">
+        <v>24</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X232" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6846198</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45332.41666666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>24</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>3</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['12', '81', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X233" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6846193</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45332.41666666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>24</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2</v>
+      </c>
+      <c r="K234" t="n">
+        <v>3</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>3</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['8', '38']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S234" t="n">
+        <v>3</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X234" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6846194</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45332.41666666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>2</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>2</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S235" t="n">
+        <v>6</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X235" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6846195</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45332.41666666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>24</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>2</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['68', '76']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S236" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X236" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6846196</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45332.41666666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>24</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S237" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X237" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>6846191</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45332.51041666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>24</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>3</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['26', '53', '69']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S238" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X238" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6846192</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45332.51041666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>24</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2</v>
+      </c>
+      <c r="K239" t="n">
+        <v>3</v>
+      </c>
+      <c r="L239" t="n">
+        <v>3</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>5</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['17', '81', '86']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['24', '37']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S239" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X239" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6846197</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45332.51041666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>24</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['58', '70']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2</v>
+      </c>
+      <c r="S240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X240" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>6846199</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45333.51041666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>24</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X241" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53033,22 +53033,22 @@
         <v>2.62</v>
       </c>
       <c r="AU241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV241" t="n">
         <v>5</v>
       </c>
-      <c r="AV241" t="n">
-        <v>3</v>
-      </c>
       <c r="AW241" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX241" t="n">
         <v>5</v>
       </c>
       <c r="AY241" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ241" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ241" t="n">
-        <v>8</v>
       </c>
       <c r="BA241" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.67</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR11" t="n">
         <v>1.77</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR12" t="n">
         <v>1.46</v>
@@ -4189,7 +4189,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.67</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>0.99</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR26" t="n">
         <v>1.39</v>
@@ -6369,7 +6369,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.33</v>
@@ -7023,7 +7023,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.25</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.75</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.67</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.33</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR44" t="n">
         <v>1.04</v>
@@ -10293,7 +10293,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR45" t="n">
         <v>1.42</v>
@@ -10511,7 +10511,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR51" t="n">
         <v>0.89</v>
@@ -11816,7 +11816,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.33</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.25</v>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.25</v>
@@ -12691,7 +12691,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR56" t="n">
         <v>1.55</v>
@@ -12906,10 +12906,10 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57" t="n">
         <v>1.77</v>
@@ -13342,10 +13342,10 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR59" t="n">
         <v>1.44</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR60" t="n">
         <v>1.15</v>
@@ -13996,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -14217,7 +14217,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR63" t="n">
         <v>1.23</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR66" t="n">
         <v>0.91</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.75</v>
@@ -17051,7 +17051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR76" t="n">
         <v>1.05</v>
@@ -17702,7 +17702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.25</v>
@@ -18577,7 +18577,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR83" t="n">
         <v>1.32</v>
@@ -18795,7 +18795,7 @@
         <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.23</v>
@@ -19010,10 +19010,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.75</v>
@@ -19446,7 +19446,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.25</v>
@@ -19882,7 +19882,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.77</v>
@@ -20103,7 +20103,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR90" t="n">
         <v>1.02</v>
@@ -20539,7 +20539,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR92" t="n">
         <v>1.36</v>
@@ -20757,7 +20757,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR93" t="n">
         <v>1.54</v>
@@ -20972,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.5</v>
@@ -21847,7 +21847,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>1.34</v>
@@ -22062,10 +22062,10 @@
         <v>1.4</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22934,7 +22934,7 @@
         <v>2.25</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ103" t="n">
         <v>2.08</v>
@@ -23373,7 +23373,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR105" t="n">
         <v>1.45</v>
@@ -23809,7 +23809,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR107" t="n">
         <v>1.39</v>
@@ -24681,7 +24681,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR111" t="n">
         <v>1.65</v>
@@ -25114,7 +25114,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.77</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.77</v>
@@ -25768,7 +25768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.25</v>
@@ -26422,7 +26422,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ119" t="n">
         <v>1</v>
@@ -26858,7 +26858,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.75</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR124" t="n">
         <v>1.05</v>
@@ -27951,7 +27951,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR126" t="n">
         <v>1.1</v>
@@ -28166,7 +28166,7 @@
         <v>2.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127" t="n">
         <v>2.08</v>
@@ -28387,7 +28387,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR128" t="n">
         <v>1.87</v>
@@ -28602,10 +28602,10 @@
         <v>0.2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR129" t="n">
         <v>1.52</v>
@@ -29041,7 +29041,7 @@
         <v>2</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR131" t="n">
         <v>1.3</v>
@@ -29256,7 +29256,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.77</v>
@@ -29474,7 +29474,7 @@
         <v>1.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.5</v>
@@ -29692,7 +29692,7 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.25</v>
@@ -30567,7 +30567,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR138" t="n">
         <v>1.32</v>
@@ -31875,7 +31875,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR144" t="n">
         <v>1.32</v>
@@ -32311,7 +32311,7 @@
         <v>1</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR146" t="n">
         <v>1.18</v>
@@ -32529,7 +32529,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR147" t="n">
         <v>1.52</v>
@@ -32744,7 +32744,7 @@
         <v>2</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ148" t="n">
         <v>2.08</v>
@@ -33398,7 +33398,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -33619,7 +33619,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR152" t="n">
         <v>1.39</v>
@@ -34052,7 +34052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ154" t="n">
         <v>1</v>
@@ -34270,7 +34270,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.25</v>
@@ -34709,7 +34709,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157" t="n">
         <v>1.2</v>
@@ -34927,7 +34927,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR158" t="n">
         <v>1.3</v>
@@ -35142,7 +35142,7 @@
         <v>1.29</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.33</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.67</v>
@@ -35796,7 +35796,7 @@
         <v>1.25</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ162" t="n">
         <v>1</v>
@@ -36017,7 +36017,7 @@
         <v>1</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR163" t="n">
         <v>1.2</v>
@@ -36235,7 +36235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36668,7 +36668,7 @@
         <v>1.13</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.25</v>
@@ -37104,7 +37104,7 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.25</v>
@@ -37543,7 +37543,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR170" t="n">
         <v>1.74</v>
@@ -37758,10 +37758,10 @@
         <v>0.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR171" t="n">
         <v>1.52</v>
@@ -38848,10 +38848,10 @@
         <v>1</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR176" t="n">
         <v>1.63</v>
@@ -39284,10 +39284,10 @@
         <v>1</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -39723,7 +39723,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR180" t="n">
         <v>1.54</v>
@@ -40156,7 +40156,7 @@
         <v>1.56</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.25</v>
@@ -40374,7 +40374,7 @@
         <v>1.44</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.25</v>
@@ -40592,7 +40592,7 @@
         <v>1.22</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.25</v>
@@ -40810,10 +40810,10 @@
         <v>1.5</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR185" t="n">
         <v>1.38</v>
@@ -41685,7 +41685,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR189" t="n">
         <v>1.24</v>
@@ -41903,7 +41903,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ190" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR190" t="n">
         <v>1.75</v>
@@ -42554,10 +42554,10 @@
         <v>0.89</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR193" t="n">
         <v>1.44</v>
@@ -43429,7 +43429,7 @@
         <v>1</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR197" t="n">
         <v>1.11</v>
@@ -43865,7 +43865,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR199" t="n">
         <v>1.76</v>
@@ -44080,7 +44080,7 @@
         <v>0.6</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.77</v>
@@ -44737,7 +44737,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR203" t="n">
         <v>1.26</v>
@@ -44952,10 +44952,10 @@
         <v>1.89</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ204" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR204" t="n">
         <v>1.48</v>
@@ -45170,7 +45170,7 @@
         <v>1.7</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.75</v>
@@ -45824,10 +45824,10 @@
         <v>1.2</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR208" t="n">
         <v>1.56</v>
@@ -46478,7 +46478,7 @@
         <v>1.1</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ211" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ213" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -47135,7 +47135,7 @@
         <v>1</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR214" t="n">
         <v>1.11</v>
@@ -48004,7 +48004,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.33</v>
@@ -49094,10 +49094,10 @@
         <v>0.73</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR223" t="n">
         <v>1.2</v>
@@ -49315,7 +49315,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR224" t="n">
         <v>1.1</v>
@@ -49533,7 +49533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR225" t="n">
         <v>1.44</v>
@@ -49748,7 +49748,7 @@
         <v>1.27</v>
       </c>
       <c r="AP226" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.25</v>
@@ -49966,7 +49966,7 @@
         <v>1.5</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.5</v>
@@ -50620,10 +50620,10 @@
         <v>2</v>
       </c>
       <c r="AP230" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ230" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR230" t="n">
         <v>1.54</v>
@@ -50838,7 +50838,7 @@
         <v>1.09</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.25</v>
@@ -52149,7 +52149,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AR237" t="n">
         <v>1.28</v>
@@ -52364,7 +52364,7 @@
         <v>0.83</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ238" t="n">
         <v>0.77</v>
@@ -53097,6 +53097,1314 @@
       </c>
       <c r="BP241" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6846200</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45338.6875</v>
+      </c>
+      <c r="F242" t="n">
+        <v>25</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2</v>
+      </c>
+      <c r="S242" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X242" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6846201</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45339.41666666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>25</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>FeralpiSalò</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S243" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X243" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6846203</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45339.41666666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>25</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>2</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>3</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['4', '45+3', '54']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X244" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6846205</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45339.41666666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>25</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>3</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>5</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['25', '81', '90+5']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['35', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S245" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6846206</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45339.41666666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>25</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['9', '75']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2</v>
+      </c>
+      <c r="S246" t="n">
+        <v>4</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X246" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>6846207</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45339.41666666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>25</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>3</v>
+      </c>
+      <c r="L247" t="n">
+        <v>4</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>6</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['37', '40', '50', '90+2']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['2', '78']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>3</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2</v>
+      </c>
+      <c r="S247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X247" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="389">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,18 @@
     <t>['38', '90']</t>
   </si>
   <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['8', '73']</t>
+  </si>
+  <si>
+    <t>['6', '65']</t>
+  </si>
+  <si>
+    <t>['45', '88']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -1167,6 +1179,9 @@
   <si>
     <t>['31', '89']</t>
   </si>
+  <si>
+    <t>['34', '45+7', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1527,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2070,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
         <v>0.93</v>
@@ -2276,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2404,7 +2419,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2610,7 +2625,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2897,7 +2912,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3100,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3309,7 +3324,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3434,7 +3449,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
@@ -3924,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4130,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
         <v>0.93</v>
@@ -4258,7 +4273,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>2.75</v>
@@ -4339,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4542,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ15">
         <v>0.86</v>
@@ -4670,7 +4685,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q16">
         <v>3.25</v>
@@ -4751,7 +4766,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ16">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4876,7 +4891,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q17">
         <v>2.87</v>
@@ -4954,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5082,7 +5097,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q18">
         <v>3.8</v>
@@ -5288,7 +5303,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q19">
         <v>3.48</v>
@@ -5366,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
         <v>2.07</v>
@@ -5575,7 +5590,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ20">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5700,7 +5715,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5778,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
         <v>1.21</v>
@@ -5906,7 +5921,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6112,7 +6127,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6396,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6808,7 +6823,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ26">
         <v>1.36</v>
@@ -7017,7 +7032,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7220,10 +7235,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.18</v>
@@ -7838,7 +7853,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7966,7 +7981,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8250,10 +8265,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ33">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -9074,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>0.86</v>
@@ -9408,7 +9423,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9486,10 +9501,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9820,7 +9835,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9901,7 +9916,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.66</v>
@@ -10026,7 +10041,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10232,7 +10247,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -10310,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
         <v>2.07</v>
@@ -10438,7 +10453,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10519,7 +10534,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.04</v>
@@ -10644,7 +10659,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11340,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
         <v>0.73</v>
@@ -11549,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
         <v>1.16</v>
@@ -11674,7 +11689,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q50">
         <v>2.35</v>
@@ -11752,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
         <v>0.93</v>
@@ -11880,7 +11895,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -12086,7 +12101,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12164,10 +12179,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.14</v>
@@ -12292,7 +12307,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12373,7 +12388,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ53">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.21</v>
@@ -12498,7 +12513,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12782,7 +12797,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12910,7 +12925,7 @@
         <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>3.65</v>
@@ -12988,7 +13003,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
         <v>2.14</v>
@@ -13116,7 +13131,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13197,7 +13212,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13322,7 +13337,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13609,7 +13624,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -14224,10 +14239,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>1.24</v>
@@ -14430,7 +14445,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14842,7 +14857,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14970,7 +14985,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15048,7 +15063,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>1.21</v>
@@ -15176,7 +15191,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15254,7 +15269,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -15382,7 +15397,7 @@
         <v>103</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15588,7 +15603,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15875,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -16287,7 +16302,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ72">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.86</v>
@@ -16412,7 +16427,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16493,7 +16508,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.3</v>
@@ -16618,7 +16633,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16824,7 +16839,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16902,7 +16917,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ75">
         <v>2.07</v>
@@ -17111,7 +17126,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.05</v>
@@ -17314,7 +17329,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ77">
         <v>0.73</v>
@@ -17442,7 +17457,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>2.95</v>
@@ -17520,7 +17535,7 @@
         <v>2.5</v>
       </c>
       <c r="AP78">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -18060,7 +18075,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18472,7 +18487,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18553,7 +18568,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.32</v>
@@ -18678,7 +18693,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18962,7 +18977,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ85">
         <v>1.36</v>
@@ -19168,10 +19183,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19296,7 +19311,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q87">
         <v>2.63</v>
@@ -19502,7 +19517,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19580,10 +19595,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ88">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>1.83</v>
@@ -19708,7 +19723,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19992,7 +20007,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20201,7 +20216,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20404,10 +20419,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.36</v>
@@ -20944,7 +20959,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q95">
         <v>2.63</v>
@@ -21150,7 +21165,7 @@
         <v>90</v>
       </c>
       <c r="P96" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q96">
         <v>3.3</v>
@@ -21356,7 +21371,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q97">
         <v>2.35</v>
@@ -21434,7 +21449,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ97">
         <v>0.73</v>
@@ -21562,7 +21577,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -21846,7 +21861,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ99">
         <v>1.21</v>
@@ -22386,7 +22401,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>3.3</v>
@@ -22467,7 +22482,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.04</v>
@@ -22592,7 +22607,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22798,7 +22813,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>1.95</v>
@@ -23210,7 +23225,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>3.5</v>
@@ -23494,10 +23509,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ107">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.39</v>
@@ -23622,7 +23637,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q108">
         <v>2.91</v>
@@ -23703,7 +23718,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR108">
         <v>1.3</v>
@@ -23828,7 +23843,7 @@
         <v>90</v>
       </c>
       <c r="P109" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>3.4</v>
@@ -24112,10 +24127,10 @@
         <v>1.4</v>
       </c>
       <c r="AP110">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -24318,10 +24333,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24446,7 +24461,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24524,7 +24539,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ112">
         <v>1.21</v>
@@ -25064,7 +25079,7 @@
         <v>129</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>2.35</v>
@@ -25348,10 +25363,10 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25554,7 +25569,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25763,7 +25778,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR118">
         <v>2.02</v>
@@ -26094,7 +26109,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26300,7 +26315,7 @@
         <v>90</v>
       </c>
       <c r="P121" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26381,7 +26396,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR121">
         <v>1.41</v>
@@ -26584,10 +26599,10 @@
         <v>1.33</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26712,7 +26727,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q123">
         <v>3.9</v>
@@ -26918,7 +26933,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>3.3</v>
@@ -27124,7 +27139,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q125">
         <v>2.7</v>
@@ -27202,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125">
         <v>1.5</v>
@@ -27330,7 +27345,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>3.9</v>
@@ -27536,7 +27551,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27742,7 +27757,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q128">
         <v>2.35</v>
@@ -27948,7 +27963,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28026,10 +28041,10 @@
         <v>0.2</v>
       </c>
       <c r="AP129">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ129">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.52</v>
@@ -28441,7 +28456,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -28566,7 +28581,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28772,7 +28787,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -29056,7 +29071,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ134">
         <v>1.21</v>
@@ -29262,7 +29277,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ135">
         <v>0.73</v>
@@ -29471,7 +29486,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR136">
         <v>1.34</v>
@@ -29674,10 +29689,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>1.34</v>
@@ -29880,7 +29895,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ138">
         <v>1.21</v>
@@ -30008,7 +30023,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30501,7 +30516,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR141">
         <v>1.05</v>
@@ -30626,7 +30641,7 @@
         <v>125</v>
       </c>
       <c r="P142" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q142">
         <v>2.45</v>
@@ -31116,7 +31131,7 @@
         <v>2.67</v>
       </c>
       <c r="AP144">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144">
         <v>2.14</v>
@@ -31322,10 +31337,10 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
         <v>1.36</v>
@@ -31450,7 +31465,7 @@
         <v>90</v>
       </c>
       <c r="P146" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31656,7 +31671,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q147">
         <v>2.7</v>
@@ -31734,10 +31749,10 @@
         <v>0.33</v>
       </c>
       <c r="AP147">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ147">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.52</v>
@@ -31940,7 +31955,7 @@
         <v>2</v>
       </c>
       <c r="AP148">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ148">
         <v>2.07</v>
@@ -32068,7 +32083,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q149">
         <v>3.65</v>
@@ -32149,7 +32164,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR149">
         <v>1.08</v>
@@ -32274,7 +32289,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -33098,7 +33113,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33304,7 +33319,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>2.68</v>
@@ -33385,7 +33400,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ155">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
         <v>1.4</v>
@@ -33588,7 +33603,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ156">
         <v>1.5</v>
@@ -33797,7 +33812,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.2</v>
@@ -34000,7 +34015,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ158">
         <v>1.36</v>
@@ -34209,7 +34224,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ159">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR159">
         <v>1.31</v>
@@ -34540,7 +34555,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q161">
         <v>2.86</v>
@@ -34618,7 +34633,7 @@
         <v>2</v>
       </c>
       <c r="AP161">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ161">
         <v>1.5</v>
@@ -34824,7 +34839,7 @@
         <v>1.25</v>
       </c>
       <c r="AP162">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ162">
         <v>0.86</v>
@@ -35236,7 +35251,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35364,7 +35379,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35445,7 +35460,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ165">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR165">
         <v>1.42</v>
@@ -35570,7 +35585,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q166">
         <v>3.35</v>
@@ -35857,7 +35872,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ167">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR167">
         <v>1.1</v>
@@ -36266,7 +36281,7 @@
         <v>2.14</v>
       </c>
       <c r="AP169">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
         <v>2.07</v>
@@ -36394,7 +36409,7 @@
         <v>197</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36600,7 +36615,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36681,7 +36696,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ171">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.52</v>
@@ -36806,7 +36821,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -37012,7 +37027,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q173">
         <v>2.87</v>
@@ -37502,7 +37517,7 @@
         <v>1.63</v>
       </c>
       <c r="AP175">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ175">
         <v>1.21</v>
@@ -37630,7 +37645,7 @@
         <v>203</v>
       </c>
       <c r="P176" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q176">
         <v>2.2</v>
@@ -37708,10 +37723,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ176">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.63</v>
@@ -37836,7 +37851,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>2.7</v>
@@ -37914,10 +37929,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ177">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -38326,7 +38341,7 @@
         <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ179">
         <v>0.93</v>
@@ -38454,7 +38469,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q180">
         <v>2.15</v>
@@ -38535,7 +38550,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ180">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.54</v>
@@ -38660,7 +38675,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38741,7 +38756,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ181">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR181">
         <v>1.06</v>
@@ -39150,7 +39165,7 @@
         <v>1.44</v>
       </c>
       <c r="AP183">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ183">
         <v>1.21</v>
@@ -39359,7 +39374,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ184">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR184">
         <v>1.59</v>
@@ -39690,7 +39705,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39768,10 +39783,10 @@
         <v>1.56</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ186">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR186">
         <v>1.51</v>
@@ -39896,7 +39911,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40102,7 +40117,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40514,7 +40529,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q190">
         <v>3.1</v>
@@ -40926,7 +40941,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41004,7 +41019,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ192">
         <v>0.73</v>
@@ -41132,7 +41147,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41213,7 +41228,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ193">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.44</v>
@@ -41338,7 +41353,7 @@
         <v>126</v>
       </c>
       <c r="P194" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -41416,10 +41431,10 @@
         <v>1.44</v>
       </c>
       <c r="AP194">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ194">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -42037,7 +42052,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ197">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.11</v>
@@ -42162,7 +42177,7 @@
         <v>217</v>
       </c>
       <c r="P198" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q198">
         <v>2.75</v>
@@ -42240,10 +42255,10 @@
         <v>1.22</v>
       </c>
       <c r="AP198">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ198">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR198">
         <v>1.25</v>
@@ -42446,7 +42461,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ199">
         <v>1.21</v>
@@ -42652,7 +42667,7 @@
         <v>0.6</v>
       </c>
       <c r="AP200">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ200">
         <v>0.93</v>
@@ -42780,7 +42795,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -42986,7 +43001,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>3.42</v>
@@ -43192,7 +43207,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q203">
         <v>3.3</v>
@@ -43476,7 +43491,7 @@
         <v>1.89</v>
       </c>
       <c r="AP204">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ204">
         <v>2.14</v>
@@ -43604,7 +43619,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43685,7 +43700,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ205">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR205">
         <v>1.18</v>
@@ -43810,7 +43825,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q206">
         <v>2.85</v>
@@ -43891,7 +43906,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ206">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR206">
         <v>1.09</v>
@@ -44222,7 +44237,7 @@
         <v>125</v>
       </c>
       <c r="P208" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q208">
         <v>3.3</v>
@@ -44428,7 +44443,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q209">
         <v>3.98</v>
@@ -44506,7 +44521,7 @@
         <v>1.67</v>
       </c>
       <c r="AP209">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ209">
         <v>1.5</v>
@@ -44634,7 +44649,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44840,7 +44855,7 @@
         <v>225</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -45124,7 +45139,7 @@
         <v>1.6</v>
       </c>
       <c r="AP212">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ212">
         <v>1.5</v>
@@ -45333,7 +45348,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ213">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -45742,10 +45757,10 @@
         <v>1.6</v>
       </c>
       <c r="AP215">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ215">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR215">
         <v>1.75</v>
@@ -45948,7 +45963,7 @@
         <v>2.2</v>
       </c>
       <c r="AP216">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ216">
         <v>2.07</v>
@@ -46076,7 +46091,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q217">
         <v>2.4</v>
@@ -46363,7 +46378,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ218">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR218">
         <v>1.45</v>
@@ -46694,7 +46709,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -46772,7 +46787,7 @@
         <v>0.82</v>
       </c>
       <c r="AP220">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ220">
         <v>1</v>
@@ -46900,7 +46915,7 @@
         <v>112</v>
       </c>
       <c r="P221" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q221">
         <v>2.75</v>
@@ -47393,7 +47408,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ223">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR223">
         <v>1.2</v>
@@ -47802,7 +47817,7 @@
         <v>1.36</v>
       </c>
       <c r="AP225">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ225">
         <v>1.36</v>
@@ -48008,7 +48023,7 @@
         <v>1.27</v>
       </c>
       <c r="AP226">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ226">
         <v>1.5</v>
@@ -48214,7 +48229,7 @@
         <v>1.5</v>
       </c>
       <c r="AP227">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ227">
         <v>1.5</v>
@@ -48342,7 +48357,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q228">
         <v>3.3</v>
@@ -48423,7 +48438,7 @@
         <v>1</v>
       </c>
       <c r="AQ228">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR228">
         <v>1.29</v>
@@ -48548,7 +48563,7 @@
         <v>235</v>
       </c>
       <c r="P229" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -48960,7 +48975,7 @@
         <v>115</v>
       </c>
       <c r="P231" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49041,7 +49056,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ231">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR231">
         <v>1.46</v>
@@ -49247,7 +49262,7 @@
         <v>2</v>
       </c>
       <c r="AQ232">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR232">
         <v>1.47</v>
@@ -49372,7 +49387,7 @@
         <v>90</v>
       </c>
       <c r="P233" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q233">
         <v>4.6</v>
@@ -49578,7 +49593,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -49784,7 +49799,7 @@
         <v>182</v>
       </c>
       <c r="P235" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -49862,10 +49877,10 @@
         <v>1.36</v>
       </c>
       <c r="AP235">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ235">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR235">
         <v>1.71</v>
@@ -49990,7 +50005,7 @@
         <v>92</v>
       </c>
       <c r="P236" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50274,7 +50289,7 @@
         <v>1.09</v>
       </c>
       <c r="AP237">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ237">
         <v>1.21</v>
@@ -50608,7 +50623,7 @@
         <v>239</v>
       </c>
       <c r="P239" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q239">
         <v>2.76</v>
@@ -50686,7 +50701,7 @@
         <v>0.83</v>
       </c>
       <c r="AP239">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ239">
         <v>0.93</v>
@@ -50892,7 +50907,7 @@
         <v>1.36</v>
       </c>
       <c r="AP240">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ240">
         <v>1.5</v>
@@ -51513,7 +51528,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ243">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR243">
         <v>1.4</v>
@@ -51638,7 +51653,7 @@
         <v>166</v>
       </c>
       <c r="P244" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51844,7 +51859,7 @@
         <v>243</v>
       </c>
       <c r="P245" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q245">
         <v>2.38</v>
@@ -51922,7 +51937,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ245">
         <v>1.36</v>
@@ -52050,7 +52065,7 @@
         <v>90</v>
       </c>
       <c r="P246" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52131,7 +52146,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ246">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR246">
         <v>1.27</v>
@@ -52256,7 +52271,7 @@
         <v>244</v>
       </c>
       <c r="P247" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52334,7 +52349,7 @@
         <v>1.18</v>
       </c>
       <c r="AP247">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ247">
         <v>1</v>
@@ -52462,7 +52477,7 @@
         <v>245</v>
       </c>
       <c r="P248" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -52540,10 +52555,10 @@
         <v>1.25</v>
       </c>
       <c r="AP248">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ248">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR248">
         <v>1.29</v>
@@ -52749,7 +52764,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ249">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR249">
         <v>1.75</v>
@@ -52955,7 +52970,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ250">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR250">
         <v>1.53</v>
@@ -53080,7 +53095,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53286,7 +53301,7 @@
         <v>249</v>
       </c>
       <c r="P252" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53364,7 +53379,7 @@
         <v>1.25</v>
       </c>
       <c r="AP252">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ252">
         <v>1.5</v>
@@ -53779,7 +53794,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ254">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR254">
         <v>1.16</v>
@@ -53904,7 +53919,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54110,7 +54125,7 @@
         <v>251</v>
       </c>
       <c r="P256" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54188,7 +54203,7 @@
         <v>1.67</v>
       </c>
       <c r="AP256">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ256">
         <v>1.5</v>
@@ -54316,7 +54331,7 @@
         <v>226</v>
       </c>
       <c r="P257" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q257">
         <v>2.75</v>
@@ -54934,7 +54949,7 @@
         <v>253</v>
       </c>
       <c r="P260" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q260">
         <v>3</v>
@@ -55012,7 +55027,7 @@
         <v>1.5</v>
       </c>
       <c r="AP260">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ260">
         <v>1.5</v>
@@ -55218,7 +55233,7 @@
         <v>1</v>
       </c>
       <c r="AP261">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ261">
         <v>1</v>
@@ -55427,7 +55442,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ262">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR262">
         <v>1.41</v>
@@ -55633,7 +55648,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ263">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR263">
         <v>1.3</v>
@@ -55836,7 +55851,7 @@
         <v>0.92</v>
       </c>
       <c r="AP264">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ264">
         <v>0.86</v>
@@ -55964,7 +55979,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q265">
         <v>4.73</v>
@@ -56045,7 +56060,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ265">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR265">
         <v>1.55</v>
@@ -56170,7 +56185,7 @@
         <v>256</v>
       </c>
       <c r="P266" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q266">
         <v>2.28</v>
@@ -56251,7 +56266,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ266">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -56376,7 +56391,7 @@
         <v>257</v>
       </c>
       <c r="P267" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q267">
         <v>2.23</v>
@@ -56454,7 +56469,7 @@
         <v>1.23</v>
       </c>
       <c r="AP267">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ267">
         <v>1.21</v>
@@ -56582,7 +56597,7 @@
         <v>152</v>
       </c>
       <c r="P268" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q268">
         <v>3.89</v>
@@ -56788,7 +56803,7 @@
         <v>258</v>
       </c>
       <c r="P269" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -56866,7 +56881,7 @@
         <v>1.23</v>
       </c>
       <c r="AP269">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ269">
         <v>1.21</v>
@@ -56994,7 +57009,7 @@
         <v>90</v>
       </c>
       <c r="P270" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57072,10 +57087,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP270">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ270">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR270">
         <v>1.5</v>
@@ -57612,7 +57627,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57818,7 +57833,7 @@
         <v>133</v>
       </c>
       <c r="P274" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -58024,7 +58039,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58311,7 +58326,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ276">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR276">
         <v>1.5</v>
@@ -58848,7 +58863,7 @@
         <v>261</v>
       </c>
       <c r="P279" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59054,7 +59069,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -59132,7 +59147,7 @@
         <v>1.38</v>
       </c>
       <c r="AP280">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ280">
         <v>1.5</v>
@@ -59338,7 +59353,7 @@
         <v>2.08</v>
       </c>
       <c r="AP281">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ281">
         <v>2.14</v>
@@ -59417,6 +59432,1448 @@
       </c>
       <c r="BP281">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7195375</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45359.6875</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>76</v>
+      </c>
+      <c r="H282" t="s">
+        <v>87</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>2</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>3</v>
+      </c>
+      <c r="O282" t="s">
+        <v>262</v>
+      </c>
+      <c r="P282" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q282">
+        <v>2.15</v>
+      </c>
+      <c r="R282">
+        <v>2.23</v>
+      </c>
+      <c r="S282">
+        <v>5.55</v>
+      </c>
+      <c r="T282">
+        <v>1.39</v>
+      </c>
+      <c r="U282">
+        <v>2.86</v>
+      </c>
+      <c r="V282">
+        <v>2.78</v>
+      </c>
+      <c r="W282">
+        <v>1.41</v>
+      </c>
+      <c r="X282">
+        <v>7</v>
+      </c>
+      <c r="Y282">
+        <v>1.08</v>
+      </c>
+      <c r="Z282">
+        <v>1.57</v>
+      </c>
+      <c r="AA282">
+        <v>4</v>
+      </c>
+      <c r="AB282">
+        <v>5.5</v>
+      </c>
+      <c r="AC282">
+        <v>1.02</v>
+      </c>
+      <c r="AD282">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE282">
+        <v>1.27</v>
+      </c>
+      <c r="AF282">
+        <v>3.28</v>
+      </c>
+      <c r="AG282">
+        <v>1.93</v>
+      </c>
+      <c r="AH282">
+        <v>1.93</v>
+      </c>
+      <c r="AI282">
+        <v>1.94</v>
+      </c>
+      <c r="AJ282">
+        <v>1.81</v>
+      </c>
+      <c r="AK282">
+        <v>1.14</v>
+      </c>
+      <c r="AL282">
+        <v>1.24</v>
+      </c>
+      <c r="AM282">
+        <v>2.36</v>
+      </c>
+      <c r="AN282">
+        <v>2.14</v>
+      </c>
+      <c r="AO282">
+        <v>1.29</v>
+      </c>
+      <c r="AP282">
+        <v>2.2</v>
+      </c>
+      <c r="AQ282">
+        <v>1.2</v>
+      </c>
+      <c r="AR282">
+        <v>1.68</v>
+      </c>
+      <c r="AS282">
+        <v>1.24</v>
+      </c>
+      <c r="AT282">
+        <v>2.92</v>
+      </c>
+      <c r="AU282">
+        <v>6</v>
+      </c>
+      <c r="AV282">
+        <v>7</v>
+      </c>
+      <c r="AW282">
+        <v>6</v>
+      </c>
+      <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
+        <v>12</v>
+      </c>
+      <c r="AZ282">
+        <v>13</v>
+      </c>
+      <c r="BA282">
+        <v>2</v>
+      </c>
+      <c r="BB282">
+        <v>2</v>
+      </c>
+      <c r="BC282">
+        <v>4</v>
+      </c>
+      <c r="BD282">
+        <v>1.41</v>
+      </c>
+      <c r="BE282">
+        <v>9</v>
+      </c>
+      <c r="BF282">
+        <v>3.58</v>
+      </c>
+      <c r="BG282">
+        <v>1.27</v>
+      </c>
+      <c r="BH282">
+        <v>3.55</v>
+      </c>
+      <c r="BI282">
+        <v>1.5</v>
+      </c>
+      <c r="BJ282">
+        <v>2.48</v>
+      </c>
+      <c r="BK282">
+        <v>1.92</v>
+      </c>
+      <c r="BL282">
+        <v>1.88</v>
+      </c>
+      <c r="BM282">
+        <v>2.45</v>
+      </c>
+      <c r="BN282">
+        <v>1.5</v>
+      </c>
+      <c r="BO282">
+        <v>3.4</v>
+      </c>
+      <c r="BP282">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6846243</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F283">
+        <v>29</v>
+      </c>
+      <c r="G283" t="s">
+        <v>89</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>263</v>
+      </c>
+      <c r="P283" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q283">
+        <v>2.98</v>
+      </c>
+      <c r="R283">
+        <v>1.97</v>
+      </c>
+      <c r="S283">
+        <v>4.94</v>
+      </c>
+      <c r="T283">
+        <v>1.61</v>
+      </c>
+      <c r="U283">
+        <v>2.36</v>
+      </c>
+      <c r="V283">
+        <v>3.5</v>
+      </c>
+      <c r="W283">
+        <v>1.26</v>
+      </c>
+      <c r="X283">
+        <v>10</v>
+      </c>
+      <c r="Y283">
+        <v>1.04</v>
+      </c>
+      <c r="Z283">
+        <v>2.05</v>
+      </c>
+      <c r="AA283">
+        <v>2.9</v>
+      </c>
+      <c r="AB283">
+        <v>4.1</v>
+      </c>
+      <c r="AC283">
+        <v>1.08</v>
+      </c>
+      <c r="AD283">
+        <v>5.95</v>
+      </c>
+      <c r="AE283">
+        <v>1.53</v>
+      </c>
+      <c r="AF283">
+        <v>2.38</v>
+      </c>
+      <c r="AG283">
+        <v>2.47</v>
+      </c>
+      <c r="AH283">
+        <v>1.48</v>
+      </c>
+      <c r="AI283">
+        <v>2.15</v>
+      </c>
+      <c r="AJ283">
+        <v>1.6</v>
+      </c>
+      <c r="AK283">
+        <v>1.25</v>
+      </c>
+      <c r="AL283">
+        <v>1.35</v>
+      </c>
+      <c r="AM283">
+        <v>1.71</v>
+      </c>
+      <c r="AN283">
+        <v>0.92</v>
+      </c>
+      <c r="AO283">
+        <v>1.21</v>
+      </c>
+      <c r="AP283">
+        <v>1.07</v>
+      </c>
+      <c r="AQ283">
+        <v>1.13</v>
+      </c>
+      <c r="AR283">
+        <v>1.5</v>
+      </c>
+      <c r="AS283">
+        <v>1.05</v>
+      </c>
+      <c r="AT283">
+        <v>2.55</v>
+      </c>
+      <c r="AU283">
+        <v>5</v>
+      </c>
+      <c r="AV283">
+        <v>3</v>
+      </c>
+      <c r="AW283">
+        <v>4</v>
+      </c>
+      <c r="AX283">
+        <v>6</v>
+      </c>
+      <c r="AY283">
+        <v>9</v>
+      </c>
+      <c r="AZ283">
+        <v>9</v>
+      </c>
+      <c r="BA283">
+        <v>5</v>
+      </c>
+      <c r="BB283">
+        <v>6</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>1.41</v>
+      </c>
+      <c r="BE283">
+        <v>9</v>
+      </c>
+      <c r="BF283">
+        <v>3.58</v>
+      </c>
+      <c r="BG283">
+        <v>1.25</v>
+      </c>
+      <c r="BH283">
+        <v>3.7</v>
+      </c>
+      <c r="BI283">
+        <v>1.47</v>
+      </c>
+      <c r="BJ283">
+        <v>2.55</v>
+      </c>
+      <c r="BK283">
+        <v>1.8</v>
+      </c>
+      <c r="BL283">
+        <v>2</v>
+      </c>
+      <c r="BM283">
+        <v>2.38</v>
+      </c>
+      <c r="BN283">
+        <v>1.54</v>
+      </c>
+      <c r="BO283">
+        <v>3.25</v>
+      </c>
+      <c r="BP283">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6846240</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F284">
+        <v>29</v>
+      </c>
+      <c r="G284" t="s">
+        <v>79</v>
+      </c>
+      <c r="H284" t="s">
+        <v>81</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>3</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>3</v>
+      </c>
+      <c r="N284">
+        <v>5</v>
+      </c>
+      <c r="O284" t="s">
+        <v>264</v>
+      </c>
+      <c r="P284" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q284">
+        <v>2.6</v>
+      </c>
+      <c r="R284">
+        <v>2.05</v>
+      </c>
+      <c r="S284">
+        <v>4.75</v>
+      </c>
+      <c r="T284">
+        <v>1.44</v>
+      </c>
+      <c r="U284">
+        <v>2.63</v>
+      </c>
+      <c r="V284">
+        <v>3.4</v>
+      </c>
+      <c r="W284">
+        <v>1.3</v>
+      </c>
+      <c r="X284">
+        <v>10</v>
+      </c>
+      <c r="Y284">
+        <v>1.06</v>
+      </c>
+      <c r="Z284">
+        <v>1.75</v>
+      </c>
+      <c r="AA284">
+        <v>3.3</v>
+      </c>
+      <c r="AB284">
+        <v>5</v>
+      </c>
+      <c r="AC284">
+        <v>1.05</v>
+      </c>
+      <c r="AD284">
+        <v>7.5</v>
+      </c>
+      <c r="AE284">
+        <v>1.35</v>
+      </c>
+      <c r="AF284">
+        <v>2.9</v>
+      </c>
+      <c r="AG284">
+        <v>2.15</v>
+      </c>
+      <c r="AH284">
+        <v>1.65</v>
+      </c>
+      <c r="AI284">
+        <v>2</v>
+      </c>
+      <c r="AJ284">
+        <v>1.75</v>
+      </c>
+      <c r="AK284">
+        <v>1.2</v>
+      </c>
+      <c r="AL284">
+        <v>1.25</v>
+      </c>
+      <c r="AM284">
+        <v>1.87</v>
+      </c>
+      <c r="AN284">
+        <v>1.36</v>
+      </c>
+      <c r="AO284">
+        <v>0.86</v>
+      </c>
+      <c r="AP284">
+        <v>1.27</v>
+      </c>
+      <c r="AQ284">
+        <v>1</v>
+      </c>
+      <c r="AR284">
+        <v>1.39</v>
+      </c>
+      <c r="AS284">
+        <v>1.18</v>
+      </c>
+      <c r="AT284">
+        <v>2.57</v>
+      </c>
+      <c r="AU284">
+        <v>7</v>
+      </c>
+      <c r="AV284">
+        <v>6</v>
+      </c>
+      <c r="AW284">
+        <v>8</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>15</v>
+      </c>
+      <c r="AZ284">
+        <v>10</v>
+      </c>
+      <c r="BA284">
+        <v>7</v>
+      </c>
+      <c r="BB284">
+        <v>5</v>
+      </c>
+      <c r="BC284">
+        <v>12</v>
+      </c>
+      <c r="BD284">
+        <v>1.45</v>
+      </c>
+      <c r="BE284">
+        <v>8.5</v>
+      </c>
+      <c r="BF284">
+        <v>3.29</v>
+      </c>
+      <c r="BG284">
+        <v>1.25</v>
+      </c>
+      <c r="BH284">
+        <v>3.7</v>
+      </c>
+      <c r="BI284">
+        <v>1.47</v>
+      </c>
+      <c r="BJ284">
+        <v>2.55</v>
+      </c>
+      <c r="BK284">
+        <v>1.82</v>
+      </c>
+      <c r="BL284">
+        <v>1.98</v>
+      </c>
+      <c r="BM284">
+        <v>2.38</v>
+      </c>
+      <c r="BN284">
+        <v>1.54</v>
+      </c>
+      <c r="BO284">
+        <v>3.25</v>
+      </c>
+      <c r="BP284">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6846237</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F285">
+        <v>29</v>
+      </c>
+      <c r="G285" t="s">
+        <v>71</v>
+      </c>
+      <c r="H285" t="s">
+        <v>75</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285" t="s">
+        <v>90</v>
+      </c>
+      <c r="P285" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q285">
+        <v>3.23</v>
+      </c>
+      <c r="R285">
+        <v>2.08</v>
+      </c>
+      <c r="S285">
+        <v>3.9</v>
+      </c>
+      <c r="T285">
+        <v>1.5</v>
+      </c>
+      <c r="U285">
+        <v>2.65</v>
+      </c>
+      <c r="V285">
+        <v>3.3</v>
+      </c>
+      <c r="W285">
+        <v>1.28</v>
+      </c>
+      <c r="X285">
+        <v>9</v>
+      </c>
+      <c r="Y285">
+        <v>1.05</v>
+      </c>
+      <c r="Z285">
+        <v>2.7</v>
+      </c>
+      <c r="AA285">
+        <v>2.88</v>
+      </c>
+      <c r="AB285">
+        <v>2.8</v>
+      </c>
+      <c r="AC285">
+        <v>1.09</v>
+      </c>
+      <c r="AD285">
+        <v>7</v>
+      </c>
+      <c r="AE285">
+        <v>1.44</v>
+      </c>
+      <c r="AF285">
+        <v>2.7</v>
+      </c>
+      <c r="AG285">
+        <v>2.38</v>
+      </c>
+      <c r="AH285">
+        <v>1.53</v>
+      </c>
+      <c r="AI285">
+        <v>1.91</v>
+      </c>
+      <c r="AJ285">
+        <v>1.77</v>
+      </c>
+      <c r="AK285">
+        <v>1.4</v>
+      </c>
+      <c r="AL285">
+        <v>1.34</v>
+      </c>
+      <c r="AM285">
+        <v>1.51</v>
+      </c>
+      <c r="AN285">
+        <v>1.14</v>
+      </c>
+      <c r="AO285">
+        <v>1</v>
+      </c>
+      <c r="AP285">
+        <v>1.13</v>
+      </c>
+      <c r="AQ285">
+        <v>1</v>
+      </c>
+      <c r="AR285">
+        <v>1.43</v>
+      </c>
+      <c r="AS285">
+        <v>1.43</v>
+      </c>
+      <c r="AT285">
+        <v>2.86</v>
+      </c>
+      <c r="AU285">
+        <v>5</v>
+      </c>
+      <c r="AV285">
+        <v>4</v>
+      </c>
+      <c r="AW285">
+        <v>4</v>
+      </c>
+      <c r="AX285">
+        <v>5</v>
+      </c>
+      <c r="AY285">
+        <v>9</v>
+      </c>
+      <c r="AZ285">
+        <v>9</v>
+      </c>
+      <c r="BA285">
+        <v>6</v>
+      </c>
+      <c r="BB285">
+        <v>4</v>
+      </c>
+      <c r="BC285">
+        <v>10</v>
+      </c>
+      <c r="BD285">
+        <v>2</v>
+      </c>
+      <c r="BE285">
+        <v>8</v>
+      </c>
+      <c r="BF285">
+        <v>2.05</v>
+      </c>
+      <c r="BG285">
+        <v>1.27</v>
+      </c>
+      <c r="BH285">
+        <v>3.55</v>
+      </c>
+      <c r="BI285">
+        <v>1.5</v>
+      </c>
+      <c r="BJ285">
+        <v>2.48</v>
+      </c>
+      <c r="BK285">
+        <v>1.92</v>
+      </c>
+      <c r="BL285">
+        <v>1.88</v>
+      </c>
+      <c r="BM285">
+        <v>2.45</v>
+      </c>
+      <c r="BN285">
+        <v>1.5</v>
+      </c>
+      <c r="BO285">
+        <v>3.4</v>
+      </c>
+      <c r="BP285">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6846236</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45360.51041666666</v>
+      </c>
+      <c r="F286">
+        <v>29</v>
+      </c>
+      <c r="G286" t="s">
+        <v>82</v>
+      </c>
+      <c r="H286" t="s">
+        <v>83</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
+        <v>90</v>
+      </c>
+      <c r="P286" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q286">
+        <v>2.7</v>
+      </c>
+      <c r="R286">
+        <v>1.95</v>
+      </c>
+      <c r="S286">
+        <v>4.2</v>
+      </c>
+      <c r="T286">
+        <v>1.48</v>
+      </c>
+      <c r="U286">
+        <v>2.45</v>
+      </c>
+      <c r="V286">
+        <v>3.2</v>
+      </c>
+      <c r="W286">
+        <v>1.3</v>
+      </c>
+      <c r="X286">
+        <v>8.25</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>2.07</v>
+      </c>
+      <c r="AA286">
+        <v>3.06</v>
+      </c>
+      <c r="AB286">
+        <v>3.43</v>
+      </c>
+      <c r="AC286">
+        <v>1.08</v>
+      </c>
+      <c r="AD286">
+        <v>7.5</v>
+      </c>
+      <c r="AE286">
+        <v>1.42</v>
+      </c>
+      <c r="AF286">
+        <v>2.8</v>
+      </c>
+      <c r="AG286">
+        <v>2.11</v>
+      </c>
+      <c r="AH286">
+        <v>1.57</v>
+      </c>
+      <c r="AI286">
+        <v>1.91</v>
+      </c>
+      <c r="AJ286">
+        <v>1.77</v>
+      </c>
+      <c r="AK286">
+        <v>1.25</v>
+      </c>
+      <c r="AL286">
+        <v>1.28</v>
+      </c>
+      <c r="AM286">
+        <v>1.73</v>
+      </c>
+      <c r="AN286">
+        <v>1.93</v>
+      </c>
+      <c r="AO286">
+        <v>1.29</v>
+      </c>
+      <c r="AP286">
+        <v>1.8</v>
+      </c>
+      <c r="AQ286">
+        <v>1.4</v>
+      </c>
+      <c r="AR286">
+        <v>1.29</v>
+      </c>
+      <c r="AS286">
+        <v>1.08</v>
+      </c>
+      <c r="AT286">
+        <v>2.37</v>
+      </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
+      <c r="AV286">
+        <v>3</v>
+      </c>
+      <c r="AW286">
+        <v>7</v>
+      </c>
+      <c r="AX286">
+        <v>2</v>
+      </c>
+      <c r="AY286">
+        <v>14</v>
+      </c>
+      <c r="AZ286">
+        <v>5</v>
+      </c>
+      <c r="BA286">
+        <v>7</v>
+      </c>
+      <c r="BB286">
+        <v>2</v>
+      </c>
+      <c r="BC286">
+        <v>9</v>
+      </c>
+      <c r="BD286">
+        <v>1.75</v>
+      </c>
+      <c r="BE286">
+        <v>8</v>
+      </c>
+      <c r="BF286">
+        <v>2.44</v>
+      </c>
+      <c r="BG286">
+        <v>1.32</v>
+      </c>
+      <c r="BH286">
+        <v>3.2</v>
+      </c>
+      <c r="BI286">
+        <v>1.58</v>
+      </c>
+      <c r="BJ286">
+        <v>2.28</v>
+      </c>
+      <c r="BK286">
+        <v>2.02</v>
+      </c>
+      <c r="BL286">
+        <v>1.74</v>
+      </c>
+      <c r="BM286">
+        <v>2.7</v>
+      </c>
+      <c r="BN286">
+        <v>1.43</v>
+      </c>
+      <c r="BO286">
+        <v>3.8</v>
+      </c>
+      <c r="BP286">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6846238</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45360.51041666666</v>
+      </c>
+      <c r="F287">
+        <v>29</v>
+      </c>
+      <c r="G287" t="s">
+        <v>72</v>
+      </c>
+      <c r="H287" t="s">
+        <v>80</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>265</v>
+      </c>
+      <c r="P287" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q287">
+        <v>2.63</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>4.33</v>
+      </c>
+      <c r="T287">
+        <v>1.44</v>
+      </c>
+      <c r="U287">
+        <v>2.63</v>
+      </c>
+      <c r="V287">
+        <v>3</v>
+      </c>
+      <c r="W287">
+        <v>1.36</v>
+      </c>
+      <c r="X287">
+        <v>9</v>
+      </c>
+      <c r="Y287">
+        <v>1.07</v>
+      </c>
+      <c r="Z287">
+        <v>2.11</v>
+      </c>
+      <c r="AA287">
+        <v>3.18</v>
+      </c>
+      <c r="AB287">
+        <v>3.2</v>
+      </c>
+      <c r="AC287">
+        <v>1.03</v>
+      </c>
+      <c r="AD287">
+        <v>8.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.27</v>
+      </c>
+      <c r="AF287">
+        <v>3.4</v>
+      </c>
+      <c r="AG287">
+        <v>2</v>
+      </c>
+      <c r="AH287">
+        <v>1.88</v>
+      </c>
+      <c r="AI287">
+        <v>1.8</v>
+      </c>
+      <c r="AJ287">
+        <v>1.95</v>
+      </c>
+      <c r="AK287">
+        <v>1.2</v>
+      </c>
+      <c r="AL287">
+        <v>1.3</v>
+      </c>
+      <c r="AM287">
+        <v>1.77</v>
+      </c>
+      <c r="AN287">
+        <v>1.64</v>
+      </c>
+      <c r="AO287">
+        <v>1.71</v>
+      </c>
+      <c r="AP287">
+        <v>1.73</v>
+      </c>
+      <c r="AQ287">
+        <v>1.6</v>
+      </c>
+      <c r="AR287">
+        <v>1.73</v>
+      </c>
+      <c r="AS287">
+        <v>1.48</v>
+      </c>
+      <c r="AT287">
+        <v>3.21</v>
+      </c>
+      <c r="AU287">
+        <v>4</v>
+      </c>
+      <c r="AV287">
+        <v>2</v>
+      </c>
+      <c r="AW287">
+        <v>8</v>
+      </c>
+      <c r="AX287">
+        <v>1</v>
+      </c>
+      <c r="AY287">
+        <v>12</v>
+      </c>
+      <c r="AZ287">
+        <v>3</v>
+      </c>
+      <c r="BA287">
+        <v>7</v>
+      </c>
+      <c r="BB287">
+        <v>1</v>
+      </c>
+      <c r="BC287">
+        <v>8</v>
+      </c>
+      <c r="BD287">
+        <v>1.69</v>
+      </c>
+      <c r="BE287">
+        <v>8</v>
+      </c>
+      <c r="BF287">
+        <v>2.62</v>
+      </c>
+      <c r="BG287">
+        <v>1.27</v>
+      </c>
+      <c r="BH287">
+        <v>3.55</v>
+      </c>
+      <c r="BI287">
+        <v>1.5</v>
+      </c>
+      <c r="BJ287">
+        <v>2.48</v>
+      </c>
+      <c r="BK287">
+        <v>1.88</v>
+      </c>
+      <c r="BL287">
+        <v>1.92</v>
+      </c>
+      <c r="BM287">
+        <v>2.45</v>
+      </c>
+      <c r="BN287">
+        <v>1.5</v>
+      </c>
+      <c r="BO287">
+        <v>3.4</v>
+      </c>
+      <c r="BP287">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6846241</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45360.51041666666</v>
+      </c>
+      <c r="F288">
+        <v>29</v>
+      </c>
+      <c r="G288" t="s">
+        <v>84</v>
+      </c>
+      <c r="H288" t="s">
+        <v>73</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
+        <v>241</v>
+      </c>
+      <c r="P288" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q288">
+        <v>2.57</v>
+      </c>
+      <c r="R288">
+        <v>2.24</v>
+      </c>
+      <c r="S288">
+        <v>4.7</v>
+      </c>
+      <c r="T288">
+        <v>1.42</v>
+      </c>
+      <c r="U288">
+        <v>2.94</v>
+      </c>
+      <c r="V288">
+        <v>3.09</v>
+      </c>
+      <c r="W288">
+        <v>1.39</v>
+      </c>
+      <c r="X288">
+        <v>7.75</v>
+      </c>
+      <c r="Y288">
+        <v>1.07</v>
+      </c>
+      <c r="Z288">
+        <v>2.04</v>
+      </c>
+      <c r="AA288">
+        <v>3.15</v>
+      </c>
+      <c r="AB288">
+        <v>3.4</v>
+      </c>
+      <c r="AC288">
+        <v>1.03</v>
+      </c>
+      <c r="AD288">
+        <v>8.1</v>
+      </c>
+      <c r="AE288">
+        <v>1.3</v>
+      </c>
+      <c r="AF288">
+        <v>3.1</v>
+      </c>
+      <c r="AG288">
+        <v>1.94</v>
+      </c>
+      <c r="AH288">
+        <v>1.68</v>
+      </c>
+      <c r="AI288">
+        <v>1.83</v>
+      </c>
+      <c r="AJ288">
+        <v>1.85</v>
+      </c>
+      <c r="AK288">
+        <v>1.26</v>
+      </c>
+      <c r="AL288">
+        <v>1.3</v>
+      </c>
+      <c r="AM288">
+        <v>1.78</v>
+      </c>
+      <c r="AN288">
+        <v>1.07</v>
+      </c>
+      <c r="AO288">
+        <v>1.08</v>
+      </c>
+      <c r="AP288">
+        <v>1.2</v>
+      </c>
+      <c r="AQ288">
+        <v>1</v>
+      </c>
+      <c r="AR288">
+        <v>1.35</v>
+      </c>
+      <c r="AS288">
+        <v>1.41</v>
+      </c>
+      <c r="AT288">
+        <v>2.76</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
+        <v>7</v>
+      </c>
+      <c r="AW288">
+        <v>5</v>
+      </c>
+      <c r="AX288">
+        <v>7</v>
+      </c>
+      <c r="AY288">
+        <v>9</v>
+      </c>
+      <c r="AZ288">
+        <v>14</v>
+      </c>
+      <c r="BA288">
+        <v>5</v>
+      </c>
+      <c r="BB288">
+        <v>8</v>
+      </c>
+      <c r="BC288">
+        <v>13</v>
+      </c>
+      <c r="BD288">
+        <v>1.64</v>
+      </c>
+      <c r="BE288">
+        <v>8</v>
+      </c>
+      <c r="BF288">
+        <v>2.67</v>
+      </c>
+      <c r="BG288">
+        <v>1.27</v>
+      </c>
+      <c r="BH288">
+        <v>3.55</v>
+      </c>
+      <c r="BI288">
+        <v>1.5</v>
+      </c>
+      <c r="BJ288">
+        <v>2.48</v>
+      </c>
+      <c r="BK288">
+        <v>1.92</v>
+      </c>
+      <c r="BL288">
+        <v>1.88</v>
+      </c>
+      <c r="BM288">
+        <v>2.45</v>
+      </c>
+      <c r="BN288">
+        <v>1.5</v>
+      </c>
+      <c r="BO288">
+        <v>3.4</v>
+      </c>
+      <c r="BP288">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,9 @@
     <t>['45', '88']</t>
   </si>
   <si>
+    <t>['3', '15', '90']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -1182,6 +1185,9 @@
   <si>
     <t>['34', '45+7', '90+1']</t>
   </si>
+  <si>
+    <t>['37']</t>
+  </si>
 </sst>
 </file>
 
@@ -1542,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1888,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2625,7 +2631,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -3321,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
         <v>1.6</v>
@@ -3449,7 +3455,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
@@ -3733,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>1.21</v>
@@ -4273,7 +4279,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>2.75</v>
@@ -4560,7 +4566,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>1.5</v>
@@ -4685,7 +4691,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <v>3.25</v>
@@ -4891,7 +4897,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17">
         <v>2.87</v>
@@ -5097,7 +5103,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q18">
         <v>3.8</v>
@@ -5178,7 +5184,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5303,7 +5309,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>3.48</v>
@@ -5715,7 +5721,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5921,7 +5927,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6127,7 +6133,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -7981,7 +7987,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8059,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8474,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.19</v>
@@ -8883,7 +8889,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9092,7 +9098,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.14</v>
@@ -9423,7 +9429,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9710,7 +9716,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>1.71</v>
@@ -9835,7 +9841,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9913,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -10041,7 +10047,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10247,7 +10253,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -10453,7 +10459,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10659,7 +10665,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11689,7 +11695,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q50">
         <v>2.35</v>
@@ -11895,7 +11901,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -12101,7 +12107,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12307,7 +12313,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12513,7 +12519,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12925,7 +12931,7 @@
         <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q56">
         <v>3.65</v>
@@ -13131,7 +13137,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13209,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13337,7 +13343,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13415,10 +13421,10 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -14860,7 +14866,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.55</v>
@@ -14985,7 +14991,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15191,7 +15197,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15397,7 +15403,7 @@
         <v>103</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15603,7 +15609,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -16427,7 +16433,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16633,7 +16639,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16839,7 +16845,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17457,7 +17463,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>2.95</v>
@@ -17538,7 +17544,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17744,7 +17750,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.15</v>
@@ -18075,7 +18081,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18153,7 +18159,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ81">
         <v>2.07</v>
@@ -18487,7 +18493,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18693,7 +18699,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -19311,7 +19317,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>2.63</v>
@@ -19517,7 +19523,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19723,7 +19729,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19801,7 +19807,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ89">
         <v>0.93</v>
@@ -20959,7 +20965,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>2.63</v>
@@ -21165,7 +21171,7 @@
         <v>90</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>3.3</v>
@@ -21371,7 +21377,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>2.35</v>
@@ -21577,7 +21583,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -22401,7 +22407,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q102">
         <v>3.3</v>
@@ -22607,7 +22613,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22813,7 +22819,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q104">
         <v>1.95</v>
@@ -23097,7 +23103,7 @@
         <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ105">
         <v>1.36</v>
@@ -23225,7 +23231,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>3.5</v>
@@ -23306,7 +23312,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ106">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR106">
         <v>1.05</v>
@@ -23637,7 +23643,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q108">
         <v>2.91</v>
@@ -23843,7 +23849,7 @@
         <v>90</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>3.4</v>
@@ -24461,7 +24467,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24954,7 +24960,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -25079,7 +25085,7 @@
         <v>129</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>2.35</v>
@@ -25981,7 +25987,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26109,7 +26115,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26187,7 +26193,7 @@
         <v>1.83</v>
       </c>
       <c r="AP120">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -26315,7 +26321,7 @@
         <v>90</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26727,7 +26733,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>3.9</v>
@@ -26808,7 +26814,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ123">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR123">
         <v>1.16</v>
@@ -26933,7 +26939,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q124">
         <v>3.3</v>
@@ -27139,7 +27145,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q125">
         <v>2.7</v>
@@ -27345,7 +27351,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>3.9</v>
@@ -27551,7 +27557,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27629,7 +27635,7 @@
         <v>2.4</v>
       </c>
       <c r="AP127">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ127">
         <v>2.07</v>
@@ -27757,7 +27763,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q128">
         <v>2.35</v>
@@ -27963,7 +27969,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28581,7 +28587,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28787,7 +28793,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -30023,7 +30029,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30104,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR139">
         <v>1.14</v>
@@ -30641,7 +30647,7 @@
         <v>125</v>
       </c>
       <c r="P142" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q142">
         <v>2.45</v>
@@ -30925,7 +30931,7 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ143">
         <v>0.93</v>
@@ -31465,7 +31471,7 @@
         <v>90</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31671,7 +31677,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q147">
         <v>2.7</v>
@@ -32083,7 +32089,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q149">
         <v>3.65</v>
@@ -32289,7 +32295,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32573,10 +32579,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ151">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -33113,7 +33119,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33319,7 +33325,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q155">
         <v>2.68</v>
@@ -34555,7 +34561,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q161">
         <v>2.86</v>
@@ -34636,7 +34642,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34842,7 +34848,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ162">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1.5</v>
@@ -35379,7 +35385,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35457,7 +35463,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ165">
         <v>1.13</v>
@@ -35585,7 +35591,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q166">
         <v>3.35</v>
@@ -36409,7 +36415,7 @@
         <v>197</v>
       </c>
       <c r="P170" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36615,7 +36621,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36693,7 +36699,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36821,7 +36827,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -36899,7 +36905,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ172">
         <v>0.73</v>
@@ -37027,7 +37033,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q173">
         <v>2.87</v>
@@ -37108,7 +37114,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -37645,7 +37651,7 @@
         <v>203</v>
       </c>
       <c r="P176" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q176">
         <v>2.2</v>
@@ -37851,7 +37857,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>2.7</v>
@@ -38469,7 +38475,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>2.15</v>
@@ -38675,7 +38681,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39371,7 +39377,7 @@
         <v>1.22</v>
       </c>
       <c r="AP184">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ184">
         <v>1.13</v>
@@ -39705,7 +39711,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39911,7 +39917,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40117,7 +40123,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40529,7 +40535,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q190">
         <v>3.1</v>
@@ -40816,7 +40822,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ191">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR191">
         <v>1.53</v>
@@ -40941,7 +40947,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41147,7 +41153,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41353,7 +41359,7 @@
         <v>126</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -41640,7 +41646,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -42177,7 +42183,7 @@
         <v>217</v>
       </c>
       <c r="P198" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q198">
         <v>2.75</v>
@@ -42795,7 +42801,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -42873,7 +42879,7 @@
         <v>1.33</v>
       </c>
       <c r="AP201">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ201">
         <v>1.5</v>
@@ -43001,7 +43007,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>3.42</v>
@@ -43207,7 +43213,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q203">
         <v>3.3</v>
@@ -43619,7 +43625,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43825,7 +43831,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q206">
         <v>2.85</v>
@@ -44237,7 +44243,7 @@
         <v>125</v>
       </c>
       <c r="P208" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q208">
         <v>3.3</v>
@@ -44315,7 +44321,7 @@
         <v>1.2</v>
       </c>
       <c r="AP208">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ208">
         <v>1.36</v>
@@ -44443,7 +44449,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q209">
         <v>3.98</v>
@@ -44649,7 +44655,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44855,7 +44861,7 @@
         <v>225</v>
       </c>
       <c r="P211" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44936,7 +44942,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ211">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR211">
         <v>1.39</v>
@@ -45142,7 +45148,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ212">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR212">
         <v>1.34</v>
@@ -45345,7 +45351,7 @@
         <v>0.8</v>
       </c>
       <c r="AP213">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ213">
         <v>1</v>
@@ -46091,7 +46097,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q217">
         <v>2.4</v>
@@ -46709,7 +46715,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -46915,7 +46921,7 @@
         <v>112</v>
       </c>
       <c r="P221" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q221">
         <v>2.75</v>
@@ -47202,7 +47208,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ222">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR222">
         <v>1.73</v>
@@ -48357,7 +48363,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q228">
         <v>3.3</v>
@@ -48563,7 +48569,7 @@
         <v>235</v>
       </c>
       <c r="P229" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -48847,7 +48853,7 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ230">
         <v>2.14</v>
@@ -48975,7 +48981,7 @@
         <v>115</v>
       </c>
       <c r="P231" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49387,7 +49393,7 @@
         <v>90</v>
       </c>
       <c r="P233" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q233">
         <v>4.6</v>
@@ -49593,7 +49599,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -49799,7 +49805,7 @@
         <v>182</v>
       </c>
       <c r="P235" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -50005,7 +50011,7 @@
         <v>92</v>
       </c>
       <c r="P236" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50086,7 +50092,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ236">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR236">
         <v>1.23</v>
@@ -50623,7 +50629,7 @@
         <v>239</v>
       </c>
       <c r="P239" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q239">
         <v>2.76</v>
@@ -51653,7 +51659,7 @@
         <v>166</v>
       </c>
       <c r="P244" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51731,7 +51737,7 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ244">
         <v>1.21</v>
@@ -51859,7 +51865,7 @@
         <v>243</v>
       </c>
       <c r="P245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>2.38</v>
@@ -52065,7 +52071,7 @@
         <v>90</v>
       </c>
       <c r="P246" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52271,7 +52277,7 @@
         <v>244</v>
       </c>
       <c r="P247" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52477,7 +52483,7 @@
         <v>245</v>
       </c>
       <c r="P248" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q248">
         <v>2.75</v>
@@ -53095,7 +53101,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53173,7 +53179,7 @@
         <v>1.25</v>
       </c>
       <c r="AP251">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ251">
         <v>1.21</v>
@@ -53301,7 +53307,7 @@
         <v>249</v>
       </c>
       <c r="P252" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53588,7 +53594,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ253">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR253">
         <v>1.12</v>
@@ -53919,7 +53925,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54125,7 +54131,7 @@
         <v>251</v>
       </c>
       <c r="P256" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54206,7 +54212,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ256">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR256">
         <v>1.74</v>
@@ -54331,7 +54337,7 @@
         <v>226</v>
       </c>
       <c r="P257" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q257">
         <v>2.75</v>
@@ -54949,7 +54955,7 @@
         <v>253</v>
       </c>
       <c r="P260" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q260">
         <v>3</v>
@@ -55854,7 +55860,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ264">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR264">
         <v>1.31</v>
@@ -55979,7 +55985,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q265">
         <v>4.73</v>
@@ -56057,7 +56063,7 @@
         <v>1.62</v>
       </c>
       <c r="AP265">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ265">
         <v>1.6</v>
@@ -56185,7 +56191,7 @@
         <v>256</v>
       </c>
       <c r="P266" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q266">
         <v>2.28</v>
@@ -56391,7 +56397,7 @@
         <v>257</v>
       </c>
       <c r="P267" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q267">
         <v>2.23</v>
@@ -56597,7 +56603,7 @@
         <v>152</v>
       </c>
       <c r="P268" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q268">
         <v>3.89</v>
@@ -56803,7 +56809,7 @@
         <v>258</v>
       </c>
       <c r="P269" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -57009,7 +57015,7 @@
         <v>90</v>
       </c>
       <c r="P270" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57293,7 +57299,7 @@
         <v>1.08</v>
       </c>
       <c r="AP271">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ271">
         <v>1</v>
@@ -57627,7 +57633,7 @@
         <v>260</v>
       </c>
       <c r="P273" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q273">
         <v>3.3</v>
@@ -57708,7 +57714,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ273">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR273">
         <v>1.14</v>
@@ -57833,7 +57839,7 @@
         <v>133</v>
       </c>
       <c r="P274" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -58039,7 +58045,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58863,7 +58869,7 @@
         <v>261</v>
       </c>
       <c r="P279" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q279">
         <v>2.88</v>
@@ -59069,7 +59075,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q280">
         <v>3</v>
@@ -59687,7 +59693,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q283">
         <v>2.98</v>
@@ -59893,7 +59899,7 @@
         <v>264</v>
       </c>
       <c r="P284" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q284">
         <v>2.6</v>
@@ -60511,7 +60517,7 @@
         <v>265</v>
       </c>
       <c r="P287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60873,6 +60879,418 @@
         <v>3.4</v>
       </c>
       <c r="BP288">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6846244</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45361.51041666666</v>
+      </c>
+      <c r="F289">
+        <v>29</v>
+      </c>
+      <c r="G289" t="s">
+        <v>77</v>
+      </c>
+      <c r="H289" t="s">
+        <v>70</v>
+      </c>
+      <c r="I289">
+        <v>2</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>3</v>
+      </c>
+      <c r="L289">
+        <v>3</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>4</v>
+      </c>
+      <c r="O289" t="s">
+        <v>266</v>
+      </c>
+      <c r="P289" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q289">
+        <v>2.45</v>
+      </c>
+      <c r="R289">
+        <v>2.05</v>
+      </c>
+      <c r="S289">
+        <v>4.5</v>
+      </c>
+      <c r="T289">
+        <v>1.42</v>
+      </c>
+      <c r="U289">
+        <v>2.65</v>
+      </c>
+      <c r="V289">
+        <v>2.88</v>
+      </c>
+      <c r="W289">
+        <v>1.36</v>
+      </c>
+      <c r="X289">
+        <v>9</v>
+      </c>
+      <c r="Y289">
+        <v>1.07</v>
+      </c>
+      <c r="Z289">
+        <v>1.88</v>
+      </c>
+      <c r="AA289">
+        <v>3.22</v>
+      </c>
+      <c r="AB289">
+        <v>3.87</v>
+      </c>
+      <c r="AC289">
+        <v>1.06</v>
+      </c>
+      <c r="AD289">
+        <v>8.5</v>
+      </c>
+      <c r="AE289">
+        <v>1.35</v>
+      </c>
+      <c r="AF289">
+        <v>3.1</v>
+      </c>
+      <c r="AG289">
+        <v>2.13</v>
+      </c>
+      <c r="AH289">
+        <v>1.76</v>
+      </c>
+      <c r="AI289">
+        <v>1.85</v>
+      </c>
+      <c r="AJ289">
+        <v>1.85</v>
+      </c>
+      <c r="AK289">
+        <v>1.18</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>1.91</v>
+      </c>
+      <c r="AN289">
+        <v>2.14</v>
+      </c>
+      <c r="AO289">
+        <v>0.86</v>
+      </c>
+      <c r="AP289">
+        <v>2.2</v>
+      </c>
+      <c r="AQ289">
+        <v>0.8</v>
+      </c>
+      <c r="AR289">
+        <v>1.44</v>
+      </c>
+      <c r="AS289">
+        <v>1.2</v>
+      </c>
+      <c r="AT289">
+        <v>2.64</v>
+      </c>
+      <c r="AU289">
+        <v>6</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>7</v>
+      </c>
+      <c r="AX289">
+        <v>5</v>
+      </c>
+      <c r="AY289">
+        <v>13</v>
+      </c>
+      <c r="AZ289">
+        <v>8</v>
+      </c>
+      <c r="BA289">
+        <v>6</v>
+      </c>
+      <c r="BB289">
+        <v>6</v>
+      </c>
+      <c r="BC289">
+        <v>12</v>
+      </c>
+      <c r="BD289">
+        <v>1.51</v>
+      </c>
+      <c r="BE289">
+        <v>8.5</v>
+      </c>
+      <c r="BF289">
+        <v>3.16</v>
+      </c>
+      <c r="BG289">
+        <v>1.27</v>
+      </c>
+      <c r="BH289">
+        <v>3.55</v>
+      </c>
+      <c r="BI289">
+        <v>1.5</v>
+      </c>
+      <c r="BJ289">
+        <v>2.48</v>
+      </c>
+      <c r="BK289">
+        <v>1.9</v>
+      </c>
+      <c r="BL289">
+        <v>1.9</v>
+      </c>
+      <c r="BM289">
+        <v>2.45</v>
+      </c>
+      <c r="BN289">
+        <v>1.5</v>
+      </c>
+      <c r="BO289">
+        <v>3.4</v>
+      </c>
+      <c r="BP289">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6846239</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45361.51041666666</v>
+      </c>
+      <c r="F290">
+        <v>29</v>
+      </c>
+      <c r="G290" t="s">
+        <v>88</v>
+      </c>
+      <c r="H290" t="s">
+        <v>86</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
+        <v>90</v>
+      </c>
+      <c r="P290" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q290">
+        <v>4</v>
+      </c>
+      <c r="R290">
+        <v>2.25</v>
+      </c>
+      <c r="S290">
+        <v>2.38</v>
+      </c>
+      <c r="T290">
+        <v>1.33</v>
+      </c>
+      <c r="U290">
+        <v>3.25</v>
+      </c>
+      <c r="V290">
+        <v>2.5</v>
+      </c>
+      <c r="W290">
+        <v>1.5</v>
+      </c>
+      <c r="X290">
+        <v>6.5</v>
+      </c>
+      <c r="Y290">
+        <v>1.11</v>
+      </c>
+      <c r="Z290">
+        <v>3.46</v>
+      </c>
+      <c r="AA290">
+        <v>3.41</v>
+      </c>
+      <c r="AB290">
+        <v>1.93</v>
+      </c>
+      <c r="AC290">
+        <v>1.04</v>
+      </c>
+      <c r="AD290">
+        <v>10</v>
+      </c>
+      <c r="AE290">
+        <v>1.22</v>
+      </c>
+      <c r="AF290">
+        <v>4.2</v>
+      </c>
+      <c r="AG290">
+        <v>1.63</v>
+      </c>
+      <c r="AH290">
+        <v>2.14</v>
+      </c>
+      <c r="AI290">
+        <v>1.67</v>
+      </c>
+      <c r="AJ290">
+        <v>2.1</v>
+      </c>
+      <c r="AK290">
+        <v>1.9</v>
+      </c>
+      <c r="AL290">
+        <v>1.22</v>
+      </c>
+      <c r="AM290">
+        <v>1.25</v>
+      </c>
+      <c r="AN290">
+        <v>0.77</v>
+      </c>
+      <c r="AO290">
+        <v>1.5</v>
+      </c>
+      <c r="AP290">
+        <v>0.71</v>
+      </c>
+      <c r="AQ290">
+        <v>1.6</v>
+      </c>
+      <c r="AR290">
+        <v>1.5</v>
+      </c>
+      <c r="AS290">
+        <v>1.38</v>
+      </c>
+      <c r="AT290">
+        <v>2.88</v>
+      </c>
+      <c r="AU290">
+        <v>4</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>9</v>
+      </c>
+      <c r="AX290">
+        <v>1</v>
+      </c>
+      <c r="AY290">
+        <v>13</v>
+      </c>
+      <c r="AZ290">
+        <v>6</v>
+      </c>
+      <c r="BA290">
+        <v>7</v>
+      </c>
+      <c r="BB290">
+        <v>3</v>
+      </c>
+      <c r="BC290">
+        <v>10</v>
+      </c>
+      <c r="BD290">
+        <v>2.28</v>
+      </c>
+      <c r="BE290">
+        <v>8</v>
+      </c>
+      <c r="BF290">
+        <v>1.85</v>
+      </c>
+      <c r="BG290">
+        <v>1.27</v>
+      </c>
+      <c r="BH290">
+        <v>3.55</v>
+      </c>
+      <c r="BI290">
+        <v>1.5</v>
+      </c>
+      <c r="BJ290">
+        <v>2.48</v>
+      </c>
+      <c r="BK290">
+        <v>1.88</v>
+      </c>
+      <c r="BL290">
+        <v>1.92</v>
+      </c>
+      <c r="BM290">
+        <v>2.45</v>
+      </c>
+      <c r="BN290">
+        <v>1.5</v>
+      </c>
+      <c r="BO290">
+        <v>3.4</v>
+      </c>
+      <c r="BP290">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,10 +751,10 @@
     <t>['37', '40', '50', '90+2']</t>
   </si>
   <si>
-    <t>['31', '47']</t>
+    <t>['35', '64', '83']</t>
   </si>
   <si>
-    <t>['35', '64', '83']</t>
+    <t>['31', '47']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -766,10 +766,10 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['60']</t>
+    <t>['49', '50']</t>
   </si>
   <si>
-    <t>['49', '50']</t>
+    <t>['60']</t>
   </si>
   <si>
     <t>['24']</t>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>['3', '15', '90']</t>
+  </si>
+  <si>
+    <t>['77', '84']</t>
   </si>
   <si>
     <t>['5', '77']</t>
@@ -1144,13 +1147,13 @@
     <t>['23', '26']</t>
   </si>
   <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['18', '44']</t>
   </si>
   <si>
     <t>['19', '56']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
   <si>
     <t>['62', '90+2']</t>
@@ -1171,10 +1174,10 @@
     <t>['38', '76']</t>
   </si>
   <si>
-    <t>['5', '13']</t>
+    <t>['7', '19', '59']</t>
   </si>
   <si>
-    <t>['7', '19', '59']</t>
+    <t>['5', '13']</t>
   </si>
   <si>
     <t>['9', '18', '80']</t>
@@ -1187,6 +1190,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['18', '30', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2094,7 +2100,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ3">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2425,7 +2431,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2631,7 +2637,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -3455,7 +3461,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>1.36</v>
@@ -4154,7 +4160,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ13">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4279,7 +4285,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>2.75</v>
@@ -4691,7 +4697,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>3.25</v>
@@ -4897,7 +4903,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q17">
         <v>2.87</v>
@@ -5103,7 +5109,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q18">
         <v>3.8</v>
@@ -5309,7 +5315,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>3.48</v>
@@ -5721,7 +5727,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5927,7 +5933,7 @@
         <v>90</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -6133,7 +6139,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6211,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -7035,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7450,7 +7456,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR29">
         <v>1.17</v>
@@ -7781,7 +7787,7 @@
         <v>113</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.6</v>
@@ -7987,7 +7993,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8686,7 +8692,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.24</v>
@@ -9429,7 +9435,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9841,7 +9847,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10047,7 +10053,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10253,7 +10259,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -10459,7 +10465,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10665,7 +10671,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10743,7 +10749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10949,7 +10955,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>1.21</v>
@@ -11158,7 +11164,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>0.77</v>
@@ -11695,7 +11701,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q50">
         <v>2.35</v>
@@ -11776,7 +11782,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR50">
         <v>2.04</v>
@@ -11901,7 +11907,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q51">
         <v>3.6</v>
@@ -12107,7 +12113,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12313,7 +12319,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12519,7 +12525,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12931,7 +12937,7 @@
         <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q56">
         <v>3.65</v>
@@ -13137,7 +13143,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13343,7 +13349,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -14991,7 +14997,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15197,7 +15203,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15278,7 +15284,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR67">
         <v>1.48</v>
@@ -15403,7 +15409,7 @@
         <v>103</v>
       </c>
       <c r="P68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15484,7 +15490,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR68">
         <v>0.98</v>
@@ -15609,7 +15615,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -16305,7 +16311,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16433,7 +16439,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16639,7 +16645,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16717,7 +16723,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
         <v>1.5</v>
@@ -16845,7 +16851,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17463,7 +17469,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q78">
         <v>2.95</v>
@@ -18081,7 +18087,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18493,7 +18499,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18699,7 +18705,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -19317,7 +19323,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q87">
         <v>2.63</v>
@@ -19523,7 +19529,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19729,7 +19735,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19810,7 +19816,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ89">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR89">
         <v>1.56</v>
@@ -20631,7 +20637,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93">
         <v>1.21</v>
@@ -20840,7 +20846,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20965,7 +20971,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>2.63</v>
@@ -21043,7 +21049,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21171,7 +21177,7 @@
         <v>90</v>
       </c>
       <c r="P96" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q96">
         <v>3.3</v>
@@ -21377,7 +21383,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q97">
         <v>2.35</v>
@@ -21583,7 +21589,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -22407,7 +22413,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q102">
         <v>3.3</v>
@@ -22613,7 +22619,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22819,7 +22825,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q104">
         <v>1.95</v>
@@ -22897,7 +22903,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>0.73</v>
@@ -23231,7 +23237,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>3.5</v>
@@ -23643,7 +23649,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q108">
         <v>2.91</v>
@@ -23849,7 +23855,7 @@
         <v>90</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>3.4</v>
@@ -23930,7 +23936,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR109">
         <v>1.13</v>
@@ -24467,7 +24473,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24754,7 +24760,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ113">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR113">
         <v>1.41</v>
@@ -24957,7 +24963,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ114">
         <v>1.6</v>
@@ -25085,7 +25091,7 @@
         <v>129</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q115">
         <v>2.35</v>
@@ -25781,7 +25787,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
         <v>1.2</v>
@@ -26115,7 +26121,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26321,7 +26327,7 @@
         <v>90</v>
       </c>
       <c r="P121" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26733,7 +26739,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q123">
         <v>3.9</v>
@@ -26939,7 +26945,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>3.3</v>
@@ -27145,7 +27151,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q125">
         <v>2.7</v>
@@ -27351,7 +27357,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q126">
         <v>3.9</v>
@@ -27557,7 +27563,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27763,7 +27769,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q128">
         <v>2.35</v>
@@ -27841,7 +27847,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27969,7 +27975,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28253,7 +28259,7 @@
         <v>0.86</v>
       </c>
       <c r="AP130">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28587,7 +28593,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28668,7 +28674,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ132">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR132">
         <v>1.24</v>
@@ -28793,7 +28799,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -28874,7 +28880,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -30029,7 +30035,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30647,7 +30653,7 @@
         <v>125</v>
       </c>
       <c r="P142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q142">
         <v>2.45</v>
@@ -30725,7 +30731,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1.5</v>
@@ -30934,7 +30940,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ143">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR143">
         <v>1.36</v>
@@ -31471,7 +31477,7 @@
         <v>90</v>
       </c>
       <c r="P146" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31677,7 +31683,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q147">
         <v>2.7</v>
@@ -32089,7 +32095,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>3.65</v>
@@ -32295,7 +32301,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32991,7 +32997,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ153">
         <v>0.73</v>
@@ -33119,7 +33125,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33325,7 +33331,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q155">
         <v>2.68</v>
@@ -33612,7 +33618,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ156">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -34561,7 +34567,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>2.86</v>
@@ -35385,7 +35391,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35591,7 +35597,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q166">
         <v>3.35</v>
@@ -36415,7 +36421,7 @@
         <v>197</v>
       </c>
       <c r="P170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36493,7 +36499,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
         <v>1.36</v>
@@ -36621,7 +36627,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36827,7 +36833,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -37033,7 +37039,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q173">
         <v>2.87</v>
@@ -37651,7 +37657,7 @@
         <v>203</v>
       </c>
       <c r="P176" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q176">
         <v>2.2</v>
@@ -37857,7 +37863,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q177">
         <v>2.7</v>
@@ -38350,7 +38356,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ179">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR179">
         <v>1.32</v>
@@ -38475,7 +38481,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q180">
         <v>2.15</v>
@@ -38553,7 +38559,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP180">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38681,7 +38687,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39711,7 +39717,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -39917,7 +39923,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40123,7 +40129,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40204,7 +40210,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ188">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR188">
         <v>1.18</v>
@@ -40535,7 +40541,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q190">
         <v>3.1</v>
@@ -40613,7 +40619,7 @@
         <v>2.13</v>
       </c>
       <c r="AP190">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ190">
         <v>2.14</v>
@@ -40819,7 +40825,7 @@
         <v>1.11</v>
       </c>
       <c r="AP191">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ191">
         <v>0.8</v>
@@ -40947,7 +40953,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41153,7 +41159,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41359,7 +41365,7 @@
         <v>126</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -42183,7 +42189,7 @@
         <v>217</v>
       </c>
       <c r="P198" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q198">
         <v>2.75</v>
@@ -42595,7 +42601,7 @@
         <v>182</v>
       </c>
       <c r="P200" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q200">
         <v>2.38</v>
@@ -42676,7 +42682,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ200">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR200">
         <v>1.68</v>
@@ -42801,7 +42807,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43007,7 +43013,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q202">
         <v>3.42</v>
@@ -43085,7 +43091,7 @@
         <v>2.11</v>
       </c>
       <c r="AP202">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ202">
         <v>2.07</v>
@@ -43213,7 +43219,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q203">
         <v>3.3</v>
@@ -43625,7 +43631,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43831,7 +43837,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q206">
         <v>2.85</v>
@@ -44243,7 +44249,7 @@
         <v>125</v>
       </c>
       <c r="P208" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q208">
         <v>3.3</v>
@@ -44449,7 +44455,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q209">
         <v>3.98</v>
@@ -44530,7 +44536,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR209">
         <v>1.43</v>
@@ -44655,7 +44661,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44733,7 +44739,7 @@
         <v>1.4</v>
       </c>
       <c r="AP210">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ210">
         <v>1.21</v>
@@ -44861,7 +44867,7 @@
         <v>225</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -46097,7 +46103,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q217">
         <v>2.4</v>
@@ -46178,7 +46184,7 @@
         <v>2</v>
       </c>
       <c r="AQ217">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR217">
         <v>1.5</v>
@@ -46715,7 +46721,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -46921,7 +46927,7 @@
         <v>112</v>
       </c>
       <c r="P221" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q221">
         <v>2.75</v>
@@ -47205,7 +47211,7 @@
         <v>1.09</v>
       </c>
       <c r="AP222">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ222">
         <v>0.8</v>
@@ -48238,7 +48244,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ227">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -48363,7 +48369,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q228">
         <v>3.3</v>
@@ -48569,7 +48575,7 @@
         <v>235</v>
       </c>
       <c r="P229" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -48647,7 +48653,7 @@
         <v>1.27</v>
       </c>
       <c r="AP229">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ229">
         <v>1.21</v>
@@ -48981,7 +48987,7 @@
         <v>115</v>
       </c>
       <c r="P231" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49393,7 +49399,7 @@
         <v>90</v>
       </c>
       <c r="P233" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q233">
         <v>4.6</v>
@@ -49474,7 +49480,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ233">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR233">
         <v>1.11</v>
@@ -49599,7 +49605,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -49805,7 +49811,7 @@
         <v>182</v>
       </c>
       <c r="P235" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -50011,7 +50017,7 @@
         <v>92</v>
       </c>
       <c r="P236" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50629,7 +50635,7 @@
         <v>239</v>
       </c>
       <c r="P239" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>2.76</v>
@@ -50710,7 +50716,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ239">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR239">
         <v>1.31</v>
@@ -51659,7 +51665,7 @@
         <v>166</v>
       </c>
       <c r="P244" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51865,7 +51871,7 @@
         <v>243</v>
       </c>
       <c r="P245" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q245">
         <v>2.38</v>
@@ -52071,7 +52077,7 @@
         <v>90</v>
       </c>
       <c r="P246" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52277,7 +52283,7 @@
         <v>244</v>
       </c>
       <c r="P247" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52441,7 +52447,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>6846202</v>
+        <v>6846204</v>
       </c>
       <c r="C248" t="s">
         <v>68</v>
@@ -52456,190 +52462,190 @@
         <v>25</v>
       </c>
       <c r="G248" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H248" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I248">
         <v>1</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N248">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O248" t="s">
         <v>245</v>
       </c>
       <c r="P248" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="Q248">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S248">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T248">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U248">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V248">
+        <v>2.62</v>
+      </c>
+      <c r="W248">
+        <v>1.44</v>
+      </c>
+      <c r="X248">
+        <v>6.5</v>
+      </c>
+      <c r="Y248">
+        <v>1.1</v>
+      </c>
+      <c r="Z248">
+        <v>2.2</v>
+      </c>
+      <c r="AA248">
+        <v>3.3</v>
+      </c>
+      <c r="AB248">
+        <v>3.1</v>
+      </c>
+      <c r="AC248">
+        <v>1.06</v>
+      </c>
+      <c r="AD248">
+        <v>8</v>
+      </c>
+      <c r="AE248">
+        <v>1.3</v>
+      </c>
+      <c r="AF248">
         <v>3.4</v>
       </c>
-      <c r="W248">
+      <c r="AG248">
+        <v>1.8</v>
+      </c>
+      <c r="AH248">
+        <v>1.8</v>
+      </c>
+      <c r="AI248">
+        <v>1.73</v>
+      </c>
+      <c r="AJ248">
+        <v>2</v>
+      </c>
+      <c r="AK248">
+        <v>1.33</v>
+      </c>
+      <c r="AL248">
         <v>1.3</v>
       </c>
-      <c r="X248">
-        <v>9</v>
-      </c>
-      <c r="Y248">
-        <v>1.05</v>
-      </c>
-      <c r="Z248">
-        <v>1.95</v>
-      </c>
-      <c r="AA248">
-        <v>3</v>
-      </c>
-      <c r="AB248">
-        <v>4.1</v>
-      </c>
-      <c r="AC248">
-        <v>1.1</v>
-      </c>
-      <c r="AD248">
-        <v>6.5</v>
-      </c>
-      <c r="AE248">
-        <v>1.49</v>
-      </c>
-      <c r="AF248">
-        <v>2.45</v>
-      </c>
-      <c r="AG248">
-        <v>2.47</v>
-      </c>
-      <c r="AH248">
-        <v>1.48</v>
-      </c>
-      <c r="AI248">
-        <v>2.05</v>
-      </c>
-      <c r="AJ248">
-        <v>1.7</v>
-      </c>
-      <c r="AK248">
-        <v>1.22</v>
-      </c>
-      <c r="AL248">
-        <v>1.28</v>
-      </c>
       <c r="AM248">
+        <v>1.65</v>
+      </c>
+      <c r="AN248">
+        <v>1.83</v>
+      </c>
+      <c r="AO248">
         <v>1.75</v>
       </c>
-      <c r="AN248">
-        <v>1.92</v>
-      </c>
-      <c r="AO248">
-        <v>1.25</v>
-      </c>
       <c r="AP248">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ248">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AR248">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AS248">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="AT248">
-        <v>2.33</v>
+        <v>3.16</v>
       </c>
       <c r="AU248">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV248">
         <v>5</v>
       </c>
       <c r="AW248">
+        <v>1</v>
+      </c>
+      <c r="AX248">
+        <v>10</v>
+      </c>
+      <c r="AY248">
         <v>6</v>
       </c>
-      <c r="AX248">
-        <v>1</v>
-      </c>
-      <c r="AY248">
-        <v>13</v>
-      </c>
       <c r="AZ248">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BA248">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB248">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC248">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD248">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="BE248">
         <v>8.5</v>
       </c>
       <c r="BF248">
-        <v>3.59</v>
+        <v>2.43</v>
       </c>
       <c r="BG248">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="BH248">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="BI248">
-        <v>1.92</v>
+        <v>1.35</v>
       </c>
       <c r="BJ248">
-        <v>1.88</v>
+        <v>3.05</v>
       </c>
       <c r="BK248">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="BL248">
-        <v>1.49</v>
+        <v>2.23</v>
       </c>
       <c r="BM248">
-        <v>3.5</v>
+        <v>2.04</v>
       </c>
       <c r="BN248">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="BO248">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="BP248">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="249" spans="1:68">
@@ -52647,7 +52653,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>6846204</v>
+        <v>6846202</v>
       </c>
       <c r="C249" t="s">
         <v>68</v>
@@ -52662,190 +52668,190 @@
         <v>25</v>
       </c>
       <c r="G249" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H249" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I249">
         <v>1</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O249" t="s">
         <v>246</v>
       </c>
       <c r="P249" t="s">
-        <v>90</v>
+        <v>374</v>
       </c>
       <c r="Q249">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R249">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S249">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="T249">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U249">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V249">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="W249">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X249">
+        <v>9</v>
+      </c>
+      <c r="Y249">
+        <v>1.05</v>
+      </c>
+      <c r="Z249">
+        <v>1.95</v>
+      </c>
+      <c r="AA249">
+        <v>3</v>
+      </c>
+      <c r="AB249">
+        <v>4.1</v>
+      </c>
+      <c r="AC249">
+        <v>1.1</v>
+      </c>
+      <c r="AD249">
         <v>6.5</v>
       </c>
-      <c r="Y249">
-        <v>1.1</v>
-      </c>
-      <c r="Z249">
-        <v>2.2</v>
-      </c>
-      <c r="AA249">
-        <v>3.3</v>
-      </c>
-      <c r="AB249">
-        <v>3.1</v>
-      </c>
-      <c r="AC249">
-        <v>1.06</v>
-      </c>
-      <c r="AD249">
-        <v>8</v>
-      </c>
       <c r="AE249">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="AF249">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="AG249">
+        <v>2.47</v>
+      </c>
+      <c r="AH249">
+        <v>1.48</v>
+      </c>
+      <c r="AI249">
+        <v>2.05</v>
+      </c>
+      <c r="AJ249">
+        <v>1.7</v>
+      </c>
+      <c r="AK249">
+        <v>1.22</v>
+      </c>
+      <c r="AL249">
+        <v>1.28</v>
+      </c>
+      <c r="AM249">
+        <v>1.75</v>
+      </c>
+      <c r="AN249">
+        <v>1.92</v>
+      </c>
+      <c r="AO249">
+        <v>1.25</v>
+      </c>
+      <c r="AP249">
         <v>1.8</v>
       </c>
-      <c r="AH249">
-        <v>1.8</v>
-      </c>
-      <c r="AI249">
-        <v>1.73</v>
-      </c>
-      <c r="AJ249">
-        <v>2</v>
-      </c>
-      <c r="AK249">
-        <v>1.33</v>
-      </c>
-      <c r="AL249">
-        <v>1.3</v>
-      </c>
-      <c r="AM249">
-        <v>1.65</v>
-      </c>
-      <c r="AN249">
-        <v>1.83</v>
-      </c>
-      <c r="AO249">
-        <v>1.75</v>
-      </c>
-      <c r="AP249">
-        <v>1.79</v>
-      </c>
       <c r="AQ249">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AR249">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AS249">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="AT249">
-        <v>3.16</v>
+        <v>2.33</v>
       </c>
       <c r="AU249">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV249">
         <v>5</v>
       </c>
       <c r="AW249">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX249">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AY249">
+        <v>13</v>
+      </c>
+      <c r="AZ249">
         <v>6</v>
       </c>
-      <c r="AZ249">
-        <v>15</v>
-      </c>
       <c r="BA249">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB249">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC249">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD249">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="BE249">
         <v>8.5</v>
       </c>
       <c r="BF249">
-        <v>2.43</v>
+        <v>3.59</v>
       </c>
       <c r="BG249">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="BH249">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="BI249">
-        <v>1.35</v>
+        <v>1.92</v>
       </c>
       <c r="BJ249">
-        <v>3.05</v>
+        <v>1.88</v>
       </c>
       <c r="BK249">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="BL249">
-        <v>2.23</v>
+        <v>1.49</v>
       </c>
       <c r="BM249">
-        <v>2.04</v>
+        <v>3.5</v>
       </c>
       <c r="BN249">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="BO249">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="BP249">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="250" spans="1:68">
@@ -52973,7 +52979,7 @@
         <v>1.33</v>
       </c>
       <c r="AP250">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ250">
         <v>1.2</v>
@@ -53101,7 +53107,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53307,7 +53313,7 @@
         <v>249</v>
       </c>
       <c r="P252" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53471,7 +53477,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>6846216</v>
+        <v>6846212</v>
       </c>
       <c r="C253" t="s">
         <v>68</v>
@@ -53486,190 +53492,190 @@
         <v>26</v>
       </c>
       <c r="G253" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H253" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I253">
         <v>0</v>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O253" t="s">
         <v>250</v>
       </c>
       <c r="P253" t="s">
-        <v>90</v>
+        <v>377</v>
       </c>
       <c r="Q253">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="R253">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="S253">
         <v>3.9</v>
       </c>
       <c r="T253">
+        <v>1.34</v>
+      </c>
+      <c r="U253">
+        <v>3</v>
+      </c>
+      <c r="V253">
+        <v>2.5</v>
+      </c>
+      <c r="W253">
+        <v>1.47</v>
+      </c>
+      <c r="X253">
+        <v>6</v>
+      </c>
+      <c r="Y253">
+        <v>1.11</v>
+      </c>
+      <c r="Z253">
+        <v>1.83</v>
+      </c>
+      <c r="AA253">
+        <v>3.66</v>
+      </c>
+      <c r="AB253">
+        <v>4.1</v>
+      </c>
+      <c r="AC253">
+        <v>1.05</v>
+      </c>
+      <c r="AD253">
+        <v>9.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.25</v>
+      </c>
+      <c r="AF253">
+        <v>3.8</v>
+      </c>
+      <c r="AG253">
+        <v>1.83</v>
+      </c>
+      <c r="AH253">
+        <v>1.95</v>
+      </c>
+      <c r="AI253">
         <v>1.65</v>
       </c>
-      <c r="U253">
+      <c r="AJ253">
         <v>2.1</v>
       </c>
-      <c r="V253">
+      <c r="AK253">
+        <v>1.27</v>
+      </c>
+      <c r="AL253">
+        <v>1.28</v>
+      </c>
+      <c r="AM253">
+        <v>1.8</v>
+      </c>
+      <c r="AN253">
+        <v>1.69</v>
+      </c>
+      <c r="AO253">
+        <v>1.67</v>
+      </c>
+      <c r="AP253">
+        <v>1.73</v>
+      </c>
+      <c r="AQ253">
+        <v>1.6</v>
+      </c>
+      <c r="AR253">
+        <v>1.74</v>
+      </c>
+      <c r="AS253">
+        <v>1.31</v>
+      </c>
+      <c r="AT253">
+        <v>3.05</v>
+      </c>
+      <c r="AU253">
+        <v>6</v>
+      </c>
+      <c r="AV253">
+        <v>9</v>
+      </c>
+      <c r="AW253">
+        <v>7</v>
+      </c>
+      <c r="AX253">
+        <v>5</v>
+      </c>
+      <c r="AY253">
+        <v>13</v>
+      </c>
+      <c r="AZ253">
+        <v>14</v>
+      </c>
+      <c r="BA253">
+        <v>5</v>
+      </c>
+      <c r="BB253">
+        <v>9</v>
+      </c>
+      <c r="BC253">
+        <v>14</v>
+      </c>
+      <c r="BD253">
+        <v>1.69</v>
+      </c>
+      <c r="BE253">
+        <v>8</v>
+      </c>
+      <c r="BF253">
+        <v>2.54</v>
+      </c>
+      <c r="BG253">
+        <v>1.22</v>
+      </c>
+      <c r="BH253">
         <v>4</v>
       </c>
-      <c r="W253">
-        <v>1.21</v>
-      </c>
-      <c r="X253">
-        <v>12</v>
-      </c>
-      <c r="Y253">
-        <v>1.03</v>
-      </c>
-      <c r="Z253">
-        <v>2.77</v>
-      </c>
-      <c r="AA253">
-        <v>2.76</v>
-      </c>
-      <c r="AB253">
-        <v>2.98</v>
-      </c>
-      <c r="AC253">
-        <v>1.14</v>
-      </c>
-      <c r="AD253">
-        <v>5.5</v>
-      </c>
-      <c r="AE253">
-        <v>1.62</v>
-      </c>
-      <c r="AF253">
+      <c r="BI253">
+        <v>1.41</v>
+      </c>
+      <c r="BJ253">
+        <v>2.75</v>
+      </c>
+      <c r="BK253">
+        <v>1.73</v>
+      </c>
+      <c r="BL253">
+        <v>2.04</v>
+      </c>
+      <c r="BM253">
         <v>2.23</v>
       </c>
-      <c r="AG253">
-        <v>2.9</v>
-      </c>
-      <c r="AH253">
+      <c r="BN253">
+        <v>1.61</v>
+      </c>
+      <c r="BO253">
+        <v>3</v>
+      </c>
+      <c r="BP253">
         <v>1.36</v>
-      </c>
-      <c r="AI253">
-        <v>2.25</v>
-      </c>
-      <c r="AJ253">
-        <v>1.55</v>
-      </c>
-      <c r="AK253">
-        <v>1.35</v>
-      </c>
-      <c r="AL253">
-        <v>1.41</v>
-      </c>
-      <c r="AM253">
-        <v>1.49</v>
-      </c>
-      <c r="AN253">
-        <v>1</v>
-      </c>
-      <c r="AO253">
-        <v>1</v>
-      </c>
-      <c r="AP253">
-        <v>1.29</v>
-      </c>
-      <c r="AQ253">
-        <v>0.8</v>
-      </c>
-      <c r="AR253">
-        <v>1.12</v>
-      </c>
-      <c r="AS253">
-        <v>1.17</v>
-      </c>
-      <c r="AT253">
-        <v>2.29</v>
-      </c>
-      <c r="AU253">
-        <v>2</v>
-      </c>
-      <c r="AV253">
-        <v>2</v>
-      </c>
-      <c r="AW253">
-        <v>3</v>
-      </c>
-      <c r="AX253">
-        <v>1</v>
-      </c>
-      <c r="AY253">
-        <v>5</v>
-      </c>
-      <c r="AZ253">
-        <v>3</v>
-      </c>
-      <c r="BA253">
-        <v>3</v>
-      </c>
-      <c r="BB253">
-        <v>4</v>
-      </c>
-      <c r="BC253">
-        <v>7</v>
-      </c>
-      <c r="BD253">
-        <v>2.05</v>
-      </c>
-      <c r="BE253">
-        <v>7.5</v>
-      </c>
-      <c r="BF253">
-        <v>2.05</v>
-      </c>
-      <c r="BG253">
-        <v>1.33</v>
-      </c>
-      <c r="BH253">
-        <v>3.15</v>
-      </c>
-      <c r="BI253">
-        <v>1.6</v>
-      </c>
-      <c r="BJ253">
-        <v>2.25</v>
-      </c>
-      <c r="BK253">
-        <v>2.04</v>
-      </c>
-      <c r="BL253">
-        <v>1.73</v>
-      </c>
-      <c r="BM253">
-        <v>2.75</v>
-      </c>
-      <c r="BN253">
-        <v>1.42</v>
-      </c>
-      <c r="BO253">
-        <v>3.85</v>
-      </c>
-      <c r="BP253">
-        <v>1.24</v>
       </c>
     </row>
     <row r="254" spans="1:68">
@@ -53883,7 +53889,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>6846213</v>
+        <v>6846209</v>
       </c>
       <c r="C255" t="s">
         <v>68</v>
@@ -53898,190 +53904,190 @@
         <v>26</v>
       </c>
       <c r="G255" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H255" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255">
         <v>1</v>
       </c>
       <c r="K255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O255" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="P255" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q255">
+        <v>2.75</v>
+      </c>
+      <c r="R255">
+        <v>1.98</v>
+      </c>
+      <c r="S255">
+        <v>3.9</v>
+      </c>
+      <c r="T255">
+        <v>1.46</v>
+      </c>
+      <c r="U255">
+        <v>2.5</v>
+      </c>
+      <c r="V255">
         <v>3.1</v>
       </c>
-      <c r="R255">
-        <v>1.9</v>
-      </c>
-      <c r="S255">
-        <v>3.6</v>
-      </c>
-      <c r="T255">
-        <v>1.52</v>
-      </c>
-      <c r="U255">
-        <v>2.35</v>
-      </c>
-      <c r="V255">
-        <v>3.4</v>
-      </c>
       <c r="W255">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="X255">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y255">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z255">
-        <v>2.52</v>
+        <v>2.07</v>
       </c>
       <c r="AA255">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="AB255">
-        <v>3.07</v>
+        <v>3.88</v>
       </c>
       <c r="AC255">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD255">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE255">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AF255">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="AG255">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="AH255">
+        <v>1.58</v>
+      </c>
+      <c r="AI255">
+        <v>1.95</v>
+      </c>
+      <c r="AJ255">
+        <v>1.73</v>
+      </c>
+      <c r="AK255">
+        <v>1.3</v>
+      </c>
+      <c r="AL255">
+        <v>1.33</v>
+      </c>
+      <c r="AM255">
+        <v>1.66</v>
+      </c>
+      <c r="AN255">
+        <v>1.77</v>
+      </c>
+      <c r="AO255">
+        <v>1.25</v>
+      </c>
+      <c r="AP255">
+        <v>1.53</v>
+      </c>
+      <c r="AQ255">
         <v>1.5</v>
       </c>
-      <c r="AI255">
-        <v>2.05</v>
-      </c>
-      <c r="AJ255">
-        <v>1.66</v>
-      </c>
-      <c r="AK255">
-        <v>1.38</v>
-      </c>
-      <c r="AL255">
-        <v>1.36</v>
-      </c>
-      <c r="AM255">
-        <v>1.51</v>
-      </c>
-      <c r="AN255">
-        <v>1</v>
-      </c>
-      <c r="AO255">
-        <v>0.77</v>
-      </c>
-      <c r="AP255">
-        <v>0.86</v>
-      </c>
-      <c r="AQ255">
-        <v>0.93</v>
-      </c>
       <c r="AR255">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AS255">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AT255">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="AU255">
+        <v>5</v>
+      </c>
+      <c r="AV255">
         <v>6</v>
       </c>
-      <c r="AV255">
-        <v>5</v>
-      </c>
       <c r="AW255">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY255">
         <v>11</v>
       </c>
       <c r="AZ255">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA255">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB255">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC255">
         <v>10</v>
       </c>
       <c r="BD255">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="BE255">
         <v>7.5</v>
       </c>
       <c r="BF255">
-        <v>1.91</v>
+        <v>2.53</v>
       </c>
       <c r="BG255">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH255">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BI255">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BJ255">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="BK255">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="BL255">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BM255">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BN255">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BO255">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BP255">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="256" spans="1:68">
@@ -54089,7 +54095,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>6846212</v>
+        <v>6846216</v>
       </c>
       <c r="C256" t="s">
         <v>68</v>
@@ -54104,190 +54110,190 @@
         <v>26</v>
       </c>
       <c r="G256" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H256" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N256">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O256" t="s">
         <v>251</v>
       </c>
       <c r="P256" t="s">
-        <v>377</v>
+        <v>90</v>
       </c>
       <c r="Q256">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R256">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="S256">
         <v>3.9</v>
       </c>
       <c r="T256">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="U256">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="V256">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="W256">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="X256">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y256">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="Z256">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="AA256">
-        <v>3.66</v>
+        <v>2.76</v>
       </c>
       <c r="AB256">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="AC256">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AD256">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE256">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AF256">
-        <v>3.8</v>
+        <v>2.23</v>
       </c>
       <c r="AG256">
-        <v>1.83</v>
+        <v>2.9</v>
       </c>
       <c r="AH256">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AI256">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AJ256">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AK256">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AL256">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AM256">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="AN256">
-        <v>1.69</v>
+        <v>1</v>
       </c>
       <c r="AO256">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP256">
+        <v>1.29</v>
+      </c>
+      <c r="AQ256">
+        <v>0.8</v>
+      </c>
+      <c r="AR256">
+        <v>1.12</v>
+      </c>
+      <c r="AS256">
+        <v>1.17</v>
+      </c>
+      <c r="AT256">
+        <v>2.29</v>
+      </c>
+      <c r="AU256">
+        <v>2</v>
+      </c>
+      <c r="AV256">
+        <v>2</v>
+      </c>
+      <c r="AW256">
+        <v>3</v>
+      </c>
+      <c r="AX256">
+        <v>1</v>
+      </c>
+      <c r="AY256">
+        <v>5</v>
+      </c>
+      <c r="AZ256">
+        <v>3</v>
+      </c>
+      <c r="BA256">
+        <v>3</v>
+      </c>
+      <c r="BB256">
+        <v>4</v>
+      </c>
+      <c r="BC256">
+        <v>7</v>
+      </c>
+      <c r="BD256">
+        <v>2.05</v>
+      </c>
+      <c r="BE256">
+        <v>7.5</v>
+      </c>
+      <c r="BF256">
+        <v>2.05</v>
+      </c>
+      <c r="BG256">
+        <v>1.33</v>
+      </c>
+      <c r="BH256">
+        <v>3.15</v>
+      </c>
+      <c r="BI256">
+        <v>1.6</v>
+      </c>
+      <c r="BJ256">
+        <v>2.25</v>
+      </c>
+      <c r="BK256">
+        <v>2.04</v>
+      </c>
+      <c r="BL256">
         <v>1.73</v>
       </c>
-      <c r="AQ256">
-        <v>1.6</v>
-      </c>
-      <c r="AR256">
-        <v>1.74</v>
-      </c>
-      <c r="AS256">
-        <v>1.31</v>
-      </c>
-      <c r="AT256">
-        <v>3.05</v>
-      </c>
-      <c r="AU256">
-        <v>6</v>
-      </c>
-      <c r="AV256">
-        <v>9</v>
-      </c>
-      <c r="AW256">
-        <v>7</v>
-      </c>
-      <c r="AX256">
-        <v>5</v>
-      </c>
-      <c r="AY256">
-        <v>13</v>
-      </c>
-      <c r="AZ256">
-        <v>14</v>
-      </c>
-      <c r="BA256">
-        <v>5</v>
-      </c>
-      <c r="BB256">
-        <v>9</v>
-      </c>
-      <c r="BC256">
-        <v>14</v>
-      </c>
-      <c r="BD256">
-        <v>1.69</v>
-      </c>
-      <c r="BE256">
-        <v>8</v>
-      </c>
-      <c r="BF256">
-        <v>2.54</v>
-      </c>
-      <c r="BG256">
-        <v>1.22</v>
-      </c>
-      <c r="BH256">
-        <v>4</v>
-      </c>
-      <c r="BI256">
-        <v>1.41</v>
-      </c>
-      <c r="BJ256">
+      <c r="BM256">
         <v>2.75</v>
       </c>
-      <c r="BK256">
-        <v>1.73</v>
-      </c>
-      <c r="BL256">
-        <v>2.04</v>
-      </c>
-      <c r="BM256">
-        <v>2.23</v>
-      </c>
       <c r="BN256">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="BO256">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="BP256">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="257" spans="1:68">
@@ -54295,7 +54301,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>6846209</v>
+        <v>6846213</v>
       </c>
       <c r="C257" t="s">
         <v>68</v>
@@ -54310,190 +54316,190 @@
         <v>26</v>
       </c>
       <c r="G257" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H257" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257">
         <v>1</v>
       </c>
       <c r="K257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O257" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="P257" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q257">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R257">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T257">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="U257">
+        <v>2.35</v>
+      </c>
+      <c r="V257">
+        <v>3.4</v>
+      </c>
+      <c r="W257">
+        <v>1.27</v>
+      </c>
+      <c r="X257">
+        <v>9.75</v>
+      </c>
+      <c r="Y257">
+        <v>1.04</v>
+      </c>
+      <c r="Z257">
+        <v>2.52</v>
+      </c>
+      <c r="AA257">
+        <v>2.97</v>
+      </c>
+      <c r="AB257">
+        <v>3.07</v>
+      </c>
+      <c r="AC257">
+        <v>1.1</v>
+      </c>
+      <c r="AD257">
+        <v>6.5</v>
+      </c>
+      <c r="AE257">
+        <v>1.47</v>
+      </c>
+      <c r="AF257">
+        <v>2.45</v>
+      </c>
+      <c r="AG257">
         <v>2.5</v>
       </c>
-      <c r="V257">
-        <v>3.1</v>
-      </c>
-      <c r="W257">
-        <v>1.32</v>
-      </c>
-      <c r="X257">
-        <v>8.5</v>
-      </c>
-      <c r="Y257">
-        <v>1.06</v>
-      </c>
-      <c r="Z257">
-        <v>2.07</v>
-      </c>
-      <c r="AA257">
-        <v>3.14</v>
-      </c>
-      <c r="AB257">
-        <v>3.88</v>
-      </c>
-      <c r="AC257">
-        <v>1.08</v>
-      </c>
-      <c r="AD257">
-        <v>7.5</v>
-      </c>
-      <c r="AE257">
-        <v>1.42</v>
-      </c>
-      <c r="AF257">
-        <v>2.8</v>
-      </c>
-      <c r="AG257">
-        <v>2.28</v>
-      </c>
       <c r="AH257">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AI257">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ257">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AK257">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AL257">
+        <v>1.36</v>
+      </c>
+      <c r="AM257">
+        <v>1.51</v>
+      </c>
+      <c r="AN257">
+        <v>1</v>
+      </c>
+      <c r="AO257">
+        <v>0.77</v>
+      </c>
+      <c r="AP257">
+        <v>0.86</v>
+      </c>
+      <c r="AQ257">
+        <v>0.87</v>
+      </c>
+      <c r="AR257">
         <v>1.33</v>
       </c>
-      <c r="AM257">
-        <v>1.66</v>
-      </c>
-      <c r="AN257">
-        <v>1.77</v>
-      </c>
-      <c r="AO257">
-        <v>1.25</v>
-      </c>
-      <c r="AP257">
-        <v>1.53</v>
-      </c>
-      <c r="AQ257">
-        <v>1.5</v>
-      </c>
-      <c r="AR257">
-        <v>1.45</v>
-      </c>
       <c r="AS257">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AT257">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="AU257">
+        <v>6</v>
+      </c>
+      <c r="AV257">
         <v>5</v>
       </c>
-      <c r="AV257">
-        <v>6</v>
-      </c>
       <c r="AW257">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY257">
         <v>11</v>
       </c>
       <c r="AZ257">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA257">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB257">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC257">
         <v>10</v>
       </c>
       <c r="BD257">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="BE257">
         <v>7.5</v>
       </c>
       <c r="BF257">
-        <v>2.53</v>
+        <v>1.91</v>
       </c>
       <c r="BG257">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH257">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="BI257">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="BJ257">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="BK257">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="BL257">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="BM257">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BN257">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BO257">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BP257">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="258" spans="1:68">
@@ -54501,7 +54507,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>6846217</v>
+        <v>6846210</v>
       </c>
       <c r="C258" t="s">
         <v>68</v>
@@ -54516,160 +54522,160 @@
         <v>26</v>
       </c>
       <c r="G258" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H258" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O258" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="P258" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="Q258">
-        <v>2.51</v>
+        <v>3.1</v>
       </c>
       <c r="R258">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="S258">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="T258">
+        <v>1.43</v>
+      </c>
+      <c r="U258">
+        <v>2.6</v>
+      </c>
+      <c r="V258">
+        <v>2.9</v>
+      </c>
+      <c r="W258">
         <v>1.35</v>
       </c>
-      <c r="U258">
+      <c r="X258">
+        <v>7.75</v>
+      </c>
+      <c r="Y258">
+        <v>1.07</v>
+      </c>
+      <c r="Z258">
+        <v>2.43</v>
+      </c>
+      <c r="AA258">
         <v>3.05</v>
       </c>
-      <c r="V258">
-        <v>2.61</v>
-      </c>
-      <c r="W258">
+      <c r="AB258">
+        <v>2.95</v>
+      </c>
+      <c r="AC258">
+        <v>1.07</v>
+      </c>
+      <c r="AD258">
+        <v>8</v>
+      </c>
+      <c r="AE258">
+        <v>1.36</v>
+      </c>
+      <c r="AF258">
+        <v>3.1</v>
+      </c>
+      <c r="AG258">
+        <v>2.1</v>
+      </c>
+      <c r="AH258">
+        <v>1.68</v>
+      </c>
+      <c r="AI258">
+        <v>1.8</v>
+      </c>
+      <c r="AJ258">
+        <v>1.87</v>
+      </c>
+      <c r="AK258">
+        <v>1.41</v>
+      </c>
+      <c r="AL258">
+        <v>1.33</v>
+      </c>
+      <c r="AM258">
+        <v>1.5</v>
+      </c>
+      <c r="AN258">
+        <v>2</v>
+      </c>
+      <c r="AO258">
+        <v>2.08</v>
+      </c>
+      <c r="AP258">
+        <v>2</v>
+      </c>
+      <c r="AQ258">
+        <v>2.07</v>
+      </c>
+      <c r="AR258">
         <v>1.46</v>
       </c>
-      <c r="X258">
-        <v>6.4</v>
-      </c>
-      <c r="Y258">
-        <v>1.1</v>
-      </c>
-      <c r="Z258">
-        <v>2</v>
-      </c>
-      <c r="AA258">
-        <v>3.25</v>
-      </c>
-      <c r="AB258">
-        <v>3.7</v>
-      </c>
-      <c r="AC258">
-        <v>1.01</v>
-      </c>
-      <c r="AD258">
-        <v>10</v>
-      </c>
-      <c r="AE258">
-        <v>1.22</v>
-      </c>
-      <c r="AF258">
-        <v>3.64</v>
-      </c>
-      <c r="AG258">
-        <v>1.83</v>
-      </c>
-      <c r="AH258">
-        <v>1.93</v>
-      </c>
-      <c r="AI258">
-        <v>1.68</v>
-      </c>
-      <c r="AJ258">
-        <v>2.05</v>
-      </c>
-      <c r="AK258">
-        <v>1.29</v>
-      </c>
-      <c r="AL258">
-        <v>1.28</v>
-      </c>
-      <c r="AM258">
-        <v>1.82</v>
-      </c>
-      <c r="AN258">
-        <v>1.08</v>
-      </c>
-      <c r="AO258">
-        <v>0.77</v>
-      </c>
-      <c r="AP258">
-        <v>1</v>
-      </c>
-      <c r="AQ258">
-        <v>0.73</v>
-      </c>
-      <c r="AR258">
-        <v>1.26</v>
-      </c>
       <c r="AS258">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AT258">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="AU258">
         <v>3</v>
       </c>
       <c r="AV258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW258">
         <v>2</v>
       </c>
       <c r="AX258">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY258">
         <v>5</v>
       </c>
       <c r="AZ258">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA258">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB258">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC258">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BD258">
-        <v>1.82</v>
+        <v>2.28</v>
       </c>
       <c r="BE258">
         <v>8</v>
       </c>
       <c r="BF258">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="BG258">
         <v>1.27</v>
@@ -54684,10 +54690,10 @@
         <v>2.48</v>
       </c>
       <c r="BK258">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BL258">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BM258">
         <v>2.45</v>
@@ -54707,7 +54713,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>6846210</v>
+        <v>6846215</v>
       </c>
       <c r="C259" t="s">
         <v>68</v>
@@ -54722,37 +54728,37 @@
         <v>26</v>
       </c>
       <c r="G259" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H259" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L259">
         <v>1</v>
       </c>
       <c r="M259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O259" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P259" t="s">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="Q259">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R259">
         <v>2</v>
@@ -54767,22 +54773,22 @@
         <v>2.6</v>
       </c>
       <c r="V259">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="W259">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X259">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="Y259">
         <v>1.07</v>
       </c>
       <c r="Z259">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AA259">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AB259">
         <v>2.95</v>
@@ -54791,13 +54797,13 @@
         <v>1.07</v>
       </c>
       <c r="AD259">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE259">
         <v>1.36</v>
       </c>
       <c r="AF259">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG259">
         <v>2.1</v>
@@ -54806,76 +54812,76 @@
         <v>1.68</v>
       </c>
       <c r="AI259">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AJ259">
         <v>1.87</v>
       </c>
       <c r="AK259">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AL259">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AM259">
+        <v>1.51</v>
+      </c>
+      <c r="AN259">
+        <v>1.17</v>
+      </c>
+      <c r="AO259">
         <v>1.5</v>
       </c>
-      <c r="AN259">
-        <v>2</v>
-      </c>
-      <c r="AO259">
-        <v>2.08</v>
-      </c>
       <c r="AP259">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ259">
-        <v>2.07</v>
+        <v>1.6</v>
       </c>
       <c r="AR259">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS259">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT259">
-        <v>2.81</v>
+        <v>2.69</v>
       </c>
       <c r="AU259">
         <v>3</v>
       </c>
       <c r="AV259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW259">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY259">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ259">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB259">
         <v>3</v>
       </c>
       <c r="BC259">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD259">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="BE259">
         <v>8</v>
       </c>
       <c r="BF259">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="BG259">
         <v>1.27</v>
@@ -54890,10 +54896,10 @@
         <v>2.48</v>
       </c>
       <c r="BK259">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL259">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BM259">
         <v>2.45</v>
@@ -54913,7 +54919,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>6846215</v>
+        <v>6846217</v>
       </c>
       <c r="C260" t="s">
         <v>68</v>
@@ -54928,10 +54934,10 @@
         <v>26</v>
       </c>
       <c r="G260" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H260" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -54943,109 +54949,109 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N260">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O260" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="P260" t="s">
-        <v>379</v>
+        <v>90</v>
       </c>
       <c r="Q260">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="R260">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="S260">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="T260">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="U260">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="V260">
-        <v>2.95</v>
+        <v>2.61</v>
       </c>
       <c r="W260">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="X260">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="Y260">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z260">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AA260">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AB260">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="AC260">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD260">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE260">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF260">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="AG260">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AH260">
+        <v>1.93</v>
+      </c>
+      <c r="AI260">
         <v>1.68</v>
       </c>
-      <c r="AI260">
+      <c r="AJ260">
+        <v>2.05</v>
+      </c>
+      <c r="AK260">
+        <v>1.29</v>
+      </c>
+      <c r="AL260">
+        <v>1.28</v>
+      </c>
+      <c r="AM260">
         <v>1.82</v>
       </c>
-      <c r="AJ260">
-        <v>1.87</v>
-      </c>
-      <c r="AK260">
-        <v>1.42</v>
-      </c>
-      <c r="AL260">
-        <v>1.32</v>
-      </c>
-      <c r="AM260">
-        <v>1.51</v>
-      </c>
       <c r="AN260">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO260">
-        <v>1.5</v>
+        <v>0.77</v>
       </c>
       <c r="AP260">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ260">
-        <v>1.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR260">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AS260">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT260">
-        <v>2.69</v>
+        <v>2.59</v>
       </c>
       <c r="AU260">
         <v>3</v>
@@ -55054,34 +55060,34 @@
         <v>5</v>
       </c>
       <c r="AW260">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AX260">
+        <v>10</v>
+      </c>
+      <c r="AY260">
         <v>5</v>
       </c>
-      <c r="AY260">
-        <v>11</v>
-      </c>
       <c r="AZ260">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA260">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB260">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC260">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD260">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BE260">
         <v>8</v>
       </c>
       <c r="BF260">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="BG260">
         <v>1.27</v>
@@ -55096,10 +55102,10 @@
         <v>2.48</v>
       </c>
       <c r="BK260">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BL260">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BM260">
         <v>2.45</v>
@@ -55985,7 +55991,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q265">
         <v>4.73</v>
@@ -56191,7 +56197,7 @@
         <v>256</v>
       </c>
       <c r="P266" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q266">
         <v>2.28</v>
@@ -56269,7 +56275,7 @@
         <v>0.92</v>
       </c>
       <c r="AP266">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ266">
         <v>1</v>
@@ -56355,7 +56361,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>6846221</v>
+        <v>6846224</v>
       </c>
       <c r="C267" t="s">
         <v>68</v>
@@ -56370,10 +56376,10 @@
         <v>27</v>
       </c>
       <c r="G267" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H267" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -56388,172 +56394,172 @@
         <v>1</v>
       </c>
       <c r="M267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O267" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="P267" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="Q267">
-        <v>2.23</v>
+        <v>3.89</v>
       </c>
       <c r="R267">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="S267">
-        <v>6.03</v>
+        <v>3.05</v>
       </c>
       <c r="T267">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="U267">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="V267">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="W267">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X267">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y267">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z267">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="AA267">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="AB267">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="AC267">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD267">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="AE267">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF267">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="AG267">
         <v>1.95</v>
       </c>
       <c r="AH267">
+        <v>1.78</v>
+      </c>
+      <c r="AI267">
+        <v>1.8</v>
+      </c>
+      <c r="AJ267">
+        <v>1.95</v>
+      </c>
+      <c r="AK267">
+        <v>1.63</v>
+      </c>
+      <c r="AL267">
+        <v>1.25</v>
+      </c>
+      <c r="AM267">
+        <v>1.36</v>
+      </c>
+      <c r="AN267">
+        <v>1.15</v>
+      </c>
+      <c r="AO267">
+        <v>2</v>
+      </c>
+      <c r="AP267">
+        <v>1.2</v>
+      </c>
+      <c r="AQ267">
+        <v>2.14</v>
+      </c>
+      <c r="AR267">
+        <v>1.5</v>
+      </c>
+      <c r="AS267">
+        <v>1.6</v>
+      </c>
+      <c r="AT267">
+        <v>3.1</v>
+      </c>
+      <c r="AU267">
+        <v>3</v>
+      </c>
+      <c r="AV267">
+        <v>8</v>
+      </c>
+      <c r="AW267">
+        <v>5</v>
+      </c>
+      <c r="AX267">
+        <v>9</v>
+      </c>
+      <c r="AY267">
+        <v>8</v>
+      </c>
+      <c r="AZ267">
+        <v>17</v>
+      </c>
+      <c r="BA267">
+        <v>3</v>
+      </c>
+      <c r="BB267">
+        <v>10</v>
+      </c>
+      <c r="BC267">
+        <v>13</v>
+      </c>
+      <c r="BD267">
+        <v>2.3</v>
+      </c>
+      <c r="BE267">
+        <v>7</v>
+      </c>
+      <c r="BF267">
+        <v>1.92</v>
+      </c>
+      <c r="BG267">
+        <v>1.32</v>
+      </c>
+      <c r="BH267">
+        <v>3.2</v>
+      </c>
+      <c r="BI267">
+        <v>1.61</v>
+      </c>
+      <c r="BJ267">
+        <v>2.3</v>
+      </c>
+      <c r="BK267">
+        <v>1.97</v>
+      </c>
+      <c r="BL267">
         <v>1.83</v>
       </c>
-      <c r="AI267">
-        <v>1.95</v>
-      </c>
-      <c r="AJ267">
-        <v>1.8</v>
-      </c>
-      <c r="AK267">
-        <v>1.16</v>
-      </c>
-      <c r="AL267">
-        <v>1.26</v>
-      </c>
-      <c r="AM267">
-        <v>2.24</v>
-      </c>
-      <c r="AN267">
-        <v>2.23</v>
-      </c>
-      <c r="AO267">
-        <v>1.23</v>
-      </c>
-      <c r="AP267">
-        <v>2.2</v>
-      </c>
-      <c r="AQ267">
-        <v>1.21</v>
-      </c>
-      <c r="AR267">
-        <v>1.68</v>
-      </c>
-      <c r="AS267">
-        <v>1.24</v>
-      </c>
-      <c r="AT267">
-        <v>2.92</v>
-      </c>
-      <c r="AU267">
-        <v>3</v>
-      </c>
-      <c r="AV267">
-        <v>4</v>
-      </c>
-      <c r="AW267">
-        <v>3</v>
-      </c>
-      <c r="AX267">
-        <v>4</v>
-      </c>
-      <c r="AY267">
-        <v>6</v>
-      </c>
-      <c r="AZ267">
-        <v>8</v>
-      </c>
-      <c r="BA267">
-        <v>7</v>
-      </c>
-      <c r="BB267">
-        <v>5</v>
-      </c>
-      <c r="BC267">
-        <v>12</v>
-      </c>
-      <c r="BD267">
-        <v>1.35</v>
-      </c>
-      <c r="BE267">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF267">
-        <v>4.36</v>
-      </c>
-      <c r="BG267">
-        <v>1.25</v>
-      </c>
-      <c r="BH267">
-        <v>3.7</v>
-      </c>
-      <c r="BI267">
-        <v>1.46</v>
-      </c>
-      <c r="BJ267">
-        <v>2.6</v>
-      </c>
-      <c r="BK267">
-        <v>1.8</v>
-      </c>
-      <c r="BL267">
-        <v>2.02</v>
-      </c>
       <c r="BM267">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="BN267">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BO267">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="BP267">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="268" spans="1:68">
@@ -56561,7 +56567,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>6846224</v>
+        <v>6846221</v>
       </c>
       <c r="C268" t="s">
         <v>68</v>
@@ -56576,10 +56582,10 @@
         <v>27</v>
       </c>
       <c r="G268" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H268" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -56594,172 +56600,172 @@
         <v>1</v>
       </c>
       <c r="M268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O268" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="P268" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="Q268">
-        <v>3.89</v>
+        <v>2.23</v>
       </c>
       <c r="R268">
-        <v>2.21</v>
+        <v>2.35</v>
       </c>
       <c r="S268">
-        <v>3.05</v>
+        <v>6.03</v>
       </c>
       <c r="T268">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="U268">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="V268">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="W268">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X268">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Y268">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z268">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="AA268">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AB268">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="AC268">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD268">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="AE268">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF268">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="AG268">
         <v>1.95</v>
       </c>
       <c r="AH268">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AI268">
+        <v>1.95</v>
+      </c>
+      <c r="AJ268">
         <v>1.8</v>
       </c>
-      <c r="AJ268">
-        <v>1.95</v>
-      </c>
       <c r="AK268">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="AL268">
+        <v>1.26</v>
+      </c>
+      <c r="AM268">
+        <v>2.24</v>
+      </c>
+      <c r="AN268">
+        <v>2.23</v>
+      </c>
+      <c r="AO268">
+        <v>1.23</v>
+      </c>
+      <c r="AP268">
+        <v>2.2</v>
+      </c>
+      <c r="AQ268">
+        <v>1.21</v>
+      </c>
+      <c r="AR268">
+        <v>1.68</v>
+      </c>
+      <c r="AS268">
+        <v>1.24</v>
+      </c>
+      <c r="AT268">
+        <v>2.92</v>
+      </c>
+      <c r="AU268">
+        <v>3</v>
+      </c>
+      <c r="AV268">
+        <v>4</v>
+      </c>
+      <c r="AW268">
+        <v>3</v>
+      </c>
+      <c r="AX268">
+        <v>4</v>
+      </c>
+      <c r="AY268">
+        <v>6</v>
+      </c>
+      <c r="AZ268">
+        <v>8</v>
+      </c>
+      <c r="BA268">
+        <v>7</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>12</v>
+      </c>
+      <c r="BD268">
+        <v>1.35</v>
+      </c>
+      <c r="BE268">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF268">
+        <v>4.36</v>
+      </c>
+      <c r="BG268">
         <v>1.25</v>
       </c>
-      <c r="AM268">
-        <v>1.36</v>
-      </c>
-      <c r="AN268">
-        <v>1.15</v>
-      </c>
-      <c r="AO268">
-        <v>2</v>
-      </c>
-      <c r="AP268">
-        <v>1.07</v>
-      </c>
-      <c r="AQ268">
-        <v>2.14</v>
-      </c>
-      <c r="AR268">
-        <v>1.5</v>
-      </c>
-      <c r="AS268">
-        <v>1.6</v>
-      </c>
-      <c r="AT268">
-        <v>3.1</v>
-      </c>
-      <c r="AU268">
-        <v>3</v>
-      </c>
-      <c r="AV268">
-        <v>8</v>
-      </c>
-      <c r="AW268">
-        <v>5</v>
-      </c>
-      <c r="AX268">
-        <v>9</v>
-      </c>
-      <c r="AY268">
-        <v>8</v>
-      </c>
-      <c r="AZ268">
-        <v>17</v>
-      </c>
-      <c r="BA268">
-        <v>3</v>
-      </c>
-      <c r="BB268">
-        <v>10</v>
-      </c>
-      <c r="BC268">
-        <v>13</v>
-      </c>
-      <c r="BD268">
-        <v>2.3</v>
-      </c>
-      <c r="BE268">
-        <v>7</v>
-      </c>
-      <c r="BF268">
-        <v>1.92</v>
-      </c>
-      <c r="BG268">
-        <v>1.32</v>
-      </c>
       <c r="BH268">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="BI268">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="BJ268">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="BK268">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="BL268">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="BM268">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="BN268">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="BO268">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="BP268">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="269" spans="1:68">
@@ -56809,7 +56815,7 @@
         <v>258</v>
       </c>
       <c r="P269" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -57015,7 +57021,7 @@
         <v>90</v>
       </c>
       <c r="P270" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57591,7 +57597,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>7195374</v>
+        <v>6846235</v>
       </c>
       <c r="C273" t="s">
         <v>68</v>
@@ -57606,142 +57612,142 @@
         <v>28</v>
       </c>
       <c r="G273" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H273" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>2</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>3</v>
+      </c>
+      <c r="N273">
         <v>4</v>
       </c>
-      <c r="J273">
-        <v>2</v>
-      </c>
-      <c r="K273">
-        <v>6</v>
-      </c>
-      <c r="L273">
+      <c r="O273" t="s">
+        <v>133</v>
+      </c>
+      <c r="P273" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q273">
         <v>4</v>
       </c>
-      <c r="M273">
-        <v>2</v>
-      </c>
-      <c r="N273">
-        <v>6</v>
-      </c>
-      <c r="O273" t="s">
-        <v>260</v>
-      </c>
-      <c r="P273" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q273">
-        <v>3.3</v>
-      </c>
       <c r="R273">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S273">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="T273">
+        <v>1.35</v>
+      </c>
+      <c r="U273">
+        <v>2.95</v>
+      </c>
+      <c r="V273">
+        <v>2.62</v>
+      </c>
+      <c r="W273">
         <v>1.42</v>
       </c>
-      <c r="U273">
-        <v>2.62</v>
-      </c>
-      <c r="V273">
-        <v>2.88</v>
-      </c>
-      <c r="W273">
-        <v>1.36</v>
-      </c>
       <c r="X273">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="Y273">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z273">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AA273">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AB273">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="AC273">
+        <v>1.04</v>
+      </c>
+      <c r="AD273">
+        <v>10</v>
+      </c>
+      <c r="AE273">
+        <v>1.25</v>
+      </c>
+      <c r="AF273">
+        <v>3.85</v>
+      </c>
+      <c r="AG273">
+        <v>1.7</v>
+      </c>
+      <c r="AH273">
+        <v>2.05</v>
+      </c>
+      <c r="AI273">
+        <v>1.67</v>
+      </c>
+      <c r="AJ273">
+        <v>2.05</v>
+      </c>
+      <c r="AK273">
+        <v>1.9</v>
+      </c>
+      <c r="AL273">
+        <v>1.22</v>
+      </c>
+      <c r="AM273">
+        <v>1.25</v>
+      </c>
+      <c r="AN273">
         <v>1.07</v>
       </c>
-      <c r="AD273">
-        <v>8</v>
-      </c>
-      <c r="AE273">
-        <v>1.35</v>
-      </c>
-      <c r="AF273">
-        <v>3.1</v>
-      </c>
-      <c r="AG273">
-        <v>1.95</v>
-      </c>
-      <c r="AH273">
-        <v>1.75</v>
-      </c>
-      <c r="AI273">
-        <v>1.73</v>
-      </c>
-      <c r="AJ273">
-        <v>1.95</v>
-      </c>
-      <c r="AK273">
-        <v>1.48</v>
-      </c>
-      <c r="AL273">
-        <v>1.3</v>
-      </c>
-      <c r="AM273">
-        <v>1.44</v>
-      </c>
-      <c r="AN273">
-        <v>1.31</v>
-      </c>
       <c r="AO273">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AP273">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AQ273">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="AR273">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS273">
         <v>1.36</v>
       </c>
       <c r="AT273">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU273">
+        <v>6</v>
+      </c>
+      <c r="AV273">
         <v>9</v>
-      </c>
-      <c r="AV273">
-        <v>8</v>
       </c>
       <c r="AW273">
         <v>5</v>
       </c>
       <c r="AX273">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY273">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ273">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA273">
         <v>5</v>
@@ -57753,40 +57759,40 @@
         <v>10</v>
       </c>
       <c r="BD273">
-        <v>2.06</v>
+        <v>2.77</v>
       </c>
       <c r="BE273">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="BF273">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="BG273">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BH273">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="BI273">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BJ273">
-        <v>2.51</v>
+        <v>2.49</v>
       </c>
       <c r="BK273">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="BL273">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="BM273">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="BN273">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="BO273">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="BP273">
         <v>1.3</v>
@@ -57797,7 +57803,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>6846235</v>
+        <v>7195374</v>
       </c>
       <c r="C274" t="s">
         <v>68</v>
@@ -57812,142 +57818,142 @@
         <v>28</v>
       </c>
       <c r="G274" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H274" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J274">
         <v>2</v>
       </c>
       <c r="K274">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L274">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N274">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O274" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="P274" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q274">
-        <v>4</v>
+   